--- a/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="4540" windowWidth="25600" windowHeight="16000" tabRatio="951" activeTab="2"/>
+    <workbookView xWindow="33600" yWindow="4540" windowWidth="25600" windowHeight="16000" tabRatio="951"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="829">
   <si>
     <t>description</t>
   </si>
@@ -122,9 +122,6 @@
     <t>dicom</t>
   </si>
   <si>
-    <t>Digital Imaging and Communications in Medicine (DICOM) is the standard for the communication and management of medical imaging information and related data.</t>
-  </si>
-  <si>
     <t>Patient</t>
   </si>
   <si>
@@ -2571,6 +2568,9 @@
   </si>
   <si>
     <t>NameOfPhysiciansReading</t>
+  </si>
+  <si>
+    <t>Digital Imaging and Communications in Medicine (DICOM) is the standard for the communication and management of medical imaging information and related data. This is not the full model, but shows the core entities. Website: http://dicom.nema.org . Documentation: http://medical.nema.org/standard.html .</t>
   </si>
 </sst>
 </file>
@@ -4375,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4397,7 +4397,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -4648,12 +4648,12 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -4684,12 +4684,12 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -4874,12 +4874,12 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -4921,12 +4921,12 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -4946,12 +4946,12 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -4986,16 +4986,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F376" sqref="F376"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="8" width="5.33203125" customWidth="1"/>
@@ -5026,7 +5026,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -5037,64 +5037,64 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" t="s">
         <v>719</v>
       </c>
-      <c r="B4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C4" t="s">
-        <v>720</v>
-      </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5105,16 +5105,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
         <v>214</v>
       </c>
-      <c r="C6" t="s">
-        <v>215</v>
-      </c>
       <c r="D6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5123,120 +5123,120 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
         <v>226</v>
       </c>
-      <c r="C7" t="s">
-        <v>227</v>
-      </c>
       <c r="D7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J8" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
         <v>224</v>
       </c>
-      <c r="C9" t="s">
-        <v>225</v>
-      </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
         <v>232</v>
       </c>
-      <c r="C10" t="s">
-        <v>233</v>
-      </c>
       <c r="D10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
         <v>230</v>
       </c>
-      <c r="C11" t="s">
-        <v>231</v>
-      </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
         <v>228</v>
       </c>
-      <c r="C12" t="s">
-        <v>229</v>
-      </c>
       <c r="D12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5245,214 +5245,214 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" t="s">
         <v>234</v>
       </c>
-      <c r="C14" t="s">
-        <v>235</v>
-      </c>
       <c r="D14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
         <v>107</v>
       </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
       <c r="D15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
       <c r="D16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
         <v>103</v>
       </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
       <c r="D17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
       <c r="D18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
         <v>95</v>
       </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
       <c r="D19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
         <v>101</v>
       </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
         <v>109</v>
       </c>
-      <c r="C21" t="s">
-        <v>110</v>
-      </c>
       <c r="D21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
         <v>99</v>
       </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
       <c r="D22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
       <c r="D23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>112</v>
-      </c>
       <c r="D24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
         <v>91</v>
       </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
       <c r="D25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -5461,177 +5461,177 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C26" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H29" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J31" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J32" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C33" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -5642,36 +5642,36 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
+        <v>373</v>
+      </c>
+      <c r="B36" t="s">
         <v>374</v>
       </c>
-      <c r="B36" t="s">
-        <v>375</v>
-      </c>
       <c r="C36" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B37" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" t="s">
         <v>373</v>
       </c>
-      <c r="C37" t="s">
-        <v>374</v>
-      </c>
       <c r="D37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -5680,311 +5680,311 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B38" t="s">
+        <v>474</v>
+      </c>
+      <c r="C38" t="s">
         <v>475</v>
       </c>
-      <c r="C38" t="s">
-        <v>476</v>
-      </c>
       <c r="D38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J39" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B40" t="s">
+        <v>440</v>
+      </c>
+      <c r="C40" t="s">
         <v>441</v>
       </c>
-      <c r="C40" t="s">
-        <v>442</v>
-      </c>
       <c r="D40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C41" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B42" t="s">
+        <v>438</v>
+      </c>
+      <c r="C42" t="s">
         <v>439</v>
       </c>
-      <c r="C42" t="s">
-        <v>440</v>
-      </c>
       <c r="D42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
         <v>152</v>
       </c>
-      <c r="C43" t="s">
-        <v>153</v>
-      </c>
       <c r="D43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J43" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>151</v>
-      </c>
       <c r="D44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J44" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B45" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45" t="s">
         <v>443</v>
       </c>
-      <c r="C45" t="s">
-        <v>444</v>
-      </c>
       <c r="D45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J45" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B46" t="s">
+        <v>436</v>
+      </c>
+      <c r="C46" t="s">
         <v>437</v>
       </c>
-      <c r="C46" t="s">
-        <v>438</v>
-      </c>
       <c r="D46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J46" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B47" t="s">
+        <v>445</v>
+      </c>
+      <c r="C47" t="s">
         <v>446</v>
       </c>
-      <c r="C47" t="s">
-        <v>447</v>
-      </c>
       <c r="D47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J47" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D48" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J48" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B49" t="s">
+        <v>428</v>
+      </c>
+      <c r="C49" t="s">
         <v>429</v>
       </c>
-      <c r="C49" t="s">
-        <v>430</v>
-      </c>
       <c r="D49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B50" t="s">
+        <v>434</v>
+      </c>
+      <c r="C50" t="s">
         <v>435</v>
       </c>
-      <c r="C50" t="s">
-        <v>436</v>
-      </c>
       <c r="D50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J50" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J51" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J53" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -5993,21 +5993,21 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B55" t="s">
+        <v>478</v>
+      </c>
+      <c r="C55" t="s">
         <v>479</v>
       </c>
-      <c r="C55" t="s">
-        <v>480</v>
-      </c>
       <c r="D55" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -6016,38 +6016,38 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B56" t="s">
+        <v>476</v>
+      </c>
+      <c r="C56" t="s">
         <v>477</v>
       </c>
-      <c r="C56" t="s">
-        <v>478</v>
-      </c>
       <c r="D56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
         <v>73</v>
       </c>
-      <c r="C57" t="s">
-        <v>74</v>
-      </c>
       <c r="D57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -6056,91 +6056,91 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s">
+        <v>359</v>
+      </c>
+      <c r="C58" t="s">
         <v>360</v>
       </c>
-      <c r="C58" t="s">
-        <v>361</v>
-      </c>
       <c r="D58" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" t="s">
         <v>249</v>
       </c>
-      <c r="C59" t="s">
-        <v>250</v>
-      </c>
       <c r="D59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" t="s">
         <v>247</v>
       </c>
-      <c r="C60" t="s">
-        <v>248</v>
-      </c>
       <c r="D60" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" t="s">
         <v>241</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>242</v>
       </c>
-      <c r="C61" t="s">
-        <v>243</v>
-      </c>
       <c r="D61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B62" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" t="s">
         <v>239</v>
       </c>
-      <c r="C62" t="s">
-        <v>240</v>
-      </c>
       <c r="D62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -6151,86 +6151,86 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B64" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" t="s">
         <v>245</v>
       </c>
-      <c r="C64" t="s">
-        <v>246</v>
-      </c>
       <c r="D64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B66" t="s">
+        <v>482</v>
+      </c>
+      <c r="C66" t="s">
         <v>483</v>
       </c>
-      <c r="C66" t="s">
-        <v>484</v>
-      </c>
       <c r="D66" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B67" t="s">
+        <v>484</v>
+      </c>
+      <c r="C67" t="s">
         <v>485</v>
       </c>
-      <c r="C67" t="s">
-        <v>486</v>
-      </c>
       <c r="D67" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B68" t="s">
+        <v>480</v>
+      </c>
+      <c r="C68" t="s">
         <v>481</v>
       </c>
-      <c r="C68" t="s">
-        <v>482</v>
-      </c>
       <c r="D68" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B69" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C69" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D69" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -6241,16 +6241,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B70" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -6261,75 +6261,75 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
+        <v>712</v>
+      </c>
+      <c r="B73" t="s">
+        <v>336</v>
+      </c>
+      <c r="C73" t="s">
+        <v>801</v>
+      </c>
+      <c r="D73" t="s">
+        <v>496</v>
+      </c>
+      <c r="E73" t="s">
         <v>713</v>
-      </c>
-      <c r="B73" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73" t="s">
-        <v>802</v>
-      </c>
-      <c r="D73" t="s">
-        <v>497</v>
-      </c>
-      <c r="E73" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" t="s">
         <v>255</v>
       </c>
-      <c r="C75" t="s">
-        <v>256</v>
-      </c>
       <c r="D75" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -6340,230 +6340,230 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B76" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" t="s">
         <v>365</v>
       </c>
-      <c r="C76" t="s">
-        <v>366</v>
-      </c>
       <c r="D76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C77" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D77" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D78" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E78" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D79" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E79" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
         <v>85</v>
       </c>
-      <c r="C80" t="s">
-        <v>86</v>
-      </c>
       <c r="D80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D81" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E81" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D82" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E82" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B83" t="s">
+        <v>418</v>
+      </c>
+      <c r="C83" t="s">
         <v>419</v>
       </c>
-      <c r="C83" t="s">
-        <v>420</v>
-      </c>
       <c r="D83" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" t="s">
         <v>258</v>
       </c>
-      <c r="C84" t="s">
-        <v>259</v>
-      </c>
       <c r="D84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B85" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D85" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B86" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" t="s">
         <v>260</v>
       </c>
-      <c r="C86" t="s">
-        <v>261</v>
-      </c>
       <c r="D86" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C87" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D87" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B88" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C88" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D88" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D89" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E89" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
         <v>70</v>
       </c>
-      <c r="C90" t="s">
-        <v>71</v>
-      </c>
       <c r="D90" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -6574,123 +6574,123 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C91" t="s">
         <v>417</v>
       </c>
-      <c r="C91" t="s">
-        <v>418</v>
-      </c>
       <c r="D91" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B92" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C92" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D92" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E92" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C93" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D93" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E93" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B94" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" t="s">
         <v>270</v>
       </c>
-      <c r="C94" t="s">
-        <v>271</v>
-      </c>
       <c r="D94" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B95" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D95" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B96" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C96" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D96" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97" t="s">
+        <v>721</v>
+      </c>
+      <c r="D97" t="s">
+        <v>532</v>
+      </c>
+      <c r="E97" t="s">
         <v>722</v>
-      </c>
-      <c r="D97" t="s">
-        <v>533</v>
-      </c>
-      <c r="E97" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B98" t="s">
+        <v>250</v>
+      </c>
+      <c r="C98" t="s">
         <v>251</v>
       </c>
-      <c r="C98" t="s">
-        <v>252</v>
-      </c>
       <c r="D98" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -6701,53 +6701,53 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
         <v>140</v>
       </c>
-      <c r="C99" t="s">
-        <v>141</v>
-      </c>
       <c r="D99" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E99" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C100" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D100" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E100" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B101" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" t="s">
         <v>160</v>
       </c>
-      <c r="C101" t="s">
-        <v>161</v>
-      </c>
       <c r="D101" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -6756,115 +6756,115 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D102" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E102" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J102" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
+        <v>488</v>
+      </c>
+      <c r="B103" t="s">
+        <v>317</v>
+      </c>
+      <c r="C103" t="s">
+        <v>804</v>
+      </c>
+      <c r="D103" t="s">
+        <v>532</v>
+      </c>
+      <c r="E103" t="s">
         <v>489</v>
       </c>
-      <c r="B103" t="s">
-        <v>318</v>
-      </c>
-      <c r="C103" t="s">
-        <v>805</v>
-      </c>
-      <c r="D103" t="s">
-        <v>533</v>
-      </c>
-      <c r="E103" t="s">
-        <v>490</v>
-      </c>
       <c r="J103" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B104" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B105" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C105" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D105" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E105" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J105" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B106" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" t="s">
         <v>316</v>
       </c>
-      <c r="C106" t="s">
-        <v>317</v>
-      </c>
       <c r="D106" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J106" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D107" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -6873,38 +6873,38 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B108" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" t="s">
         <v>160</v>
       </c>
-      <c r="C108" t="s">
-        <v>161</v>
-      </c>
       <c r="D108" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D109" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -6913,979 +6913,979 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" t="s">
         <v>162</v>
       </c>
-      <c r="C110" t="s">
-        <v>163</v>
-      </c>
       <c r="D110" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H110" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D111" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J111" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C112" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D112" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E112" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C113" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D113" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J113" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D114" t="s">
+        <v>532</v>
+      </c>
+      <c r="E114" t="s">
         <v>533</v>
       </c>
-      <c r="E114" t="s">
-        <v>534</v>
-      </c>
       <c r="J114" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C115" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D115" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E115" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J115" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D116" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J116" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C117" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E117" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C118" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D118" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E118" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D119" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E119" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J119" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D120" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E120" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" t="s">
         <v>160</v>
       </c>
-      <c r="C121" t="s">
-        <v>161</v>
-      </c>
       <c r="D121" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D122" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J122" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D123" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E123" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J123" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C124" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D124" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J124" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C125" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D125" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E125" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J125" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C126" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D126" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E126" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C127" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D127" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J127" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C128" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D128" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E128" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C129" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D129" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E129" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J129" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C130" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D130" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J130" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D131" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C132" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D132" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C133" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D133" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J133" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C134" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D134" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J134" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D135" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J135" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
+        <v>193</v>
+      </c>
+      <c r="C136" t="s">
         <v>194</v>
       </c>
-      <c r="C136" t="s">
-        <v>195</v>
-      </c>
       <c r="D136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J136" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" t="s">
+        <v>491</v>
+      </c>
+      <c r="J137" t="s">
         <v>37</v>
-      </c>
-      <c r="C137" t="s">
-        <v>41</v>
-      </c>
-      <c r="D137" t="s">
-        <v>492</v>
-      </c>
-      <c r="J137" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" t="s">
         <v>207</v>
       </c>
-      <c r="C138" t="s">
-        <v>208</v>
-      </c>
       <c r="D138" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" t="s">
         <v>177</v>
       </c>
-      <c r="C139" t="s">
-        <v>178</v>
-      </c>
       <c r="D139" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J139" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" t="s">
+        <v>491</v>
+      </c>
+      <c r="J140" t="s">
         <v>39</v>
-      </c>
-      <c r="C140" t="s">
-        <v>42</v>
-      </c>
-      <c r="D140" t="s">
-        <v>492</v>
-      </c>
-      <c r="J140" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D141" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J141" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D142" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J142" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
+        <v>179</v>
+      </c>
+      <c r="C143" t="s">
         <v>180</v>
       </c>
-      <c r="C143" t="s">
-        <v>181</v>
-      </c>
       <c r="D143" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J143" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" t="s">
         <v>165</v>
       </c>
-      <c r="C144" t="s">
-        <v>166</v>
-      </c>
       <c r="D144" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
+        <v>166</v>
+      </c>
+      <c r="C145" t="s">
         <v>167</v>
       </c>
-      <c r="C145" t="s">
-        <v>168</v>
-      </c>
       <c r="D145" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B146" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" t="s">
         <v>175</v>
       </c>
-      <c r="C146" t="s">
-        <v>176</v>
-      </c>
       <c r="D146" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J146" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D147" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J147" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
+        <v>219</v>
+      </c>
+      <c r="C148" t="s">
         <v>220</v>
       </c>
-      <c r="C148" t="s">
-        <v>221</v>
-      </c>
       <c r="D148" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J148" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D149" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H149" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J149" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
+        <v>188</v>
+      </c>
+      <c r="C150" t="s">
         <v>189</v>
       </c>
-      <c r="C150" t="s">
-        <v>190</v>
-      </c>
       <c r="D150" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
+        <v>186</v>
+      </c>
+      <c r="C151" t="s">
         <v>187</v>
       </c>
-      <c r="C151" t="s">
-        <v>188</v>
-      </c>
       <c r="D151" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D152" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J152" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C153" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D153" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H153" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J153" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D154" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J154" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B155" t="s">
+        <v>278</v>
+      </c>
+      <c r="C155" t="s">
         <v>279</v>
       </c>
-      <c r="C155" t="s">
-        <v>280</v>
-      </c>
       <c r="D155" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J155" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
+        <v>289</v>
+      </c>
+      <c r="C156" t="s">
         <v>290</v>
       </c>
-      <c r="C156" t="s">
-        <v>291</v>
-      </c>
       <c r="D156" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J156" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
         <v>157</v>
       </c>
-      <c r="C157" t="s">
-        <v>158</v>
-      </c>
       <c r="D157" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J157" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
+        <v>183</v>
+      </c>
+      <c r="C158" t="s">
         <v>184</v>
       </c>
-      <c r="C158" t="s">
-        <v>185</v>
-      </c>
       <c r="D158" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J159" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
+        <v>181</v>
+      </c>
+      <c r="C160" t="s">
         <v>182</v>
       </c>
-      <c r="C160" t="s">
-        <v>183</v>
-      </c>
       <c r="D160" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J160" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
+        <v>168</v>
+      </c>
+      <c r="C162" t="s">
         <v>169</v>
       </c>
-      <c r="C162" t="s">
-        <v>170</v>
-      </c>
       <c r="D162" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H162" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J162" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D163" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -7894,75 +7894,75 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D164" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J164" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
+        <v>486</v>
+      </c>
+      <c r="B165" t="s">
+        <v>171</v>
+      </c>
+      <c r="C165" t="s">
+        <v>796</v>
+      </c>
+      <c r="D165" t="s">
+        <v>532</v>
+      </c>
+      <c r="E165" t="s">
         <v>487</v>
       </c>
-      <c r="B165" t="s">
-        <v>172</v>
-      </c>
-      <c r="C165" t="s">
-        <v>797</v>
-      </c>
-      <c r="D165" t="s">
-        <v>533</v>
-      </c>
-      <c r="E165" t="s">
-        <v>488</v>
-      </c>
       <c r="J165" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
+        <v>486</v>
+      </c>
+      <c r="B166" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166" t="s">
+        <v>795</v>
+      </c>
+      <c r="D166" t="s">
+        <v>532</v>
+      </c>
+      <c r="E166" t="s">
         <v>487</v>
       </c>
-      <c r="B166" t="s">
-        <v>173</v>
-      </c>
-      <c r="C166" t="s">
-        <v>796</v>
-      </c>
-      <c r="D166" t="s">
-        <v>533</v>
-      </c>
-      <c r="E166" t="s">
-        <v>488</v>
-      </c>
       <c r="J166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C167" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D167" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -7973,112 +7973,112 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
+        <v>709</v>
+      </c>
+      <c r="B168" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" t="s">
         <v>710</v>
       </c>
-      <c r="B168" t="s">
-        <v>338</v>
-      </c>
-      <c r="C168" t="s">
-        <v>711</v>
-      </c>
       <c r="D168" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E168" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B169" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C169" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D169" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E169" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B170" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C170" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D170" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E170" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B171" t="s">
+        <v>282</v>
+      </c>
+      <c r="C171" t="s">
         <v>283</v>
       </c>
-      <c r="C171" t="s">
-        <v>284</v>
-      </c>
       <c r="D171" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B172" t="s">
+        <v>159</v>
+      </c>
+      <c r="C172" t="s">
         <v>160</v>
       </c>
-      <c r="C172" t="s">
-        <v>161</v>
-      </c>
       <c r="D172" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B173" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" t="s">
         <v>165</v>
       </c>
-      <c r="C173" t="s">
-        <v>166</v>
-      </c>
       <c r="D173" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B174" t="s">
+        <v>280</v>
+      </c>
+      <c r="C174" t="s">
         <v>281</v>
       </c>
-      <c r="C174" t="s">
-        <v>282</v>
-      </c>
       <c r="D174" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F174" t="b">
         <v>0</v>
@@ -8089,190 +8089,190 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B175" t="s">
+        <v>156</v>
+      </c>
+      <c r="C175" t="s">
         <v>157</v>
       </c>
-      <c r="C175" t="s">
-        <v>158</v>
-      </c>
       <c r="D175" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B176" t="s">
+        <v>168</v>
+      </c>
+      <c r="C176" t="s">
         <v>169</v>
       </c>
-      <c r="C176" t="s">
-        <v>170</v>
-      </c>
       <c r="D176" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B177" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D177" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B178" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C178" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D178" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B179" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C179" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D179" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B180" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C180" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D180" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B181" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C181" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D181" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C182" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D182" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B183" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C183" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D183" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E183" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B184" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C184" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D184" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B185" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C185" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D185" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B186" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C186" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D186" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H186" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B187" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C187" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D187" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -8283,64 +8283,64 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B188" t="s">
+        <v>322</v>
+      </c>
+      <c r="C188" t="s">
         <v>323</v>
       </c>
-      <c r="C188" t="s">
-        <v>324</v>
-      </c>
       <c r="D188" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B189" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C189" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D189" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E189" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B190" t="s">
+        <v>324</v>
+      </c>
+      <c r="C190" t="s">
         <v>325</v>
       </c>
-      <c r="C190" t="s">
-        <v>326</v>
-      </c>
       <c r="D190" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B191" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C191" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D191" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E191" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -8348,61 +8348,61 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B192" t="s">
+        <v>326</v>
+      </c>
+      <c r="C192" t="s">
         <v>327</v>
       </c>
-      <c r="C192" t="s">
-        <v>328</v>
-      </c>
       <c r="D192" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B193" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C193" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D193" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E193" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
+        <v>722</v>
+      </c>
+      <c r="B194" t="s">
         <v>723</v>
       </c>
-      <c r="B194" t="s">
-        <v>724</v>
-      </c>
       <c r="C194" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D194" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E194" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C195" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D195" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -8413,104 +8413,104 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B196" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C196" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D196" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E196" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B197" t="s">
+        <v>411</v>
+      </c>
+      <c r="C197" t="s">
         <v>412</v>
       </c>
-      <c r="C197" t="s">
-        <v>413</v>
-      </c>
       <c r="D197" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J197" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B198" t="s">
+        <v>80</v>
+      </c>
+      <c r="C198" t="s">
         <v>81</v>
       </c>
-      <c r="C198" t="s">
-        <v>82</v>
-      </c>
       <c r="D198" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J198" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B199" t="s">
+        <v>78</v>
+      </c>
+      <c r="C199" t="s">
         <v>79</v>
       </c>
-      <c r="C199" t="s">
-        <v>80</v>
-      </c>
       <c r="D199" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J199" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B200" t="s">
+        <v>409</v>
+      </c>
+      <c r="C200" t="s">
         <v>410</v>
       </c>
-      <c r="C200" t="s">
-        <v>411</v>
-      </c>
       <c r="D200" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J200" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C201" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D201" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -8519,132 +8519,132 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B202" t="s">
+        <v>82</v>
+      </c>
+      <c r="C202" t="s">
         <v>83</v>
       </c>
-      <c r="C202" t="s">
-        <v>84</v>
-      </c>
       <c r="D202" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E202" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J202" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B203" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C203" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D203" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E203" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J203" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
+        <v>586</v>
+      </c>
+      <c r="B204" t="s">
         <v>587</v>
       </c>
-      <c r="B204" t="s">
-        <v>588</v>
-      </c>
       <c r="C204" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D204" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E204" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B205" t="s">
+        <v>465</v>
+      </c>
+      <c r="C205" t="s">
         <v>466</v>
       </c>
-      <c r="C205" t="s">
-        <v>467</v>
-      </c>
       <c r="D205" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J205" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
+        <v>703</v>
+      </c>
+      <c r="B206" t="s">
+        <v>153</v>
+      </c>
+      <c r="C206" t="s">
+        <v>703</v>
+      </c>
+      <c r="D206" t="s">
+        <v>495</v>
+      </c>
+      <c r="E206" t="s">
+        <v>487</v>
+      </c>
+      <c r="J206" t="s">
         <v>704</v>
-      </c>
-      <c r="B206" t="s">
-        <v>154</v>
-      </c>
-      <c r="C206" t="s">
-        <v>704</v>
-      </c>
-      <c r="D206" t="s">
-        <v>496</v>
-      </c>
-      <c r="E206" t="s">
-        <v>488</v>
-      </c>
-      <c r="J206" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B207" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C207" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D207" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E207" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J207" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C208" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D208" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F208" t="b">
         <v>0</v>
@@ -8655,36 +8655,36 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B209" t="s">
+        <v>367</v>
+      </c>
+      <c r="C209" t="s">
         <v>368</v>
       </c>
-      <c r="C209" t="s">
-        <v>369</v>
-      </c>
       <c r="D209" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E209" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F209" t="b">
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C210" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D210" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
@@ -8695,59 +8695,59 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B211" t="s">
+        <v>369</v>
+      </c>
+      <c r="C211" t="s">
         <v>370</v>
       </c>
-      <c r="C211" t="s">
-        <v>371</v>
-      </c>
       <c r="D211" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E211" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B212" t="s">
+        <v>662</v>
+      </c>
+      <c r="C212" t="s">
         <v>663</v>
       </c>
-      <c r="C212" t="s">
-        <v>664</v>
-      </c>
       <c r="D212" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E212" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C213" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D213" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -8758,30 +8758,30 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
+        <v>342</v>
+      </c>
+      <c r="B214" t="s">
         <v>343</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>344</v>
       </c>
-      <c r="C214" t="s">
-        <v>345</v>
-      </c>
       <c r="D214" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E214" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C215" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D215" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F215" t="b">
         <v>0</v>
@@ -8792,187 +8792,187 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B216" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C216" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D216" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B217" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C217" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D217" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E217" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B218" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C218" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D218" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B219" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C219" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D219" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B220" t="s">
+        <v>355</v>
+      </c>
+      <c r="C220" t="s">
         <v>356</v>
       </c>
-      <c r="C220" t="s">
-        <v>357</v>
-      </c>
       <c r="D220" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B221" t="s">
+        <v>359</v>
+      </c>
+      <c r="C221" t="s">
         <v>360</v>
       </c>
-      <c r="C221" t="s">
-        <v>361</v>
-      </c>
       <c r="D221" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B222" t="s">
+        <v>347</v>
+      </c>
+      <c r="C222" t="s">
         <v>348</v>
       </c>
-      <c r="C222" t="s">
-        <v>349</v>
-      </c>
       <c r="D222" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B223" t="s">
+        <v>349</v>
+      </c>
+      <c r="C223" t="s">
         <v>350</v>
       </c>
-      <c r="C223" t="s">
-        <v>351</v>
-      </c>
       <c r="D223" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B224" t="s">
+        <v>426</v>
+      </c>
+      <c r="C224" t="s">
         <v>427</v>
       </c>
-      <c r="C224" t="s">
-        <v>428</v>
-      </c>
       <c r="D224" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B225" t="s">
+        <v>357</v>
+      </c>
+      <c r="C225" t="s">
         <v>358</v>
       </c>
-      <c r="C225" t="s">
-        <v>359</v>
-      </c>
       <c r="D225" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E225" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B226" t="s">
+        <v>351</v>
+      </c>
+      <c r="C226" t="s">
         <v>352</v>
       </c>
-      <c r="C226" t="s">
-        <v>353</v>
-      </c>
       <c r="D226" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B227" t="s">
+        <v>353</v>
+      </c>
+      <c r="C227" t="s">
         <v>354</v>
       </c>
-      <c r="C227" t="s">
-        <v>355</v>
-      </c>
       <c r="D227" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C228" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D228" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -8983,16 +8983,16 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B229" t="s">
+        <v>372</v>
+      </c>
+      <c r="C229" t="s">
         <v>373</v>
       </c>
-      <c r="C229" t="s">
-        <v>374</v>
-      </c>
       <c r="D229" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -9003,130 +9003,130 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B230" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C230" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D230" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E230" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
+        <v>714</v>
+      </c>
+      <c r="B231" t="s">
         <v>715</v>
       </c>
-      <c r="B231" t="s">
-        <v>716</v>
-      </c>
       <c r="C231" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D231" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E231" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B232" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C232" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D232" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E232" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J232" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B233" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C233" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D233" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E233" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F233" t="b">
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B234" t="s">
+        <v>252</v>
+      </c>
+      <c r="C234" t="s">
         <v>253</v>
       </c>
-      <c r="C234" t="s">
-        <v>254</v>
-      </c>
       <c r="D234" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J234" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B235" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C235" t="s">
+        <v>541</v>
+      </c>
+      <c r="D235" t="s">
+        <v>496</v>
+      </c>
+      <c r="E235" t="s">
+        <v>541</v>
+      </c>
+      <c r="J235" t="s">
         <v>542</v>
-      </c>
-      <c r="D235" t="s">
-        <v>497</v>
-      </c>
-      <c r="E235" t="s">
-        <v>542</v>
-      </c>
-      <c r="J235" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B236" t="s">
+        <v>250</v>
+      </c>
+      <c r="C236" t="s">
         <v>251</v>
       </c>
-      <c r="C236" t="s">
-        <v>252</v>
-      </c>
       <c r="D236" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -9135,75 +9135,75 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
+        <v>533</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H237" t="s">
         <v>534</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H237" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B238" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C238" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D238" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E238" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B239" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C239" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D239" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E239" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J239" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B240" t="s">
+        <v>147</v>
+      </c>
+      <c r="C240" t="s">
         <v>148</v>
       </c>
-      <c r="C240" t="s">
-        <v>149</v>
-      </c>
       <c r="D240" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F240" t="b">
         <v>0</v>
@@ -9214,185 +9214,185 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B241" t="s">
+        <v>145</v>
+      </c>
+      <c r="C241" t="s">
         <v>146</v>
       </c>
-      <c r="C241" t="s">
-        <v>147</v>
-      </c>
       <c r="D241" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B242" t="s">
+        <v>449</v>
+      </c>
+      <c r="C242" t="s">
         <v>450</v>
       </c>
-      <c r="C242" t="s">
-        <v>451</v>
-      </c>
       <c r="D242" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J242" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B243" t="s">
+        <v>149</v>
+      </c>
+      <c r="C243" t="s">
         <v>150</v>
       </c>
-      <c r="C243" t="s">
-        <v>151</v>
-      </c>
       <c r="D243" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J243" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B244" t="s">
+        <v>474</v>
+      </c>
+      <c r="C244" t="s">
         <v>475</v>
       </c>
-      <c r="C244" t="s">
-        <v>476</v>
-      </c>
       <c r="D244" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J244" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B245" t="s">
+        <v>476</v>
+      </c>
+      <c r="C245" t="s">
         <v>477</v>
       </c>
-      <c r="C245" t="s">
-        <v>478</v>
-      </c>
       <c r="D245" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B246" t="s">
+        <v>74</v>
+      </c>
+      <c r="C246" t="s">
         <v>75</v>
       </c>
-      <c r="C246" t="s">
-        <v>76</v>
-      </c>
       <c r="D246" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B247" t="s">
+        <v>453</v>
+      </c>
+      <c r="C247" t="s">
         <v>454</v>
       </c>
-      <c r="C247" t="s">
-        <v>455</v>
-      </c>
       <c r="D247" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B248" t="s">
+        <v>72</v>
+      </c>
+      <c r="C248" t="s">
         <v>73</v>
       </c>
-      <c r="C248" t="s">
-        <v>74</v>
-      </c>
       <c r="D248" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B249" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C249" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D249" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E249" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B250" t="s">
+        <v>451</v>
+      </c>
+      <c r="C250" t="s">
         <v>452</v>
       </c>
-      <c r="C250" t="s">
-        <v>453</v>
-      </c>
       <c r="D250" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B251" t="s">
+        <v>478</v>
+      </c>
+      <c r="C251" t="s">
         <v>479</v>
       </c>
-      <c r="C251" t="s">
-        <v>480</v>
-      </c>
       <c r="D251" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B252" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C252" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D252" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E252" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F252" t="b">
         <v>0</v>
@@ -9400,168 +9400,168 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B253" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C253" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D253" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B254" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C254" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D254" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E254" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="255" spans="1:10">
       <c r="A255" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B255" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C255" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D255" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B256" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C256" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D256" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B257" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C257" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D257" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
+        <v>706</v>
+      </c>
+      <c r="B258" t="s">
+        <v>397</v>
+      </c>
+      <c r="C258" t="s">
+        <v>777</v>
+      </c>
+      <c r="D258" t="s">
+        <v>524</v>
+      </c>
+      <c r="H258" t="s">
         <v>707</v>
-      </c>
-      <c r="B258" t="s">
-        <v>398</v>
-      </c>
-      <c r="C258" t="s">
-        <v>778</v>
-      </c>
-      <c r="D258" t="s">
-        <v>525</v>
-      </c>
-      <c r="H258" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B259" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C259" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D259" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B260" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C260" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D260" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B261" t="s">
+        <v>136</v>
+      </c>
+      <c r="C261" t="s">
         <v>137</v>
       </c>
-      <c r="C261" t="s">
-        <v>138</v>
-      </c>
       <c r="D261" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B262" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C262" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D262" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E262" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B263" t="s">
+        <v>394</v>
+      </c>
+      <c r="C263" t="s">
         <v>395</v>
       </c>
-      <c r="C263" t="s">
-        <v>396</v>
-      </c>
       <c r="D263" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F263" t="b">
         <v>0</v>
@@ -9572,282 +9572,282 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B264" t="s">
+        <v>400</v>
+      </c>
+      <c r="C264" t="s">
         <v>401</v>
       </c>
-      <c r="C264" t="s">
-        <v>402</v>
-      </c>
       <c r="D264" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B265" t="s">
+        <v>402</v>
+      </c>
+      <c r="C265" t="s">
         <v>403</v>
       </c>
-      <c r="C265" t="s">
-        <v>404</v>
-      </c>
       <c r="D265" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C266" t="s">
         <v>251</v>
       </c>
-      <c r="C266" t="s">
-        <v>252</v>
-      </c>
       <c r="D266" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B267" t="s">
+        <v>65</v>
+      </c>
+      <c r="C267" t="s">
         <v>66</v>
       </c>
-      <c r="C267" t="s">
-        <v>67</v>
-      </c>
       <c r="D267" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B268" t="s">
+        <v>67</v>
+      </c>
+      <c r="C268" t="s">
         <v>68</v>
       </c>
-      <c r="C268" t="s">
-        <v>69</v>
-      </c>
       <c r="D268" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B269" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C269" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D269" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E269" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J269" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B270" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C270" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D270" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J270" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B271" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C271" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D271" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J271" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B272" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C272" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D272" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B273" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C273" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D273" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J273" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B274" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C274" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D274" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J274" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B275" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C275" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D275" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J275" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B276" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C276" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D276" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J276" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B277" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C277" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D277" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J277" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B278" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C278" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D278" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H278" t="s">
+        <v>667</v>
+      </c>
+      <c r="J278" t="s">
         <v>668</v>
-      </c>
-      <c r="J278" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="16" customHeight="1">
       <c r="A279" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B279" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C279" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D279" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E279" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F279" t="b">
         <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B280" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C280" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D280" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F280" t="b">
         <v>0</v>
@@ -9856,120 +9856,120 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
+        <v>629</v>
+      </c>
+      <c r="B281" t="s">
+        <v>294</v>
+      </c>
+      <c r="C281" t="s">
+        <v>800</v>
+      </c>
+      <c r="D281" t="s">
+        <v>491</v>
+      </c>
+      <c r="J281" t="s">
         <v>630</v>
-      </c>
-      <c r="B281" t="s">
-        <v>295</v>
-      </c>
-      <c r="C281" t="s">
-        <v>801</v>
-      </c>
-      <c r="D281" t="s">
-        <v>492</v>
-      </c>
-      <c r="J281" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B282" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C282" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D282" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J282" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B283" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C283" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D283" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J283" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B284" t="s">
+        <v>307</v>
+      </c>
+      <c r="C284" t="s">
         <v>308</v>
       </c>
-      <c r="C284" t="s">
-        <v>309</v>
-      </c>
       <c r="D284" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J284" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B285" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C285" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D285" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J285" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B286" t="s">
+        <v>208</v>
+      </c>
+      <c r="C286" t="s">
         <v>209</v>
       </c>
-      <c r="C286" t="s">
-        <v>210</v>
-      </c>
       <c r="D286" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H286" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C287" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D287" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E287" s="1"/>
       <c r="F287" t="b">
@@ -9981,36 +9981,36 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
+        <v>640</v>
+      </c>
+      <c r="B288" t="s">
+        <v>301</v>
+      </c>
+      <c r="C288" t="s">
+        <v>640</v>
+      </c>
+      <c r="D288" t="s">
+        <v>496</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="J288" t="s">
         <v>641</v>
-      </c>
-      <c r="B288" t="s">
-        <v>302</v>
-      </c>
-      <c r="C288" t="s">
-        <v>641</v>
-      </c>
-      <c r="D288" t="s">
-        <v>497</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="J288" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B289" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C289" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D289" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F289" t="b">
         <v>0</v>
@@ -10021,315 +10021,315 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B290" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C290" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D290" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B291" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C291" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D291" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B292" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C292" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D292" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E292" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B293" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C293" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D293" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E293" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B294" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C294" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D294" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E294" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B295" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C295" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D295" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E295" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B296" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C296" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D296" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E296" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B297" t="s">
+        <v>262</v>
+      </c>
+      <c r="C297" t="s">
         <v>263</v>
       </c>
-      <c r="C297" t="s">
-        <v>264</v>
-      </c>
       <c r="D297" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B298" t="s">
+        <v>302</v>
+      </c>
+      <c r="C298" t="s">
         <v>303</v>
       </c>
-      <c r="C298" t="s">
-        <v>304</v>
-      </c>
       <c r="D298" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B299" t="s">
+        <v>136</v>
+      </c>
+      <c r="C299" t="s">
         <v>137</v>
       </c>
-      <c r="C299" t="s">
-        <v>138</v>
-      </c>
       <c r="D299" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E299" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B300" t="s">
+        <v>394</v>
+      </c>
+      <c r="C300" t="s">
         <v>395</v>
       </c>
-      <c r="C300" t="s">
-        <v>396</v>
-      </c>
       <c r="D300" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B301" t="s">
+        <v>250</v>
+      </c>
+      <c r="C301" t="s">
         <v>251</v>
       </c>
-      <c r="C301" t="s">
-        <v>252</v>
-      </c>
       <c r="D301" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B302" t="s">
+        <v>69</v>
+      </c>
+      <c r="C302" t="s">
         <v>70</v>
       </c>
-      <c r="C302" t="s">
-        <v>71</v>
-      </c>
       <c r="D302" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B303" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C303" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D303" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E303" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B304" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C304" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D304" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E304" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B305" t="s">
+        <v>143</v>
+      </c>
+      <c r="C305" t="s">
         <v>144</v>
       </c>
-      <c r="C305" t="s">
-        <v>145</v>
-      </c>
       <c r="D305" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E305" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B306" t="s">
+        <v>130</v>
+      </c>
+      <c r="C306" t="s">
         <v>131</v>
       </c>
-      <c r="C306" t="s">
-        <v>132</v>
-      </c>
       <c r="D306" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E306" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B307" t="s">
+        <v>118</v>
+      </c>
+      <c r="C307" t="s">
         <v>119</v>
       </c>
-      <c r="C307" t="s">
-        <v>120</v>
-      </c>
       <c r="D307" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E307" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B308" t="s">
+        <v>123</v>
+      </c>
+      <c r="C308" t="s">
         <v>124</v>
       </c>
-      <c r="C308" t="s">
-        <v>125</v>
-      </c>
       <c r="D308" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B309" t="s">
+        <v>252</v>
+      </c>
+      <c r="C309" t="s">
         <v>253</v>
       </c>
-      <c r="C309" t="s">
-        <v>254</v>
-      </c>
       <c r="D309" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F309" t="b">
         <v>0</v>
@@ -10340,103 +10340,103 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B310" t="s">
+        <v>116</v>
+      </c>
+      <c r="C310" t="s">
         <v>117</v>
       </c>
-      <c r="C310" t="s">
-        <v>118</v>
-      </c>
       <c r="D310" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B311" t="s">
+        <v>447</v>
+      </c>
+      <c r="C311" t="s">
         <v>448</v>
       </c>
-      <c r="C311" t="s">
-        <v>449</v>
-      </c>
       <c r="D311" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B312" t="s">
+        <v>72</v>
+      </c>
+      <c r="C312" t="s">
         <v>73</v>
       </c>
-      <c r="C312" t="s">
-        <v>74</v>
-      </c>
       <c r="D312" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B313" t="s">
+        <v>128</v>
+      </c>
+      <c r="C313" t="s">
         <v>129</v>
       </c>
-      <c r="C313" t="s">
-        <v>130</v>
-      </c>
       <c r="D313" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B314" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C314" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D314" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
+        <v>724</v>
+      </c>
+      <c r="B315" t="s">
+        <v>151</v>
+      </c>
+      <c r="C315" t="s">
+        <v>152</v>
+      </c>
+      <c r="D315" t="s">
+        <v>496</v>
+      </c>
+      <c r="E315" t="s">
         <v>725</v>
-      </c>
-      <c r="B315" t="s">
-        <v>152</v>
-      </c>
-      <c r="C315" t="s">
-        <v>153</v>
-      </c>
-      <c r="D315" t="s">
-        <v>497</v>
-      </c>
-      <c r="E315" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B316" t="s">
+        <v>252</v>
+      </c>
+      <c r="C316" t="s">
         <v>253</v>
       </c>
-      <c r="C316" t="s">
-        <v>254</v>
-      </c>
       <c r="D316" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F316" t="b">
         <v>0</v>
@@ -10447,296 +10447,296 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B317" t="s">
+        <v>386</v>
+      </c>
+      <c r="C317" t="s">
         <v>387</v>
       </c>
-      <c r="C317" t="s">
-        <v>388</v>
-      </c>
       <c r="D317" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E317" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F317" t="b">
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B318" t="s">
+        <v>375</v>
+      </c>
+      <c r="C318" t="s">
         <v>376</v>
       </c>
-      <c r="C318" t="s">
-        <v>377</v>
-      </c>
       <c r="D318" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E318" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J318" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B319" t="s">
+        <v>381</v>
+      </c>
+      <c r="C319" t="s">
         <v>382</v>
       </c>
-      <c r="C319" t="s">
-        <v>383</v>
-      </c>
       <c r="D319" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E319" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F319" t="b">
         <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B320" t="s">
+        <v>372</v>
+      </c>
+      <c r="C320" t="s">
         <v>373</v>
       </c>
-      <c r="C320" t="s">
-        <v>374</v>
-      </c>
       <c r="D320" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E320" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F320" t="b">
         <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B321" t="s">
+        <v>377</v>
+      </c>
+      <c r="C321" t="s">
         <v>378</v>
       </c>
-      <c r="C321" t="s">
-        <v>379</v>
-      </c>
       <c r="D321" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E321" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J321" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B322" t="s">
+        <v>379</v>
+      </c>
+      <c r="C322" t="s">
         <v>380</v>
       </c>
-      <c r="C322" t="s">
-        <v>381</v>
-      </c>
       <c r="D322" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J322" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B323" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C323" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D323" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E323" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J323" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B324" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C324" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D324" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E324" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J324" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B325" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C325" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D325" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E325" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J325" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B326" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C326" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D326" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J326" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B327" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C327" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D327" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E327" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F327" t="b">
         <v>0</v>
       </c>
       <c r="J327" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B328" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C328" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D328" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E328" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J328" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B329" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C329" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D329" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J329" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B330" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C330" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D330" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J330" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B331" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C331" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D331" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F331" t="b">
         <v>0</v>
@@ -10745,182 +10745,182 @@
         <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B332" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C332" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D332" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E332" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B333" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C333" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D333" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E333" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B334" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C334" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D334" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E334" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B335" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C335" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D335" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E335" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B336" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C336" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D336" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E336" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B337" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C337" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D337" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E337" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="338" spans="1:10">
       <c r="A338" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B338" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C338" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D338" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B339" t="s">
+        <v>84</v>
+      </c>
+      <c r="C339" t="s">
         <v>85</v>
       </c>
-      <c r="C339" t="s">
-        <v>86</v>
-      </c>
       <c r="D339" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B340" t="s">
+        <v>114</v>
+      </c>
+      <c r="C340" t="s">
         <v>115</v>
       </c>
-      <c r="C340" t="s">
-        <v>116</v>
-      </c>
       <c r="D340" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E340" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="341" spans="1:10">
       <c r="A341" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B341" t="s">
+        <v>120</v>
+      </c>
+      <c r="C341" t="s">
         <v>121</v>
       </c>
-      <c r="C341" t="s">
-        <v>122</v>
-      </c>
       <c r="D341" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="342" spans="1:10">
       <c r="A342" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B342" t="s">
+        <v>250</v>
+      </c>
+      <c r="C342" t="s">
         <v>251</v>
       </c>
-      <c r="C342" t="s">
-        <v>252</v>
-      </c>
       <c r="D342" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F342" t="b">
         <v>0</v>
@@ -10931,100 +10931,100 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B343" t="s">
+        <v>112</v>
+      </c>
+      <c r="C343" t="s">
         <v>113</v>
       </c>
-      <c r="C343" t="s">
-        <v>114</v>
-      </c>
       <c r="D343" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="344" spans="1:10">
       <c r="A344" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B344" t="s">
+        <v>69</v>
+      </c>
+      <c r="C344" t="s">
         <v>70</v>
       </c>
-      <c r="C344" t="s">
-        <v>71</v>
-      </c>
       <c r="D344" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="345" spans="1:10">
       <c r="A345" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B345" t="s">
+        <v>65</v>
+      </c>
+      <c r="C345" t="s">
         <v>66</v>
       </c>
-      <c r="C345" t="s">
-        <v>67</v>
-      </c>
       <c r="D345" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="346" spans="1:10">
       <c r="A346" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B346" t="s">
+        <v>67</v>
+      </c>
+      <c r="C346" t="s">
         <v>68</v>
       </c>
-      <c r="C346" t="s">
-        <v>69</v>
-      </c>
       <c r="D346" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="347" spans="1:10">
       <c r="A347" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B347" t="s">
+        <v>254</v>
+      </c>
+      <c r="C347" t="s">
         <v>255</v>
       </c>
-      <c r="C347" t="s">
-        <v>256</v>
-      </c>
       <c r="D347" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="348" spans="1:10">
       <c r="A348" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B348" t="s">
+        <v>345</v>
+      </c>
+      <c r="C348" t="s">
         <v>346</v>
       </c>
-      <c r="C348" t="s">
-        <v>347</v>
-      </c>
       <c r="D348" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E348" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="349" spans="1:10">
       <c r="A349" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C349" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D349" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F349" t="b">
         <v>0</v>
@@ -11035,477 +11035,480 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B350" t="s">
+        <v>340</v>
+      </c>
+      <c r="C350" t="s">
         <v>341</v>
       </c>
-      <c r="C350" t="s">
+      <c r="D350" t="s">
+        <v>496</v>
+      </c>
+      <c r="E350" t="s">
         <v>342</v>
-      </c>
-      <c r="D350" t="s">
-        <v>497</v>
-      </c>
-      <c r="E350" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="351" spans="1:10">
       <c r="A351" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B351" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C351" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D351" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E351" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J351" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="352" spans="1:10">
       <c r="A352" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B352" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C352" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D352" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E352" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J352" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B353" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C353" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D353" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J353" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="354" spans="1:10">
       <c r="A354" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B354" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C354" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D354" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="E354" t="s">
+        <v>489</v>
       </c>
       <c r="J354" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="355" spans="1:10">
       <c r="A355" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B355" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C355" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D355" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E355" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F355" t="b">
         <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="356" spans="1:10">
       <c r="A356" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B356" t="s">
+        <v>132</v>
+      </c>
+      <c r="C356" t="s">
         <v>133</v>
       </c>
-      <c r="C356" t="s">
-        <v>134</v>
-      </c>
       <c r="D356" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J356" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="357" spans="1:10">
       <c r="A357" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B357" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C357" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D357" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E357" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J357" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="358" spans="1:10">
       <c r="A358" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B358" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C358" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D358" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E358" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J358" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="359" spans="1:10">
       <c r="A359" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B359" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C359" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D359" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J359" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="360" spans="1:10">
       <c r="A360" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B360" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C360" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D360" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E360" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F360" t="b">
         <v>0</v>
       </c>
       <c r="J360" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="361" spans="1:10">
       <c r="A361" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B361" t="s">
+        <v>282</v>
+      </c>
+      <c r="C361" t="s">
         <v>283</v>
       </c>
-      <c r="C361" t="s">
-        <v>284</v>
-      </c>
       <c r="D361" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J361" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="362" spans="1:10">
       <c r="A362" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B362" t="s">
+        <v>86</v>
+      </c>
+      <c r="C362" t="s">
         <v>87</v>
       </c>
-      <c r="C362" t="s">
-        <v>88</v>
-      </c>
       <c r="D362" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J362" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="363" spans="1:10">
       <c r="A363" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B363" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C363" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D363" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E363" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F363" t="b">
         <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="364" spans="1:10">
       <c r="A364" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B364" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C364" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D364" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E364" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J364" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="365" spans="1:10">
       <c r="A365" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B365" t="s">
+        <v>286</v>
+      </c>
+      <c r="C365" t="s">
         <v>287</v>
       </c>
-      <c r="C365" t="s">
-        <v>288</v>
-      </c>
       <c r="D365" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J365" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="366" spans="1:10">
       <c r="A366" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B366" t="s">
+        <v>84</v>
+      </c>
+      <c r="C366" t="s">
         <v>85</v>
       </c>
-      <c r="C366" t="s">
-        <v>86</v>
-      </c>
       <c r="D366" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J366" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="367" spans="1:10">
       <c r="A367" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B367" t="s">
+        <v>80</v>
+      </c>
+      <c r="C367" t="s">
         <v>81</v>
       </c>
-      <c r="C367" t="s">
-        <v>82</v>
-      </c>
       <c r="D367" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J367" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="368" spans="1:10">
       <c r="A368" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B368" t="s">
+        <v>272</v>
+      </c>
+      <c r="C368" t="s">
         <v>273</v>
       </c>
-      <c r="C368" t="s">
-        <v>274</v>
-      </c>
       <c r="D368" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J368" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="369" spans="1:10">
       <c r="A369" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B369" t="s">
+        <v>280</v>
+      </c>
+      <c r="C369" t="s">
         <v>281</v>
       </c>
-      <c r="C369" t="s">
-        <v>282</v>
-      </c>
       <c r="D369" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J369" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="370" spans="1:10">
       <c r="A370" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B370" t="s">
+        <v>78</v>
+      </c>
+      <c r="C370" t="s">
         <v>79</v>
       </c>
-      <c r="C370" t="s">
-        <v>80</v>
-      </c>
       <c r="D370" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J370" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="371" spans="1:10">
       <c r="A371" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B371" t="s">
+        <v>267</v>
+      </c>
+      <c r="C371" t="s">
         <v>268</v>
       </c>
-      <c r="C371" t="s">
-        <v>269</v>
-      </c>
       <c r="D371" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H371" t="s">
+        <v>607</v>
+      </c>
+      <c r="J371" t="s">
         <v>608</v>
-      </c>
-      <c r="J371" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="372" spans="1:10">
       <c r="A372" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B372" t="s">
+        <v>292</v>
+      </c>
+      <c r="C372" t="s">
         <v>293</v>
       </c>
-      <c r="C372" t="s">
-        <v>294</v>
-      </c>
       <c r="D372" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J372" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="373" spans="1:10">
       <c r="A373" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B373" t="s">
+        <v>274</v>
+      </c>
+      <c r="C373" t="s">
         <v>275</v>
       </c>
-      <c r="C373" t="s">
-        <v>276</v>
-      </c>
       <c r="D373" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J373" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="374" spans="1:10">
       <c r="A374" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B374" t="s">
+        <v>276</v>
+      </c>
+      <c r="C374" t="s">
         <v>277</v>
       </c>
-      <c r="C374" t="s">
-        <v>278</v>
-      </c>
       <c r="D374" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J374" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="375" spans="1:10">
       <c r="A375" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B375" t="s">
+        <v>269</v>
+      </c>
+      <c r="C375" t="s">
         <v>270</v>
       </c>
-      <c r="C375" t="s">
-        <v>271</v>
-      </c>
       <c r="D375" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F375" t="b">
         <v>0</v>
@@ -11514,21 +11517,21 @@
         <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="376" spans="1:10">
       <c r="A376" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B376" t="s">
+        <v>451</v>
+      </c>
+      <c r="C376" t="s">
         <v>452</v>
       </c>
-      <c r="C376" t="s">
-        <v>453</v>
-      </c>
       <c r="D376" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F376" t="b">
         <v>0</v>
@@ -11537,21 +11540,21 @@
         <v>1</v>
       </c>
       <c r="J376" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="377" spans="1:10">
       <c r="A377" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B377" t="s">
+        <v>461</v>
+      </c>
+      <c r="C377" t="s">
         <v>462</v>
       </c>
-      <c r="C377" t="s">
-        <v>463</v>
-      </c>
       <c r="D377" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F377" t="b">
         <v>0</v>
@@ -11562,16 +11565,16 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B378" t="s">
+        <v>463</v>
+      </c>
+      <c r="C378" t="s">
         <v>464</v>
       </c>
-      <c r="C378" t="s">
-        <v>465</v>
-      </c>
       <c r="D378" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="4540" windowWidth="25600" windowHeight="16000" tabRatio="951"/>
+    <workbookView xWindow="1620" yWindow="1140" windowWidth="25600" windowHeight="16000" tabRatio="951"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
     <sheet name="entities" sheetId="1" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
+    <sheet name="tags" sheetId="26" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">attributes!$A$1:$J$378</definedName>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="840">
   <si>
     <t>description</t>
   </si>
@@ -2571,6 +2572,39 @@
   </si>
   <si>
     <t>Digital Imaging and Communications in Medicine (DICOM) is the standard for the communication and management of medical imaging information and related data. This is not the full model, but shows the core entities. Website: http://dicom.nema.org . Documentation: http://medical.nema.org/standard.html .</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>objectIRI</t>
+  </si>
+  <si>
+    <t>relationLabel</t>
+  </si>
+  <si>
+    <t>codeSystem</t>
+  </si>
+  <si>
+    <t>relationIRI</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>http://molgenis.org/biobankconnect/link</t>
+  </si>
+  <si>
+    <t>dicom_home</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>tags</t>
   </si>
 </sst>
 </file>
@@ -4373,10 +4407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4384,20 +4418,26 @@
     <col min="2" max="2" width="135.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>828</v>
+      </c>
+      <c r="C2" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -11592,4 +11632,67 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1140" windowWidth="25600" windowHeight="16000" tabRatio="951"/>
+    <workbookView xWindow="1620" yWindow="1140" windowWidth="25600" windowHeight="16000" tabRatio="951" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="843">
   <si>
     <t>description</t>
   </si>
@@ -2605,6 +2605,15 @@
   </si>
   <si>
     <t>tags</t>
+  </si>
+  <si>
+    <t>http://www.biosharing.org/bsg-000114</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>dicom_biosharing</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2690,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="695">
+  <cellStyleXfs count="697">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3326,6 +3335,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3383,7 +3394,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="695">
+  <cellStyles count="697">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3859,6 +3870,7 @@
     <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4078,6 +4090,7 @@
     <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4409,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11636,15 +11649,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11687,8 +11703,29 @@
         <v>835</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1140" windowWidth="25600" windowHeight="16000" tabRatio="951" activeTab="3"/>
+    <workbookView xWindow="1620" yWindow="1140" windowWidth="25600" windowHeight="16000" tabRatio="951"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="844">
   <si>
     <t>description</t>
   </si>
@@ -2614,6 +2614,9 @@
   </si>
   <si>
     <t>dicom_biosharing</t>
+  </si>
+  <si>
+    <t>dicom_home,dicom_biosharing</t>
   </si>
 </sst>
 </file>
@@ -4422,13 +4425,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="135.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4450,7 +4454,7 @@
         <v>828</v>
       </c>
       <c r="C2" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -11651,8 +11655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1140" windowWidth="25600" windowHeight="16000" tabRatio="951"/>
+    <workbookView xWindow="6620" yWindow="920" windowWidth="26020" windowHeight="16680" tabRatio="951" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="tags" sheetId="26" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">attributes!$A$1:$J$378</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">attributes!$A$1:$J$381</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="844">
   <si>
     <t>description</t>
   </si>
@@ -2693,7 +2693,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="697">
+  <cellStyleXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3338,6 +3338,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3397,7 +3401,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="697">
+  <cellStyles count="701">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3874,6 +3878,8 @@
     <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4094,6 +4100,8 @@
     <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4425,7 +4433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5041,11 +5049,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J378"/>
+  <dimension ref="A1:J381"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G319" sqref="G319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8104,7 +8112,7 @@
         <v>160</v>
       </c>
       <c r="D172" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="E172" t="s">
         <v>160</v>
@@ -8363,7 +8371,7 @@
         <v>794</v>
       </c>
       <c r="D189" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="E189" t="s">
         <v>487</v>
@@ -8428,7 +8436,7 @@
         <v>785</v>
       </c>
       <c r="D193" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="E193" t="s">
         <v>487</v>
@@ -8445,7 +8453,7 @@
         <v>721</v>
       </c>
       <c r="D194" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="E194" t="s">
         <v>502</v>
@@ -8590,7 +8598,7 @@
         <v>83</v>
       </c>
       <c r="D202" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="E202" t="s">
         <v>487</v>
@@ -8604,19 +8612,19 @@
         <v>586</v>
       </c>
       <c r="B203" t="s">
-        <v>444</v>
+        <v>728</v>
       </c>
       <c r="C203" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="D203" t="s">
-        <v>496</v>
-      </c>
-      <c r="E203" t="s">
-        <v>487</v>
-      </c>
-      <c r="J203" t="s">
-        <v>588</v>
+        <v>499</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -8624,16 +8632,19 @@
         <v>586</v>
       </c>
       <c r="B204" t="s">
-        <v>587</v>
+        <v>444</v>
       </c>
       <c r="C204" t="s">
-        <v>587</v>
+        <v>751</v>
       </c>
       <c r="D204" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>502</v>
+        <v>487</v>
+      </c>
+      <c r="J204" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -8641,36 +8652,33 @@
         <v>586</v>
       </c>
       <c r="B205" t="s">
-        <v>465</v>
+        <v>587</v>
       </c>
       <c r="C205" t="s">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="D205" t="s">
-        <v>494</v>
-      </c>
-      <c r="J205" t="s">
-        <v>589</v>
+        <v>532</v>
+      </c>
+      <c r="E205" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>703</v>
+        <v>586</v>
       </c>
       <c r="B206" t="s">
-        <v>153</v>
+        <v>465</v>
       </c>
       <c r="C206" t="s">
-        <v>703</v>
+        <v>466</v>
       </c>
       <c r="D206" t="s">
-        <v>495</v>
-      </c>
-      <c r="E206" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="J206" t="s">
-        <v>704</v>
+        <v>589</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -8678,99 +8686,96 @@
         <v>703</v>
       </c>
       <c r="B207" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C207" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="D207" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E207" t="s">
         <v>487</v>
       </c>
       <c r="J207" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>703</v>
       </c>
+      <c r="B208" t="s">
+        <v>155</v>
+      </c>
       <c r="C208" t="s">
+        <v>729</v>
+      </c>
+      <c r="D208" t="s">
+        <v>496</v>
+      </c>
+      <c r="E208" t="s">
+        <v>487</v>
+      </c>
+      <c r="J208" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" t="s">
+        <v>703</v>
+      </c>
+      <c r="C209" t="s">
         <v>728</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D209" t="s">
         <v>499</v>
-      </c>
-      <c r="F208" t="b">
-        <v>0</v>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B209" t="s">
-        <v>367</v>
-      </c>
-      <c r="C209" t="s">
-        <v>368</v>
-      </c>
-      <c r="D209" t="s">
-        <v>496</v>
-      </c>
-      <c r="E209" t="s">
-        <v>664</v>
       </c>
       <c r="F209" t="b">
         <v>0</v>
       </c>
-      <c r="J209" t="s">
-        <v>659</v>
+      <c r="G209" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="1" t="s">
         <v>713</v>
       </c>
+      <c r="B210" t="s">
+        <v>367</v>
+      </c>
       <c r="C210" t="s">
-        <v>728</v>
+        <v>368</v>
       </c>
       <c r="D210" t="s">
-        <v>499</v>
+        <v>496</v>
+      </c>
+      <c r="E210" t="s">
+        <v>664</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
+      <c r="J210" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="211" spans="1:10">
-      <c r="A211" t="s">
-        <v>664</v>
-      </c>
-      <c r="B211" t="s">
-        <v>369</v>
+      <c r="A211" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="C211" t="s">
-        <v>370</v>
+        <v>728</v>
       </c>
       <c r="D211" t="s">
-        <v>496</v>
-      </c>
-      <c r="E211" t="s">
-        <v>661</v>
+        <v>499</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
       </c>
-      <c r="J211" t="s">
-        <v>660</v>
+      <c r="G211" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -8778,10 +8783,10 @@
         <v>664</v>
       </c>
       <c r="B212" t="s">
-        <v>662</v>
+        <v>369</v>
       </c>
       <c r="C212" t="s">
-        <v>663</v>
+        <v>370</v>
       </c>
       <c r="D212" t="s">
         <v>496</v>
@@ -8793,89 +8798,95 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>664</v>
       </c>
+      <c r="B213" t="s">
+        <v>662</v>
+      </c>
       <c r="C213" t="s">
-        <v>728</v>
+        <v>663</v>
       </c>
       <c r="D213" t="s">
-        <v>499</v>
+        <v>496</v>
+      </c>
+      <c r="E213" t="s">
+        <v>661</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
       </c>
-      <c r="G213" t="b">
-        <v>1</v>
+      <c r="J213" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>342</v>
-      </c>
-      <c r="B214" t="s">
-        <v>343</v>
+        <v>664</v>
       </c>
       <c r="C214" t="s">
-        <v>344</v>
+        <v>728</v>
       </c>
       <c r="D214" t="s">
-        <v>532</v>
-      </c>
-      <c r="E214" t="s">
-        <v>487</v>
+        <v>499</v>
+      </c>
+      <c r="F214" t="b">
+        <v>0</v>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>342</v>
       </c>
+      <c r="B215" t="s">
+        <v>343</v>
+      </c>
       <c r="C215" t="s">
-        <v>728</v>
+        <v>344</v>
       </c>
       <c r="D215" t="s">
-        <v>499</v>
-      </c>
-      <c r="F215" t="b">
-        <v>0</v>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
+        <v>532</v>
+      </c>
+      <c r="E215" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>342</v>
       </c>
-      <c r="B216" t="s">
-        <v>342</v>
-      </c>
       <c r="C216" t="s">
-        <v>342</v>
+        <v>728</v>
       </c>
       <c r="D216" t="s">
-        <v>497</v>
+        <v>499</v>
+      </c>
+      <c r="F216" t="b">
+        <v>0</v>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>716</v>
+        <v>342</v>
       </c>
       <c r="B217" t="s">
-        <v>154</v>
+        <v>342</v>
       </c>
       <c r="C217" t="s">
-        <v>782</v>
+        <v>342</v>
       </c>
       <c r="D217" t="s">
-        <v>532</v>
-      </c>
-      <c r="E217" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -8883,13 +8894,16 @@
         <v>716</v>
       </c>
       <c r="B218" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="C218" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D218" t="s">
-        <v>497</v>
+        <v>532</v>
+      </c>
+      <c r="E218" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -8897,10 +8911,10 @@
         <v>716</v>
       </c>
       <c r="B219" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C219" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D219" t="s">
         <v>497</v>
@@ -8911,10 +8925,10 @@
         <v>716</v>
       </c>
       <c r="B220" t="s">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="C220" t="s">
-        <v>356</v>
+        <v>784</v>
       </c>
       <c r="D220" t="s">
         <v>497</v>
@@ -8925,13 +8939,13 @@
         <v>716</v>
       </c>
       <c r="B221" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C221" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D221" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -8939,13 +8953,13 @@
         <v>716</v>
       </c>
       <c r="B222" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C222" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="D222" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -8953,10 +8967,10 @@
         <v>716</v>
       </c>
       <c r="B223" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D223" t="s">
         <v>499</v>
@@ -8967,13 +8981,13 @@
         <v>716</v>
       </c>
       <c r="B224" t="s">
-        <v>426</v>
+        <v>349</v>
       </c>
       <c r="C224" t="s">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="D224" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -8981,16 +8995,13 @@
         <v>716</v>
       </c>
       <c r="B225" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="C225" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="D225" t="s">
-        <v>496</v>
-      </c>
-      <c r="E225" t="s">
-        <v>240</v>
+        <v>497</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -8998,13 +9009,16 @@
         <v>716</v>
       </c>
       <c r="B226" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C226" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D226" t="s">
-        <v>499</v>
+        <v>496</v>
+      </c>
+      <c r="E226" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -9012,10 +9026,10 @@
         <v>716</v>
       </c>
       <c r="B227" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C227" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D227" t="s">
         <v>499</v>
@@ -9025,31 +9039,25 @@
       <c r="A228" t="s">
         <v>716</v>
       </c>
+      <c r="B228" t="s">
+        <v>353</v>
+      </c>
       <c r="C228" t="s">
-        <v>728</v>
+        <v>354</v>
       </c>
       <c r="D228" t="s">
         <v>499</v>
       </c>
-      <c r="F228" t="b">
-        <v>0</v>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>714</v>
-      </c>
-      <c r="B229" t="s">
-        <v>372</v>
+        <v>716</v>
       </c>
       <c r="C229" t="s">
-        <v>373</v>
+        <v>728</v>
       </c>
       <c r="D229" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -9063,16 +9071,19 @@
         <v>714</v>
       </c>
       <c r="B230" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C230" t="s">
-        <v>692</v>
+        <v>373</v>
       </c>
       <c r="D230" t="s">
-        <v>496</v>
-      </c>
-      <c r="E230" t="s">
-        <v>675</v>
+        <v>491</v>
+      </c>
+      <c r="F230" t="b">
+        <v>0</v>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -9080,36 +9091,33 @@
         <v>714</v>
       </c>
       <c r="B231" t="s">
-        <v>715</v>
+        <v>386</v>
       </c>
       <c r="C231" t="s">
-        <v>502</v>
+        <v>692</v>
       </c>
       <c r="D231" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E231" t="s">
-        <v>502</v>
+        <v>675</v>
       </c>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>533</v>
+        <v>714</v>
       </c>
       <c r="B232" t="s">
-        <v>458</v>
+        <v>715</v>
       </c>
       <c r="C232" t="s">
-        <v>545</v>
+        <v>502</v>
       </c>
       <c r="D232" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E232" t="s">
-        <v>545</v>
-      </c>
-      <c r="J232" t="s">
-        <v>544</v>
+        <v>502</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -9117,22 +9125,19 @@
         <v>533</v>
       </c>
       <c r="B233" t="s">
-        <v>151</v>
+        <v>458</v>
       </c>
       <c r="C233" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="D233" t="s">
         <v>496</v>
       </c>
       <c r="E233" t="s">
-        <v>502</v>
-      </c>
-      <c r="F233" t="b">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="J233" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -9140,16 +9145,22 @@
         <v>533</v>
       </c>
       <c r="B234" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="C234" t="s">
-        <v>253</v>
+        <v>502</v>
       </c>
       <c r="D234" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E234" t="s">
+        <v>502</v>
+      </c>
+      <c r="F234" t="b">
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -9157,19 +9168,16 @@
         <v>533</v>
       </c>
       <c r="B235" t="s">
-        <v>457</v>
+        <v>252</v>
       </c>
       <c r="C235" t="s">
-        <v>541</v>
+        <v>253</v>
       </c>
       <c r="D235" t="s">
-        <v>496</v>
-      </c>
-      <c r="E235" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="J235" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -9177,56 +9185,59 @@
         <v>533</v>
       </c>
       <c r="B236" t="s">
-        <v>250</v>
+        <v>457</v>
       </c>
       <c r="C236" t="s">
-        <v>251</v>
+        <v>541</v>
       </c>
       <c r="D236" t="s">
-        <v>491</v>
-      </c>
-      <c r="F236" t="b">
-        <v>0</v>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
+        <v>496</v>
+      </c>
+      <c r="E236" t="s">
+        <v>541</v>
       </c>
       <c r="J236" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>533</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="H237" t="s">
-        <v>534</v>
+      <c r="B237" t="s">
+        <v>250</v>
+      </c>
+      <c r="C237" t="s">
+        <v>251</v>
+      </c>
+      <c r="D237" t="s">
+        <v>491</v>
+      </c>
+      <c r="F237" t="b">
+        <v>0</v>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>533</v>
       </c>
-      <c r="B238" t="s">
-        <v>459</v>
-      </c>
-      <c r="C238" t="s">
-        <v>548</v>
-      </c>
-      <c r="D238" t="s">
-        <v>496</v>
-      </c>
-      <c r="E238" t="s">
-        <v>548</v>
+      <c r="B238" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H238" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -9234,39 +9245,36 @@
         <v>533</v>
       </c>
       <c r="B239" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C239" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D239" t="s">
         <v>496</v>
       </c>
       <c r="E239" t="s">
-        <v>551</v>
-      </c>
-      <c r="J239" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="B240" t="s">
-        <v>147</v>
+        <v>460</v>
       </c>
       <c r="C240" t="s">
-        <v>148</v>
+        <v>551</v>
       </c>
       <c r="D240" t="s">
-        <v>491</v>
-      </c>
-      <c r="F240" t="b">
-        <v>0</v>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
+        <v>496</v>
+      </c>
+      <c r="E240" t="s">
+        <v>551</v>
+      </c>
+      <c r="J240" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -9274,13 +9282,19 @@
         <v>502</v>
       </c>
       <c r="B241" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C241" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D241" t="s">
         <v>491</v>
+      </c>
+      <c r="F241" t="b">
+        <v>0</v>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -9288,16 +9302,13 @@
         <v>502</v>
       </c>
       <c r="B242" t="s">
-        <v>449</v>
+        <v>145</v>
       </c>
       <c r="C242" t="s">
-        <v>450</v>
+        <v>146</v>
       </c>
       <c r="D242" t="s">
-        <v>494</v>
-      </c>
-      <c r="J242" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -9305,16 +9316,16 @@
         <v>502</v>
       </c>
       <c r="B243" t="s">
-        <v>149</v>
+        <v>449</v>
       </c>
       <c r="C243" t="s">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="D243" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J243" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -9322,30 +9333,33 @@
         <v>502</v>
       </c>
       <c r="B244" t="s">
-        <v>474</v>
+        <v>149</v>
       </c>
       <c r="C244" t="s">
-        <v>475</v>
+        <v>150</v>
       </c>
       <c r="D244" t="s">
         <v>499</v>
       </c>
       <c r="J244" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>725</v>
+        <v>502</v>
       </c>
       <c r="B245" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C245" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D245" t="s">
-        <v>491</v>
+        <v>499</v>
+      </c>
+      <c r="J245" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -9353,13 +9367,19 @@
         <v>725</v>
       </c>
       <c r="B246" t="s">
-        <v>74</v>
+        <v>728</v>
       </c>
       <c r="C246" t="s">
-        <v>75</v>
+        <v>728</v>
       </c>
       <c r="D246" t="s">
-        <v>491</v>
+        <v>499</v>
+      </c>
+      <c r="F246" t="b">
+        <v>0</v>
+      </c>
+      <c r="G246" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -9367,10 +9387,10 @@
         <v>725</v>
       </c>
       <c r="B247" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="C247" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="D247" t="s">
         <v>491</v>
@@ -9381,10 +9401,10 @@
         <v>725</v>
       </c>
       <c r="B248" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C248" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D248" t="s">
         <v>491</v>
@@ -9395,16 +9415,13 @@
         <v>725</v>
       </c>
       <c r="B249" t="s">
-        <v>715</v>
+        <v>453</v>
       </c>
       <c r="C249" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
       <c r="D249" t="s">
-        <v>495</v>
-      </c>
-      <c r="E249" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -9412,13 +9429,13 @@
         <v>725</v>
       </c>
       <c r="B250" t="s">
-        <v>451</v>
+        <v>72</v>
       </c>
       <c r="C250" t="s">
-        <v>452</v>
+        <v>73</v>
       </c>
       <c r="D250" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -9426,44 +9443,41 @@
         <v>725</v>
       </c>
       <c r="B251" t="s">
-        <v>478</v>
+        <v>715</v>
       </c>
       <c r="C251" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="D251" t="s">
-        <v>491</v>
+        <v>532</v>
+      </c>
+      <c r="E251" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="B252" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="C252" t="s">
-        <v>781</v>
+        <v>452</v>
       </c>
       <c r="D252" t="s">
-        <v>496</v>
-      </c>
-      <c r="E252" t="s">
-        <v>487</v>
-      </c>
-      <c r="F252" t="b">
-        <v>0</v>
+        <v>501</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="B253" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="C253" t="s">
-        <v>780</v>
+        <v>479</v>
       </c>
       <c r="D253" t="s">
         <v>491</v>
@@ -9474,16 +9488,19 @@
         <v>706</v>
       </c>
       <c r="B254" t="s">
-        <v>264</v>
+        <v>404</v>
       </c>
       <c r="C254" t="s">
-        <v>487</v>
+        <v>781</v>
       </c>
       <c r="D254" t="s">
         <v>496</v>
       </c>
       <c r="E254" t="s">
         <v>487</v>
+      </c>
+      <c r="F254" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -9491,10 +9508,10 @@
         <v>706</v>
       </c>
       <c r="B255" t="s">
-        <v>262</v>
+        <v>396</v>
       </c>
       <c r="C255" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
       <c r="D255" t="s">
         <v>491</v>
@@ -9505,13 +9522,16 @@
         <v>706</v>
       </c>
       <c r="B256" t="s">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="C256" t="s">
-        <v>779</v>
+        <v>487</v>
       </c>
       <c r="D256" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E256" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -9519,13 +9539,13 @@
         <v>706</v>
       </c>
       <c r="B257" t="s">
-        <v>413</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="D257" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -9533,16 +9553,13 @@
         <v>706</v>
       </c>
       <c r="B258" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C258" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D258" t="s">
-        <v>524</v>
-      </c>
-      <c r="H258" t="s">
-        <v>707</v>
+        <v>491</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -9550,13 +9567,13 @@
         <v>706</v>
       </c>
       <c r="B259" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C259" t="s">
-        <v>778</v>
+        <v>747</v>
       </c>
       <c r="D259" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -9564,13 +9581,16 @@
         <v>706</v>
       </c>
       <c r="B260" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C260" t="s">
-        <v>743</v>
+        <v>777</v>
       </c>
       <c r="D260" t="s">
-        <v>491</v>
+        <v>524</v>
+      </c>
+      <c r="H260" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -9578,16 +9598,13 @@
         <v>706</v>
       </c>
       <c r="B261" t="s">
-        <v>136</v>
+        <v>399</v>
       </c>
       <c r="C261" t="s">
-        <v>137</v>
+        <v>778</v>
       </c>
       <c r="D261" t="s">
-        <v>496</v>
-      </c>
-      <c r="E261" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -9595,16 +9612,13 @@
         <v>706</v>
       </c>
       <c r="B262" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C262" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D262" t="s">
-        <v>496</v>
-      </c>
-      <c r="E262" t="s">
-        <v>616</v>
+        <v>491</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -9612,19 +9626,16 @@
         <v>706</v>
       </c>
       <c r="B263" t="s">
-        <v>394</v>
+        <v>136</v>
       </c>
       <c r="C263" t="s">
-        <v>395</v>
+        <v>137</v>
       </c>
       <c r="D263" t="s">
-        <v>491</v>
-      </c>
-      <c r="F263" t="b">
-        <v>0</v>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
+        <v>496</v>
+      </c>
+      <c r="E263" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -9632,13 +9643,16 @@
         <v>706</v>
       </c>
       <c r="B264" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C264" t="s">
-        <v>401</v>
+        <v>742</v>
       </c>
       <c r="D264" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E264" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -9646,13 +9660,19 @@
         <v>706</v>
       </c>
       <c r="B265" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C265" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D265" t="s">
         <v>491</v>
+      </c>
+      <c r="F265" t="b">
+        <v>0</v>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -9660,10 +9680,10 @@
         <v>706</v>
       </c>
       <c r="B266" t="s">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C266" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="D266" t="s">
         <v>491</v>
@@ -9674,13 +9694,13 @@
         <v>706</v>
       </c>
       <c r="B267" t="s">
-        <v>65</v>
+        <v>402</v>
       </c>
       <c r="C267" t="s">
-        <v>66</v>
+        <v>403</v>
       </c>
       <c r="D267" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -9688,50 +9708,41 @@
         <v>706</v>
       </c>
       <c r="B268" t="s">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="C268" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="D268" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="B269" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="C269" t="s">
-        <v>750</v>
+        <v>66</v>
       </c>
       <c r="D269" t="s">
-        <v>496</v>
-      </c>
-      <c r="E269" t="s">
-        <v>616</v>
-      </c>
-      <c r="J269" t="s">
-        <v>637</v>
+        <v>498</v>
       </c>
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="B270" t="s">
-        <v>366</v>
+        <v>67</v>
       </c>
       <c r="C270" t="s">
-        <v>747</v>
+        <v>68</v>
       </c>
       <c r="D270" t="s">
-        <v>494</v>
-      </c>
-      <c r="J270" t="s">
-        <v>669</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9739,16 +9750,19 @@
         <v>629</v>
       </c>
       <c r="B271" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C271" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D271" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E271" t="s">
+        <v>616</v>
       </c>
       <c r="J271" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -9756,13 +9770,16 @@
         <v>629</v>
       </c>
       <c r="B272" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="C272" t="s">
-        <v>124</v>
+        <v>747</v>
       </c>
       <c r="D272" t="s">
-        <v>491</v>
+        <v>494</v>
+      </c>
+      <c r="J272" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -9770,16 +9787,16 @@
         <v>629</v>
       </c>
       <c r="B273" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C273" t="s">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="D273" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="J273" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -9787,16 +9804,13 @@
         <v>629</v>
       </c>
       <c r="B274" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C274" t="s">
-        <v>788</v>
+        <v>124</v>
       </c>
       <c r="D274" t="s">
-        <v>492</v>
-      </c>
-      <c r="J274" t="s">
-        <v>634</v>
+        <v>491</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -9804,16 +9818,16 @@
         <v>629</v>
       </c>
       <c r="B275" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C275" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="D275" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="J275" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -9821,16 +9835,16 @@
         <v>629</v>
       </c>
       <c r="B276" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C276" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D276" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="J276" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -9838,16 +9852,16 @@
         <v>629</v>
       </c>
       <c r="B277" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C277" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="D277" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J277" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -9855,42 +9869,33 @@
         <v>629</v>
       </c>
       <c r="B278" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C278" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D278" t="s">
-        <v>524</v>
-      </c>
-      <c r="H278" t="s">
-        <v>667</v>
+        <v>498</v>
       </c>
       <c r="J278" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" ht="16" customHeight="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
       <c r="A279" t="s">
         <v>629</v>
       </c>
       <c r="B279" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C279" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D279" t="s">
-        <v>496</v>
-      </c>
-      <c r="E279" t="s">
-        <v>640</v>
-      </c>
-      <c r="F279" t="b">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="J279" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -9898,39 +9903,42 @@
         <v>629</v>
       </c>
       <c r="B280" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C280" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D280" t="s">
-        <v>491</v>
-      </c>
-      <c r="F280" t="b">
-        <v>0</v>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
+        <v>524</v>
+      </c>
+      <c r="H280" t="s">
+        <v>667</v>
       </c>
       <c r="J280" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="16" customHeight="1">
       <c r="A281" t="s">
         <v>629</v>
       </c>
       <c r="B281" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C281" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D281" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E281" t="s">
+        <v>640</v>
+      </c>
+      <c r="F281" t="b">
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -9938,16 +9946,22 @@
         <v>629</v>
       </c>
       <c r="B282" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="C282" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D282" t="s">
         <v>491</v>
       </c>
+      <c r="F282" t="b">
+        <v>0</v>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
       <c r="J282" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -9955,16 +9969,16 @@
         <v>629</v>
       </c>
       <c r="B283" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C283" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D283" t="s">
         <v>491</v>
       </c>
       <c r="J283" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -9972,16 +9986,16 @@
         <v>629</v>
       </c>
       <c r="B284" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="C284" t="s">
-        <v>308</v>
+        <v>798</v>
       </c>
       <c r="D284" t="s">
         <v>491</v>
       </c>
       <c r="J284" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -9989,16 +10003,16 @@
         <v>629</v>
       </c>
       <c r="B285" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="C285" t="s">
-        <v>76</v>
+        <v>799</v>
       </c>
       <c r="D285" t="s">
         <v>491</v>
       </c>
       <c r="J285" t="s">
-        <v>670</v>
+        <v>631</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -10006,69 +10020,63 @@
         <v>629</v>
       </c>
       <c r="B286" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="C286" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="D286" t="s">
-        <v>524</v>
-      </c>
-      <c r="H286" t="s">
-        <v>673</v>
+        <v>491</v>
+      </c>
+      <c r="J286" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>640</v>
+        <v>629</v>
+      </c>
+      <c r="B287" t="s">
+        <v>76</v>
       </c>
       <c r="C287" t="s">
-        <v>728</v>
+        <v>76</v>
       </c>
       <c r="D287" t="s">
-        <v>499</v>
-      </c>
-      <c r="E287" s="1"/>
-      <c r="F287" t="b">
-        <v>0</v>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
+        <v>491</v>
+      </c>
+      <c r="J287" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
+        <v>629</v>
+      </c>
+      <c r="B288" t="s">
+        <v>208</v>
+      </c>
+      <c r="C288" t="s">
+        <v>209</v>
+      </c>
+      <c r="D288" t="s">
+        <v>524</v>
+      </c>
+      <c r="H288" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
+      <c r="A289" t="s">
         <v>640</v>
       </c>
-      <c r="B288" t="s">
-        <v>301</v>
-      </c>
-      <c r="C288" t="s">
-        <v>640</v>
-      </c>
-      <c r="D288" t="s">
-        <v>496</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="J288" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" t="s">
-        <v>710</v>
-      </c>
-      <c r="B289" t="s">
-        <v>421</v>
-      </c>
       <c r="C289" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D289" t="s">
-        <v>491</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="E289" s="1"/>
       <c r="F289" t="b">
         <v>0</v>
       </c>
@@ -10076,94 +10084,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>710</v>
+        <v>640</v>
       </c>
       <c r="B290" t="s">
-        <v>422</v>
+        <v>301</v>
       </c>
       <c r="C290" t="s">
-        <v>738</v>
+        <v>640</v>
       </c>
       <c r="D290" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+        <v>496</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="J290" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
       <c r="A291" t="s">
         <v>710</v>
       </c>
       <c r="B291" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="C291" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="D291" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="F291" t="b">
+        <v>0</v>
+      </c>
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
       <c r="A292" t="s">
         <v>710</v>
       </c>
       <c r="B292" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
       <c r="C292" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="D292" t="s">
-        <v>496</v>
-      </c>
-      <c r="E292" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10">
       <c r="A293" t="s">
         <v>710</v>
       </c>
       <c r="B293" t="s">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="C293" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="D293" t="s">
-        <v>495</v>
-      </c>
-      <c r="E293" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
       <c r="A294" t="s">
         <v>710</v>
       </c>
       <c r="B294" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="C294" t="s">
-        <v>706</v>
+        <v>764</v>
       </c>
       <c r="D294" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E294" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
       <c r="A295" t="s">
         <v>710</v>
       </c>
       <c r="B295" t="s">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="C295" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="D295" t="s">
         <v>532</v>
@@ -10172,142 +10186,142 @@
         <v>489</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:10">
       <c r="A296" t="s">
         <v>710</v>
       </c>
       <c r="B296" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="C296" t="s">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="D296" t="s">
         <v>532</v>
       </c>
       <c r="E296" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
       <c r="A297" t="s">
         <v>710</v>
       </c>
       <c r="B297" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="C297" t="s">
-        <v>263</v>
+        <v>765</v>
       </c>
       <c r="D297" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+        <v>532</v>
+      </c>
+      <c r="E297" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
       <c r="A298" t="s">
         <v>710</v>
       </c>
       <c r="B298" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C298" t="s">
-        <v>303</v>
+        <v>766</v>
       </c>
       <c r="D298" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+        <v>532</v>
+      </c>
+      <c r="E298" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10">
       <c r="A299" t="s">
         <v>710</v>
       </c>
       <c r="B299" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="C299" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="D299" t="s">
-        <v>495</v>
-      </c>
-      <c r="E299" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
       <c r="A300" t="s">
         <v>710</v>
       </c>
       <c r="B300" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
       <c r="D300" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:10">
       <c r="A301" t="s">
         <v>710</v>
       </c>
       <c r="B301" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="C301" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="D301" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
+        <v>532</v>
+      </c>
+      <c r="E301" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10">
       <c r="A302" t="s">
         <v>710</v>
       </c>
       <c r="B302" t="s">
+        <v>394</v>
+      </c>
+      <c r="C302" t="s">
+        <v>395</v>
+      </c>
+      <c r="D302" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10">
+      <c r="A303" t="s">
+        <v>710</v>
+      </c>
+      <c r="B303" t="s">
+        <v>250</v>
+      </c>
+      <c r="C303" t="s">
+        <v>251</v>
+      </c>
+      <c r="D303" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10">
+      <c r="A304" t="s">
+        <v>710</v>
+      </c>
+      <c r="B304" t="s">
         <v>69</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C304" t="s">
         <v>70</v>
       </c>
-      <c r="D302" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" t="s">
-        <v>14</v>
-      </c>
-      <c r="B303" t="s">
-        <v>321</v>
-      </c>
-      <c r="C303" t="s">
-        <v>744</v>
-      </c>
-      <c r="D303" t="s">
-        <v>496</v>
-      </c>
-      <c r="E303" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" t="s">
-        <v>14</v>
-      </c>
-      <c r="B304" t="s">
-        <v>125</v>
-      </c>
-      <c r="C304" t="s">
-        <v>750</v>
-      </c>
       <c r="D304" t="s">
-        <v>496</v>
-      </c>
-      <c r="E304" t="s">
-        <v>616</v>
+        <v>491</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -10315,16 +10329,16 @@
         <v>14</v>
       </c>
       <c r="B305" t="s">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="C305" t="s">
-        <v>144</v>
+        <v>744</v>
       </c>
       <c r="D305" t="s">
         <v>496</v>
       </c>
       <c r="E305" t="s">
-        <v>714</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -10332,10 +10346,10 @@
         <v>14</v>
       </c>
       <c r="B306" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C306" t="s">
-        <v>131</v>
+        <v>750</v>
       </c>
       <c r="D306" t="s">
         <v>496</v>
@@ -10349,16 +10363,16 @@
         <v>14</v>
       </c>
       <c r="B307" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C307" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="D307" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E307" t="s">
-        <v>487</v>
+        <v>714</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -10366,13 +10380,16 @@
         <v>14</v>
       </c>
       <c r="B308" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C308" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D308" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E308" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -10380,19 +10397,16 @@
         <v>14</v>
       </c>
       <c r="B309" t="s">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="C309" t="s">
-        <v>253</v>
+        <v>119</v>
       </c>
       <c r="D309" t="s">
-        <v>491</v>
-      </c>
-      <c r="F309" t="b">
-        <v>0</v>
-      </c>
-      <c r="G309" t="b">
-        <v>1</v>
+        <v>532</v>
+      </c>
+      <c r="E309" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -10400,10 +10414,10 @@
         <v>14</v>
       </c>
       <c r="B310" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C310" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D310" t="s">
         <v>491</v>
@@ -10414,13 +10428,19 @@
         <v>14</v>
       </c>
       <c r="B311" t="s">
-        <v>447</v>
+        <v>252</v>
       </c>
       <c r="C311" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="D311" t="s">
-        <v>493</v>
+        <v>491</v>
+      </c>
+      <c r="F311" t="b">
+        <v>0</v>
+      </c>
+      <c r="G311" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -10428,10 +10448,10 @@
         <v>14</v>
       </c>
       <c r="B312" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C312" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="D312" t="s">
         <v>491</v>
@@ -10442,13 +10462,13 @@
         <v>14</v>
       </c>
       <c r="B313" t="s">
-        <v>128</v>
+        <v>447</v>
       </c>
       <c r="C313" t="s">
-        <v>129</v>
+        <v>448</v>
       </c>
       <c r="D313" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -10456,10 +10476,10 @@
         <v>14</v>
       </c>
       <c r="B314" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="C314" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D314" t="s">
         <v>491</v>
@@ -10467,82 +10487,67 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>724</v>
+        <v>14</v>
       </c>
       <c r="B315" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C315" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D315" t="s">
-        <v>496</v>
-      </c>
-      <c r="E315" t="s">
-        <v>725</v>
+        <v>491</v>
       </c>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>724</v>
+        <v>14</v>
       </c>
       <c r="B316" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C316" t="s">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c r="D316" t="s">
         <v>491</v>
-      </c>
-      <c r="F316" t="b">
-        <v>0</v>
-      </c>
-      <c r="G316" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="B317" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="C317" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="D317" t="s">
         <v>496</v>
       </c>
       <c r="E317" t="s">
-        <v>692</v>
-      </c>
-      <c r="F317" t="b">
-        <v>0</v>
-      </c>
-      <c r="J317" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="B318" t="s">
-        <v>375</v>
+        <v>252</v>
       </c>
       <c r="C318" t="s">
-        <v>376</v>
+        <v>253</v>
       </c>
       <c r="D318" t="s">
-        <v>496</v>
-      </c>
-      <c r="E318" t="s">
-        <v>373</v>
-      </c>
-      <c r="J318" t="s">
-        <v>678</v>
+        <v>491</v>
+      </c>
+      <c r="F318" t="b">
+        <v>0</v>
+      </c>
+      <c r="G318" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -10550,22 +10555,19 @@
         <v>675</v>
       </c>
       <c r="B319" t="s">
-        <v>381</v>
+        <v>728</v>
       </c>
       <c r="C319" t="s">
-        <v>382</v>
+        <v>728</v>
       </c>
       <c r="D319" t="s">
-        <v>496</v>
-      </c>
-      <c r="E319" t="s">
-        <v>682</v>
+        <v>499</v>
       </c>
       <c r="F319" t="b">
         <v>0</v>
       </c>
-      <c r="J319" t="s">
-        <v>681</v>
+      <c r="G319" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -10573,22 +10575,22 @@
         <v>675</v>
       </c>
       <c r="B320" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C320" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="D320" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E320" t="s">
-        <v>373</v>
+        <v>692</v>
       </c>
       <c r="F320" t="b">
         <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -10596,19 +10598,19 @@
         <v>675</v>
       </c>
       <c r="B321" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C321" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D321" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="E321" t="s">
-        <v>487</v>
+        <v>373</v>
       </c>
       <c r="J321" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -10616,76 +10618,82 @@
         <v>675</v>
       </c>
       <c r="B322" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C322" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D322" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E322" t="s">
+        <v>682</v>
+      </c>
+      <c r="F322" t="b">
+        <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="B323" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C323" t="s">
-        <v>752</v>
+        <v>373</v>
       </c>
       <c r="D323" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E323" t="s">
-        <v>489</v>
+        <v>373</v>
+      </c>
+      <c r="F323" t="b">
+        <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="B324" t="s">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="C324" t="s">
-        <v>703</v>
+        <v>378</v>
       </c>
       <c r="D324" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E324" t="s">
-        <v>703</v>
+        <v>487</v>
       </c>
       <c r="J324" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="B325" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C325" t="s">
-        <v>754</v>
+        <v>380</v>
       </c>
       <c r="D325" t="s">
-        <v>496</v>
-      </c>
-      <c r="E325" t="s">
-        <v>661</v>
+        <v>491</v>
       </c>
       <c r="J325" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -10693,16 +10701,19 @@
         <v>692</v>
       </c>
       <c r="B326" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C326" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="D326" t="s">
-        <v>494</v>
+        <v>496</v>
+      </c>
+      <c r="E326" t="s">
+        <v>489</v>
       </c>
       <c r="J326" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -10710,22 +10721,19 @@
         <v>692</v>
       </c>
       <c r="B327" t="s">
-        <v>391</v>
+        <v>153</v>
       </c>
       <c r="C327" t="s">
-        <v>775</v>
+        <v>703</v>
       </c>
       <c r="D327" t="s">
         <v>496</v>
       </c>
       <c r="E327" t="s">
-        <v>661</v>
-      </c>
-      <c r="F327" t="b">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="J327" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -10733,19 +10741,19 @@
         <v>692</v>
       </c>
       <c r="B328" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C328" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D328" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E328" t="s">
-        <v>487</v>
+        <v>661</v>
       </c>
       <c r="J328" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -10753,16 +10761,16 @@
         <v>692</v>
       </c>
       <c r="B329" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C329" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D329" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="J329" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -10770,16 +10778,22 @@
         <v>692</v>
       </c>
       <c r="B330" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C330" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="D330" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E330" t="s">
+        <v>661</v>
+      </c>
+      <c r="F330" t="b">
+        <v>0</v>
       </c>
       <c r="J330" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -10787,73 +10801,76 @@
         <v>692</v>
       </c>
       <c r="B331" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C331" t="s">
-        <v>433</v>
+        <v>757</v>
       </c>
       <c r="D331" t="s">
-        <v>491</v>
-      </c>
-      <c r="F331" t="b">
-        <v>0</v>
-      </c>
-      <c r="G331" t="b">
-        <v>1</v>
+        <v>532</v>
+      </c>
+      <c r="E331" t="s">
+        <v>487</v>
       </c>
       <c r="J331" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>13</v>
+        <v>692</v>
       </c>
       <c r="B332" t="s">
-        <v>127</v>
+        <v>389</v>
       </c>
       <c r="C332" t="s">
-        <v>825</v>
+        <v>774</v>
       </c>
       <c r="D332" t="s">
-        <v>532</v>
-      </c>
-      <c r="E332" t="s">
-        <v>487</v>
+        <v>491</v>
+      </c>
+      <c r="J332" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>13</v>
+        <v>692</v>
       </c>
       <c r="B333" t="s">
-        <v>89</v>
+        <v>383</v>
       </c>
       <c r="C333" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D333" t="s">
-        <v>495</v>
-      </c>
-      <c r="E333" t="s">
-        <v>616</v>
+        <v>491</v>
+      </c>
+      <c r="J333" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>13</v>
+        <v>692</v>
       </c>
       <c r="B334" t="s">
-        <v>122</v>
+        <v>384</v>
       </c>
       <c r="C334" t="s">
-        <v>748</v>
+        <v>433</v>
       </c>
       <c r="D334" t="s">
-        <v>496</v>
-      </c>
-      <c r="E334" t="s">
-        <v>616</v>
+        <v>491</v>
+      </c>
+      <c r="F334" t="b">
+        <v>0</v>
+      </c>
+      <c r="G334" t="b">
+        <v>1</v>
+      </c>
+      <c r="J334" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -10861,13 +10878,13 @@
         <v>13</v>
       </c>
       <c r="B335" t="s">
-        <v>407</v>
+        <v>127</v>
       </c>
       <c r="C335" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D335" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E335" t="s">
         <v>487</v>
@@ -10878,290 +10895,284 @@
         <v>13</v>
       </c>
       <c r="B336" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C336" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D336" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="E336" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>13</v>
       </c>
       <c r="B337" t="s">
-        <v>261</v>
+        <v>122</v>
       </c>
       <c r="C337" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D337" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="E337" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>13</v>
       </c>
       <c r="B338" t="s">
-        <v>126</v>
+        <v>407</v>
       </c>
       <c r="C338" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D338" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10">
+        <v>496</v>
+      </c>
+      <c r="E338" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>13</v>
       </c>
       <c r="B339" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C339" t="s">
-        <v>85</v>
+        <v>733</v>
       </c>
       <c r="D339" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10">
+        <v>532</v>
+      </c>
+      <c r="E339" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>13</v>
       </c>
       <c r="B340" t="s">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="C340" t="s">
-        <v>115</v>
+        <v>745</v>
       </c>
       <c r="D340" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E340" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>13</v>
       </c>
       <c r="B341" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C341" t="s">
-        <v>121</v>
+        <v>827</v>
       </c>
       <c r="D341" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>13</v>
       </c>
       <c r="B342" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="C342" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="D342" t="s">
         <v>491</v>
       </c>
-      <c r="F342" t="b">
-        <v>0</v>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10">
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>13</v>
       </c>
       <c r="B343" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C343" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D343" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10">
+        <v>496</v>
+      </c>
+      <c r="E343" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>13</v>
       </c>
       <c r="B344" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C344" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D344" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>13</v>
       </c>
       <c r="B345" t="s">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="C345" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="D345" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10">
+        <v>491</v>
+      </c>
+      <c r="F345" t="b">
+        <v>0</v>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>13</v>
       </c>
       <c r="B346" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C346" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="D346" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>13</v>
       </c>
       <c r="B347" t="s">
+        <v>69</v>
+      </c>
+      <c r="C347" t="s">
+        <v>70</v>
+      </c>
+      <c r="D347" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" t="s">
+        <v>13</v>
+      </c>
+      <c r="B348" t="s">
+        <v>65</v>
+      </c>
+      <c r="C348" t="s">
+        <v>66</v>
+      </c>
+      <c r="D348" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" t="s">
+        <v>13</v>
+      </c>
+      <c r="B349" t="s">
+        <v>67</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350" t="s">
         <v>254</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C350" t="s">
         <v>255</v>
       </c>
-      <c r="D347" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10">
-      <c r="A348" t="s">
+      <c r="D350" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" t="s">
         <v>720</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B351" t="s">
         <v>345</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C351" t="s">
         <v>346</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D351" t="s">
         <v>532</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E351" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
-      <c r="A349" t="s">
+    <row r="352" spans="1:7">
+      <c r="A352" t="s">
         <v>720</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C352" t="s">
         <v>728</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D352" t="s">
         <v>499</v>
       </c>
-      <c r="F349" t="b">
+      <c r="F352" t="b">
         <v>0</v>
       </c>
-      <c r="G349" t="b">
+      <c r="G352" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10">
-      <c r="A350" t="s">
-        <v>720</v>
-      </c>
-      <c r="B350" t="s">
-        <v>340</v>
-      </c>
-      <c r="C350" t="s">
-        <v>341</v>
-      </c>
-      <c r="D350" t="s">
-        <v>496</v>
-      </c>
-      <c r="E350" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10">
-      <c r="A351" t="s">
-        <v>15</v>
-      </c>
-      <c r="B351" t="s">
-        <v>89</v>
-      </c>
-      <c r="C351" t="s">
-        <v>732</v>
-      </c>
-      <c r="D351" t="s">
-        <v>496</v>
-      </c>
-      <c r="E351" t="s">
-        <v>616</v>
-      </c>
-      <c r="J351" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10">
-      <c r="A352" t="s">
-        <v>15</v>
-      </c>
-      <c r="B352" t="s">
-        <v>320</v>
-      </c>
-      <c r="C352" t="s">
-        <v>629</v>
-      </c>
-      <c r="D352" t="s">
-        <v>496</v>
-      </c>
-      <c r="E352" t="s">
-        <v>629</v>
-      </c>
-      <c r="J352" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
-        <v>15</v>
+        <v>720</v>
       </c>
       <c r="B353" t="s">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c r="C353" t="s">
-        <v>767</v>
+        <v>341</v>
       </c>
       <c r="D353" t="s">
-        <v>491</v>
-      </c>
-      <c r="J353" t="s">
-        <v>614</v>
+        <v>496</v>
+      </c>
+      <c r="E353" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -11169,19 +11180,19 @@
         <v>15</v>
       </c>
       <c r="B354" t="s">
-        <v>284</v>
+        <v>89</v>
       </c>
       <c r="C354" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="D354" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E354" t="s">
-        <v>489</v>
+        <v>616</v>
       </c>
       <c r="J354" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -11189,22 +11200,19 @@
         <v>15</v>
       </c>
       <c r="B355" t="s">
-        <v>134</v>
+        <v>320</v>
       </c>
       <c r="C355" t="s">
-        <v>768</v>
+        <v>629</v>
       </c>
       <c r="D355" t="s">
         <v>496</v>
       </c>
       <c r="E355" t="s">
-        <v>487</v>
-      </c>
-      <c r="F355" t="b">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="J355" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="356" spans="1:10">
@@ -11212,16 +11220,16 @@
         <v>15</v>
       </c>
       <c r="B356" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C356" t="s">
-        <v>133</v>
+        <v>767</v>
       </c>
       <c r="D356" t="s">
         <v>491</v>
       </c>
       <c r="J356" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -11229,19 +11237,19 @@
         <v>15</v>
       </c>
       <c r="B357" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C357" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="D357" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E357" t="s">
-        <v>675</v>
+        <v>489</v>
       </c>
       <c r="J357" t="s">
-        <v>674</v>
+        <v>605</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -11249,19 +11257,22 @@
         <v>15</v>
       </c>
       <c r="B358" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="C358" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="D358" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="E358" t="s">
-        <v>489</v>
+        <v>487</v>
+      </c>
+      <c r="F358" t="b">
+        <v>0</v>
       </c>
       <c r="J358" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
     </row>
     <row r="359" spans="1:10">
@@ -11269,16 +11280,16 @@
         <v>15</v>
       </c>
       <c r="B359" t="s">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="C359" t="s">
-        <v>770</v>
+        <v>133</v>
       </c>
       <c r="D359" t="s">
         <v>491</v>
       </c>
       <c r="J359" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -11286,22 +11297,19 @@
         <v>15</v>
       </c>
       <c r="B360" t="s">
-        <v>141</v>
+        <v>371</v>
       </c>
       <c r="C360" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D360" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="E360" t="s">
-        <v>502</v>
-      </c>
-      <c r="F360" t="b">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J360" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -11309,16 +11317,19 @@
         <v>15</v>
       </c>
       <c r="B361" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C361" t="s">
-        <v>283</v>
+        <v>741</v>
       </c>
       <c r="D361" t="s">
-        <v>491</v>
+        <v>532</v>
+      </c>
+      <c r="E361" t="s">
+        <v>489</v>
       </c>
       <c r="J361" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -11326,16 +11337,16 @@
         <v>15</v>
       </c>
       <c r="B362" t="s">
-        <v>86</v>
+        <v>288</v>
       </c>
       <c r="C362" t="s">
-        <v>87</v>
+        <v>770</v>
       </c>
       <c r="D362" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J362" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -11343,13 +11354,13 @@
         <v>15</v>
       </c>
       <c r="B363" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C363" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D363" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E363" t="s">
         <v>502</v>
@@ -11358,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="364" spans="1:10">
@@ -11366,19 +11377,16 @@
         <v>15</v>
       </c>
       <c r="B364" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="C364" t="s">
-        <v>773</v>
+        <v>283</v>
       </c>
       <c r="D364" t="s">
-        <v>495</v>
-      </c>
-      <c r="E364" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J364" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -11386,16 +11394,16 @@
         <v>15</v>
       </c>
       <c r="B365" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="C365" t="s">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="D365" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="J365" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -11403,16 +11411,22 @@
         <v>15</v>
       </c>
       <c r="B366" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C366" t="s">
-        <v>85</v>
+        <v>772</v>
       </c>
       <c r="D366" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E366" t="s">
+        <v>502</v>
+      </c>
+      <c r="F366" t="b">
+        <v>0</v>
       </c>
       <c r="J366" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="367" spans="1:10">
@@ -11420,16 +11434,19 @@
         <v>15</v>
       </c>
       <c r="B367" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C367" t="s">
-        <v>81</v>
+        <v>773</v>
       </c>
       <c r="D367" t="s">
-        <v>494</v>
+        <v>532</v>
+      </c>
+      <c r="E367" t="s">
+        <v>487</v>
       </c>
       <c r="J367" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -11437,16 +11454,16 @@
         <v>15</v>
       </c>
       <c r="B368" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C368" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="D368" t="s">
         <v>491</v>
       </c>
       <c r="J368" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="369" spans="1:10">
@@ -11454,16 +11471,16 @@
         <v>15</v>
       </c>
       <c r="B369" t="s">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="C369" t="s">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="D369" t="s">
         <v>491</v>
       </c>
       <c r="J369" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -11471,16 +11488,16 @@
         <v>15</v>
       </c>
       <c r="B370" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C370" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D370" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="J370" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="371" spans="1:10">
@@ -11488,19 +11505,16 @@
         <v>15</v>
       </c>
       <c r="B371" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C371" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D371" t="s">
-        <v>524</v>
-      </c>
-      <c r="H371" t="s">
-        <v>607</v>
+        <v>491</v>
       </c>
       <c r="J371" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -11508,16 +11522,16 @@
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C372" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D372" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J372" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="373" spans="1:10">
@@ -11525,16 +11539,16 @@
         <v>15</v>
       </c>
       <c r="B373" t="s">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="C373" t="s">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="D373" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="J373" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
     </row>
     <row r="374" spans="1:10">
@@ -11542,16 +11556,19 @@
         <v>15</v>
       </c>
       <c r="B374" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C374" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D374" t="s">
-        <v>492</v>
+        <v>524</v>
+      </c>
+      <c r="H374" t="s">
+        <v>607</v>
       </c>
       <c r="J374" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
     </row>
     <row r="375" spans="1:10">
@@ -11559,83 +11576,134 @@
         <v>15</v>
       </c>
       <c r="B375" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C375" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="D375" t="s">
-        <v>491</v>
-      </c>
-      <c r="F375" t="b">
-        <v>0</v>
-      </c>
-      <c r="G375" t="b">
-        <v>1</v>
+        <v>494</v>
       </c>
       <c r="J375" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="376" spans="1:10">
       <c r="A376" t="s">
-        <v>548</v>
+        <v>15</v>
       </c>
       <c r="B376" t="s">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="C376" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="D376" t="s">
-        <v>501</v>
-      </c>
-      <c r="F376" t="b">
-        <v>0</v>
-      </c>
-      <c r="G376" t="b">
-        <v>1</v>
+        <v>498</v>
       </c>
       <c r="J376" t="s">
-        <v>549</v>
+        <v>626</v>
       </c>
     </row>
     <row r="377" spans="1:10">
       <c r="A377" t="s">
-        <v>551</v>
+        <v>15</v>
       </c>
       <c r="B377" t="s">
-        <v>461</v>
+        <v>276</v>
       </c>
       <c r="C377" t="s">
-        <v>462</v>
+        <v>277</v>
       </c>
       <c r="D377" t="s">
-        <v>491</v>
-      </c>
-      <c r="F377" t="b">
-        <v>0</v>
-      </c>
-      <c r="G377" t="b">
-        <v>1</v>
+        <v>492</v>
+      </c>
+      <c r="J377" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="378" spans="1:10">
       <c r="A378" t="s">
+        <v>15</v>
+      </c>
+      <c r="B378" t="s">
+        <v>269</v>
+      </c>
+      <c r="C378" t="s">
+        <v>270</v>
+      </c>
+      <c r="D378" t="s">
+        <v>491</v>
+      </c>
+      <c r="F378" t="b">
+        <v>0</v>
+      </c>
+      <c r="G378" t="b">
+        <v>1</v>
+      </c>
+      <c r="J378" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10">
+      <c r="A379" t="s">
+        <v>548</v>
+      </c>
+      <c r="B379" t="s">
+        <v>451</v>
+      </c>
+      <c r="C379" t="s">
+        <v>452</v>
+      </c>
+      <c r="D379" t="s">
+        <v>501</v>
+      </c>
+      <c r="F379" t="b">
+        <v>0</v>
+      </c>
+      <c r="G379" t="b">
+        <v>1</v>
+      </c>
+      <c r="J379" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10">
+      <c r="A380" t="s">
         <v>551</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B380" t="s">
+        <v>461</v>
+      </c>
+      <c r="C380" t="s">
+        <v>462</v>
+      </c>
+      <c r="D380" t="s">
+        <v>491</v>
+      </c>
+      <c r="F380" t="b">
+        <v>0</v>
+      </c>
+      <c r="G380" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10">
+      <c r="A381" t="s">
+        <v>551</v>
+      </c>
+      <c r="B381" t="s">
         <v>463</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C381" t="s">
         <v>464</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D381" t="s">
         <v>491</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J378">
+  <autoFilter ref="A1:J381">
     <sortState ref="A2:J378">
       <sortCondition ref="A1:A378"/>
     </sortState>

--- a/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="920" windowWidth="26020" windowHeight="16680" tabRatio="951" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="951" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="855">
   <si>
     <t>description</t>
   </si>
@@ -2571,9 +2571,6 @@
     <t>NameOfPhysiciansReading</t>
   </si>
   <si>
-    <t>Digital Imaging and Communications in Medicine (DICOM) is the standard for the communication and management of medical imaging information and related data. This is not the full model, but shows the core entities. Website: http://dicom.nema.org . Documentation: http://medical.nema.org/standard.html .</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -2586,15 +2583,9 @@
     <t>codeSystem</t>
   </si>
   <si>
-    <t>relationIRI</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
-    <t>http://molgenis.org/biobankconnect/link</t>
-  </si>
-  <si>
     <t>dicom_home</t>
   </si>
   <si>
@@ -2610,13 +2601,55 @@
     <t>http://www.biosharing.org/bsg-000114</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>dicom_biosharing</t>
   </si>
   <si>
-    <t>dicom_home,dicom_biosharing</t>
+    <t>hl7_website</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/</t>
+  </si>
+  <si>
+    <t>HL7</t>
+  </si>
+  <si>
+    <t>relationIri</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/homepage</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#isDefinedBy</t>
+  </si>
+  <si>
+    <t>isDefinedBy</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>dicom_isDefinedBy</t>
+  </si>
+  <si>
+    <t>http://medical.nema.org/standard.html</t>
+  </si>
+  <si>
+    <t>The Dicom Standard</t>
+  </si>
+  <si>
+    <t>Biosharing</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#seeAlso</t>
+  </si>
+  <si>
+    <t>seeAlso</t>
+  </si>
+  <si>
+    <t>Digital Imaging and Communications in Medicine (DICOM) is the standard for the communication and management of medical imaging information and related data. This is not the full model, but shows the core entities.</t>
+  </si>
+  <si>
+    <t>dicom_home,dicom_biosharing,dicom_isDefinedBy</t>
   </si>
 </sst>
 </file>
@@ -2693,7 +2726,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="701">
+  <cellStyleXfs count="717">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3395,13 +3428,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="701">
+  <cellStyles count="717">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3880,6 +3935,14 @@
     <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4102,6 +4165,14 @@
     <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4434,35 +4505,35 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="135.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>828</v>
+      <c r="B2" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="C2" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -4477,20 +4548,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51.1640625" style="4" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4500,11 +4571,14 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>718</v>
       </c>
@@ -4515,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -4526,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -4537,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -4548,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>682</v>
       </c>
@@ -4559,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>373</v>
       </c>
@@ -4570,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>661</v>
       </c>
@@ -4581,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>545</v>
       </c>
@@ -4592,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>541</v>
       </c>
@@ -4603,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>240</v>
       </c>
@@ -4614,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>719</v>
       </c>
@@ -4625,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>489</v>
       </c>
@@ -4635,8 +4709,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>712</v>
       </c>
@@ -4647,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>708</v>
       </c>
@@ -4658,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -4702,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="45">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4712,7 +4789,7 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4738,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="90">
       <c r="A23" t="s">
         <v>726</v>
       </c>
@@ -4748,7 +4825,7 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4928,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="45">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -4938,7 +5015,7 @@
       <c r="C40" t="b">
         <v>0</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4975,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="90">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -4985,7 +5062,7 @@
       <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5000,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="120">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -5010,7 +5087,7 @@
       <c r="C46" t="b">
         <v>0</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5051,9 +5128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G319" sqref="G319"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11721,9 +11798,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -11732,67 +11809,107 @@
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="33.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>830</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B4" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>842</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D4" t="s">
+        <v>852</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B5" t="s">
         <v>840</v>
       </c>
-      <c r="C3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>841</v>
       </c>
-      <c r="E3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>835</v>
+      <c r="D5" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F5" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="951" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="30040" windowHeight="17600" tabRatio="951" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="902">
   <si>
     <t>description</t>
   </si>
@@ -2650,6 +2650,147 @@
   </si>
   <si>
     <t>dicom_home,dicom_biosharing,dicom_isDefinedBy</t>
+  </si>
+  <si>
+    <t>dicom_BillingAndMaterialMgt</t>
+  </si>
+  <si>
+    <t>dicom_BreedRegistration</t>
+  </si>
+  <si>
+    <t>dicom_ClinicalTrialParticipation</t>
+  </si>
+  <si>
+    <t>dicom_Code</t>
+  </si>
+  <si>
+    <t>dicom_ContainerComponent</t>
+  </si>
+  <si>
+    <t>dicom_ContainerIdentifier</t>
+  </si>
+  <si>
+    <t>dicom_ContentItem</t>
+  </si>
+  <si>
+    <t>dicom_DICOMMediaRetrieval</t>
+  </si>
+  <si>
+    <t>dicom_DICOMRetrieval</t>
+  </si>
+  <si>
+    <t>dicom_Exposure</t>
+  </si>
+  <si>
+    <t>dicom_FilmConsumption</t>
+  </si>
+  <si>
+    <t>dicom_HL7HierarchicDesignator</t>
+  </si>
+  <si>
+    <t>dicom_ImageAcquisitionResults</t>
+  </si>
+  <si>
+    <t>dicom_ImagingServiceRequest</t>
+  </si>
+  <si>
+    <t>dicom_InstanceAvailability</t>
+  </si>
+  <si>
+    <t>dicom_IssuerOfPatientID</t>
+  </si>
+  <si>
+    <t>dicom_IssuerOfPatientIDQualifiers</t>
+  </si>
+  <si>
+    <t>dicom_OtherPatientID</t>
+  </si>
+  <si>
+    <t>dicom_Patient</t>
+  </si>
+  <si>
+    <t>dicom_PatientPrimaryLanguageCode</t>
+  </si>
+  <si>
+    <t>dicom_PerformedProcedure</t>
+  </si>
+  <si>
+    <t>dicom_PerformedProcedureStepInfo</t>
+  </si>
+  <si>
+    <t>dicom_PerformedProcedureStepSOP</t>
+  </si>
+  <si>
+    <t>dicom_PersonIdentification</t>
+  </si>
+  <si>
+    <t>dicom_PertinentDocument</t>
+  </si>
+  <si>
+    <t>dicom_PrimaryAnatomicStructure</t>
+  </si>
+  <si>
+    <t>dicom_Protocol</t>
+  </si>
+  <si>
+    <t>dicom_ProtocolContext</t>
+  </si>
+  <si>
+    <t>dicom_Quantity</t>
+  </si>
+  <si>
+    <t>dicom_RadiationDose</t>
+  </si>
+  <si>
+    <t>dicom_ReferencedImage</t>
+  </si>
+  <si>
+    <t>dicom_ReferencedInstances</t>
+  </si>
+  <si>
+    <t>dicom_ReferencedSOP</t>
+  </si>
+  <si>
+    <t>dicom_ReferencedSOPAvailability</t>
+  </si>
+  <si>
+    <t>dicom_RequestedProcedure</t>
+  </si>
+  <si>
+    <t>dicom_ScheduledProcedureStep</t>
+  </si>
+  <si>
+    <t>dicom_ScheduledProtocol</t>
+  </si>
+  <si>
+    <t>dicom_ScheduledStepAttributes</t>
+  </si>
+  <si>
+    <t>dicom_Series</t>
+  </si>
+  <si>
+    <t>dicom_SeriesInstance</t>
+  </si>
+  <si>
+    <t>dicom_Specimen</t>
+  </si>
+  <si>
+    <t>dicom_SpecimenDescription</t>
+  </si>
+  <si>
+    <t>dicom_Study</t>
+  </si>
+  <si>
+    <t>dicom_SuppliesAndDevices</t>
+  </si>
+  <si>
+    <t>dicom_Visit</t>
+  </si>
+  <si>
+    <t>dicom_WADORetrieval</t>
+  </si>
+  <si>
+    <t>dicom_XDSRetrieval</t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2867,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="717">
+  <cellStyleXfs count="719">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3371,6 +3512,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3456,7 +3599,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="717">
+  <cellStyles count="719">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3943,6 +4086,7 @@
     <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4173,6 +4317,7 @@
     <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4550,7 +4695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -5128,14 +5273,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J381"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5179,7 +5324,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>718</v>
+        <v>855</v>
       </c>
       <c r="B2" t="s">
         <v>363</v>
@@ -5191,12 +5336,12 @@
         <v>496</v>
       </c>
       <c r="E2" t="s">
-        <v>720</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>718</v>
+        <v>855</v>
       </c>
       <c r="B3" t="s">
         <v>361</v>
@@ -5208,12 +5353,12 @@
         <v>496</v>
       </c>
       <c r="E3" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>718</v>
+        <v>855</v>
       </c>
       <c r="B4" t="s">
         <v>362</v>
@@ -5225,12 +5370,12 @@
         <v>496</v>
       </c>
       <c r="E4" t="s">
-        <v>719</v>
+        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>718</v>
+        <v>855</v>
       </c>
       <c r="C5" t="s">
         <v>728</v>
@@ -5247,7 +5392,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>856</v>
       </c>
       <c r="B6" t="s">
         <v>213</v>
@@ -5270,7 +5415,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>857</v>
       </c>
       <c r="B7" t="s">
         <v>225</v>
@@ -5287,7 +5432,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>857</v>
       </c>
       <c r="B8" t="s">
         <v>221</v>
@@ -5304,7 +5449,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>857</v>
       </c>
       <c r="B9" t="s">
         <v>223</v>
@@ -5321,7 +5466,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>857</v>
       </c>
       <c r="B10" t="s">
         <v>231</v>
@@ -5338,7 +5483,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>857</v>
       </c>
       <c r="B11" t="s">
         <v>229</v>
@@ -5355,7 +5500,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>857</v>
       </c>
       <c r="B12" t="s">
         <v>227</v>
@@ -5372,7 +5517,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>857</v>
       </c>
       <c r="C13" t="s">
         <v>728</v>
@@ -5392,7 +5537,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>857</v>
       </c>
       <c r="B14" t="s">
         <v>233</v>
@@ -5409,7 +5554,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
@@ -5426,7 +5571,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B16" t="s">
         <v>104</v>
@@ -5443,7 +5588,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
@@ -5460,7 +5605,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B18" t="s">
         <v>92</v>
@@ -5480,7 +5625,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B19" t="s">
         <v>94</v>
@@ -5497,7 +5642,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
@@ -5514,7 +5659,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -5531,7 +5676,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B22" t="s">
         <v>98</v>
@@ -5548,7 +5693,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B23" t="s">
         <v>96</v>
@@ -5568,7 +5713,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B24" t="s">
         <v>110</v>
@@ -5585,7 +5730,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="B25" t="s">
         <v>90</v>
@@ -5608,7 +5753,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="B26" t="s">
         <v>467</v>
@@ -5620,7 +5765,7 @@
         <v>495</v>
       </c>
       <c r="E26" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -5631,7 +5776,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="B27" t="s">
         <v>468</v>
@@ -5648,7 +5793,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="B28" t="s">
         <v>472</v>
@@ -5665,7 +5810,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="B29" t="s">
         <v>470</v>
@@ -5682,7 +5827,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="B30" t="s">
         <v>471</v>
@@ -5699,7 +5844,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="B31" t="s">
         <v>469</v>
@@ -5716,7 +5861,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="B32" t="s">
         <v>135</v>
@@ -5733,7 +5878,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="B33" t="s">
         <v>473</v>
@@ -5750,7 +5895,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -5767,7 +5912,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="C35" t="s">
         <v>728</v>
@@ -5784,7 +5929,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>373</v>
+        <v>860</v>
       </c>
       <c r="B36" t="s">
         <v>374</v>
@@ -5796,7 +5941,7 @@
         <v>532</v>
       </c>
       <c r="E36" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
       <c r="J36" t="s">
         <v>677</v>
@@ -5804,7 +5949,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>373</v>
+        <v>860</v>
       </c>
       <c r="B37" t="s">
         <v>372</v>
@@ -5827,7 +5972,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B38" t="s">
         <v>474</v>
@@ -5844,7 +5989,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B39" t="s">
         <v>393</v>
@@ -5856,7 +6001,7 @@
         <v>532</v>
       </c>
       <c r="E39" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J39" t="s">
         <v>655</v>
@@ -5864,7 +6009,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B40" t="s">
         <v>440</v>
@@ -5881,7 +6026,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B41" t="s">
         <v>430</v>
@@ -5893,7 +6038,7 @@
         <v>495</v>
       </c>
       <c r="E41" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -5904,7 +6049,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B42" t="s">
         <v>438</v>
@@ -5921,7 +6066,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B43" t="s">
         <v>151</v>
@@ -5933,7 +6078,7 @@
         <v>532</v>
       </c>
       <c r="E43" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="J43" t="s">
         <v>656</v>
@@ -5941,7 +6086,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B44" t="s">
         <v>149</v>
@@ -5958,7 +6103,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B45" t="s">
         <v>442</v>
@@ -5970,7 +6115,7 @@
         <v>532</v>
       </c>
       <c r="E45" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J45" t="s">
         <v>650</v>
@@ -5978,7 +6123,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B46" t="s">
         <v>436</v>
@@ -5995,7 +6140,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B47" t="s">
         <v>445</v>
@@ -6012,7 +6157,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B48" t="s">
         <v>63</v>
@@ -6029,7 +6174,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B49" t="s">
         <v>428</v>
@@ -6049,7 +6194,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B50" t="s">
         <v>434</v>
@@ -6066,7 +6211,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B51" t="s">
         <v>431</v>
@@ -6083,7 +6228,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -6100,7 +6245,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B53" t="s">
         <v>64</v>
@@ -6117,7 +6262,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="B54" t="s">
         <v>433</v>
@@ -6140,7 +6285,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>545</v>
+        <v>862</v>
       </c>
       <c r="B55" t="s">
         <v>478</v>
@@ -6163,7 +6308,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>545</v>
+        <v>862</v>
       </c>
       <c r="B56" t="s">
         <v>476</v>
@@ -6180,7 +6325,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>541</v>
+        <v>863</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -6203,7 +6348,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>240</v>
+        <v>864</v>
       </c>
       <c r="B58" t="s">
         <v>359</v>
@@ -6217,7 +6362,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>240</v>
+        <v>864</v>
       </c>
       <c r="B59" t="s">
         <v>248</v>
@@ -6231,7 +6376,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>864</v>
       </c>
       <c r="B60" t="s">
         <v>246</v>
@@ -6245,7 +6390,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>864</v>
       </c>
       <c r="B61" t="s">
         <v>241</v>
@@ -6262,7 +6407,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>864</v>
       </c>
       <c r="B62" t="s">
         <v>238</v>
@@ -6276,7 +6421,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>864</v>
       </c>
       <c r="C63" t="s">
         <v>728</v>
@@ -6293,7 +6438,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>864</v>
       </c>
       <c r="B64" t="s">
         <v>244</v>
@@ -6307,7 +6452,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>864</v>
       </c>
       <c r="B65" t="s">
         <v>235</v>
@@ -6321,7 +6466,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>719</v>
+        <v>865</v>
       </c>
       <c r="B66" t="s">
         <v>482</v>
@@ -6335,7 +6480,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>719</v>
+        <v>865</v>
       </c>
       <c r="B67" t="s">
         <v>484</v>
@@ -6349,7 +6494,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>719</v>
+        <v>865</v>
       </c>
       <c r="B68" t="s">
         <v>480</v>
@@ -6363,7 +6508,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>719</v>
+        <v>865</v>
       </c>
       <c r="B69" t="s">
         <v>727</v>
@@ -6383,7 +6528,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
       <c r="B70" t="s">
         <v>312</v>
@@ -6403,7 +6548,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
       <c r="B71" t="s">
         <v>313</v>
@@ -6417,7 +6562,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
       <c r="B72" t="s">
         <v>314</v>
@@ -6431,7 +6576,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>712</v>
+        <v>867</v>
       </c>
       <c r="B73" t="s">
         <v>336</v>
@@ -6443,12 +6588,12 @@
         <v>496</v>
       </c>
       <c r="E73" t="s">
-        <v>713</v>
+        <v>881</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>712</v>
+        <v>867</v>
       </c>
       <c r="B74" t="s">
         <v>76</v>
@@ -6462,7 +6607,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>712</v>
+        <v>867</v>
       </c>
       <c r="B75" t="s">
         <v>254</v>
@@ -6482,7 +6627,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>712</v>
+        <v>867</v>
       </c>
       <c r="B76" t="s">
         <v>364</v>
@@ -6494,12 +6639,12 @@
         <v>496</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B77" t="s">
         <v>423</v>
@@ -6513,7 +6658,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B78" t="s">
         <v>261</v>
@@ -6525,12 +6670,12 @@
         <v>496</v>
       </c>
       <c r="E78" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B79" t="s">
         <v>71</v>
@@ -6542,12 +6687,12 @@
         <v>496</v>
       </c>
       <c r="E79" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
@@ -6561,7 +6706,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B81" t="s">
         <v>256</v>
@@ -6573,12 +6718,12 @@
         <v>496</v>
       </c>
       <c r="E81" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
@@ -6590,12 +6735,12 @@
         <v>496</v>
       </c>
       <c r="E82" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B83" t="s">
         <v>418</v>
@@ -6609,7 +6754,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B84" t="s">
         <v>257</v>
@@ -6623,7 +6768,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B85" t="s">
         <v>420</v>
@@ -6637,7 +6782,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B86" t="s">
         <v>259</v>
@@ -6651,7 +6796,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B87" t="s">
         <v>421</v>
@@ -6665,7 +6810,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B88" t="s">
         <v>422</v>
@@ -6679,7 +6824,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B89" t="s">
         <v>271</v>
@@ -6691,12 +6836,12 @@
         <v>496</v>
       </c>
       <c r="E89" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B90" t="s">
         <v>69</v>
@@ -6716,7 +6861,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B91" t="s">
         <v>416</v>
@@ -6730,7 +6875,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B92" t="s">
         <v>310</v>
@@ -6742,12 +6887,12 @@
         <v>496</v>
       </c>
       <c r="E92" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B93" t="s">
         <v>311</v>
@@ -6759,12 +6904,12 @@
         <v>496</v>
       </c>
       <c r="E93" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B94" t="s">
         <v>269</v>
@@ -6778,7 +6923,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B95" t="s">
         <v>414</v>
@@ -6792,7 +6937,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>708</v>
+        <v>868</v>
       </c>
       <c r="B96" t="s">
         <v>415</v>
@@ -6806,7 +6951,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>869</v>
       </c>
       <c r="B97" t="s">
         <v>138</v>
@@ -6818,12 +6963,12 @@
         <v>532</v>
       </c>
       <c r="E97" t="s">
-        <v>722</v>
+        <v>877</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>75</v>
+        <v>869</v>
       </c>
       <c r="B98" t="s">
         <v>250</v>
@@ -6843,7 +6988,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>869</v>
       </c>
       <c r="B99" t="s">
         <v>139</v>
@@ -6855,12 +7000,12 @@
         <v>496</v>
       </c>
       <c r="E99" t="s">
-        <v>724</v>
+        <v>894</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>870</v>
       </c>
       <c r="B100" t="s">
         <v>163</v>
@@ -6872,7 +7017,7 @@
         <v>495</v>
       </c>
       <c r="E100" t="s">
-        <v>488</v>
+        <v>871</v>
       </c>
       <c r="J100" t="s">
         <v>59</v>
@@ -6880,7 +7025,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>870</v>
       </c>
       <c r="B101" t="s">
         <v>159</v>
@@ -6903,7 +7048,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>488</v>
+        <v>871</v>
       </c>
       <c r="B102" t="s">
         <v>318</v>
@@ -6915,7 +7060,7 @@
         <v>532</v>
       </c>
       <c r="E102" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J102" t="s">
         <v>508</v>
@@ -6923,7 +7068,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>488</v>
+        <v>871</v>
       </c>
       <c r="B103" t="s">
         <v>317</v>
@@ -6935,7 +7080,7 @@
         <v>532</v>
       </c>
       <c r="E103" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
       <c r="J103" t="s">
         <v>507</v>
@@ -6943,7 +7088,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>488</v>
+        <v>871</v>
       </c>
       <c r="B104" t="s">
         <v>314</v>
@@ -6960,7 +7105,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>488</v>
+        <v>871</v>
       </c>
       <c r="B105" t="s">
         <v>319</v>
@@ -6972,7 +7117,7 @@
         <v>532</v>
       </c>
       <c r="E105" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J105" t="s">
         <v>509</v>
@@ -6980,7 +7125,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>488</v>
+        <v>871</v>
       </c>
       <c r="B106" t="s">
         <v>315</v>
@@ -6997,7 +7142,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>488</v>
+        <v>871</v>
       </c>
       <c r="B107" t="s">
         <v>313</v>
@@ -7020,7 +7165,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>490</v>
+        <v>872</v>
       </c>
       <c r="B108" t="s">
         <v>159</v>
@@ -7032,12 +7177,12 @@
         <v>495</v>
       </c>
       <c r="E108" t="s">
-        <v>160</v>
+        <v>870</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>490</v>
+        <v>872</v>
       </c>
       <c r="B109" t="s">
         <v>158</v>
@@ -7060,7 +7205,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>490</v>
+        <v>872</v>
       </c>
       <c r="B110" t="s">
         <v>161</v>
@@ -7077,7 +7222,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B111" t="s">
         <v>291</v>
@@ -7089,7 +7234,7 @@
         <v>496</v>
       </c>
       <c r="E111" t="s">
-        <v>54</v>
+        <v>857</v>
       </c>
       <c r="J111" t="s">
         <v>590</v>
@@ -7097,7 +7242,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B112" t="s">
         <v>171</v>
@@ -7109,7 +7254,7 @@
         <v>496</v>
       </c>
       <c r="E112" t="s">
-        <v>486</v>
+        <v>874</v>
       </c>
       <c r="J112" t="s">
         <v>35</v>
@@ -7117,7 +7262,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B113" t="s">
         <v>424</v>
@@ -7134,7 +7279,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B114" t="s">
         <v>195</v>
@@ -7146,7 +7291,7 @@
         <v>532</v>
       </c>
       <c r="E114" t="s">
-        <v>533</v>
+        <v>886</v>
       </c>
       <c r="J114" t="s">
         <v>531</v>
@@ -7154,7 +7299,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B115" t="s">
         <v>285</v>
@@ -7166,7 +7311,7 @@
         <v>496</v>
       </c>
       <c r="E115" t="s">
-        <v>586</v>
+        <v>879</v>
       </c>
       <c r="J115" t="s">
         <v>585</v>
@@ -7174,7 +7319,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B116" t="s">
         <v>212</v>
@@ -7186,7 +7331,7 @@
         <v>496</v>
       </c>
       <c r="E116" t="s">
-        <v>47</v>
+        <v>856</v>
       </c>
       <c r="J116" t="s">
         <v>570</v>
@@ -7194,7 +7339,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B117" t="s">
         <v>170</v>
@@ -7206,12 +7351,12 @@
         <v>496</v>
       </c>
       <c r="E117" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B118" t="s">
         <v>266</v>
@@ -7223,7 +7368,7 @@
         <v>496</v>
       </c>
       <c r="E118" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="J118" t="s">
         <v>23</v>
@@ -7231,7 +7376,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B119" t="s">
         <v>178</v>
@@ -7243,7 +7388,7 @@
         <v>496</v>
       </c>
       <c r="E119" t="s">
-        <v>490</v>
+        <v>872</v>
       </c>
       <c r="J119" t="s">
         <v>522</v>
@@ -7251,7 +7396,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B120" t="s">
         <v>136</v>
@@ -7263,7 +7408,7 @@
         <v>496</v>
       </c>
       <c r="E120" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -7274,7 +7419,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B121" t="s">
         <v>159</v>
@@ -7286,12 +7431,12 @@
         <v>495</v>
       </c>
       <c r="E121" t="s">
-        <v>160</v>
+        <v>870</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B122" t="s">
         <v>203</v>
@@ -7308,7 +7453,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B123" t="s">
         <v>205</v>
@@ -7320,7 +7465,7 @@
         <v>496</v>
       </c>
       <c r="E123" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J123" t="s">
         <v>569</v>
@@ -7328,7 +7473,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B124" t="s">
         <v>204</v>
@@ -7345,7 +7490,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B125" t="s">
         <v>215</v>
@@ -7357,7 +7502,7 @@
         <v>496</v>
       </c>
       <c r="E125" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J125" t="s">
         <v>572</v>
@@ -7365,7 +7510,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B126" t="s">
         <v>211</v>
@@ -7377,7 +7522,7 @@
         <v>496</v>
       </c>
       <c r="E126" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J126" t="s">
         <v>50</v>
@@ -7385,7 +7530,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B127" t="s">
         <v>200</v>
@@ -7402,7 +7547,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B128" t="s">
         <v>142</v>
@@ -7414,7 +7559,7 @@
         <v>496</v>
       </c>
       <c r="E128" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -7425,7 +7570,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B129" t="s">
         <v>185</v>
@@ -7437,7 +7582,7 @@
         <v>496</v>
       </c>
       <c r="E129" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J129" t="s">
         <v>559</v>
@@ -7445,7 +7590,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B130" t="s">
         <v>197</v>
@@ -7462,7 +7607,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B131" t="s">
         <v>218</v>
@@ -7479,7 +7624,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B132" t="s">
         <v>210</v>
@@ -7496,7 +7641,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B133" t="s">
         <v>190</v>
@@ -7513,7 +7658,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B134" t="s">
         <v>173</v>
@@ -7530,7 +7675,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B135" t="s">
         <v>217</v>
@@ -7547,7 +7692,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B136" t="s">
         <v>193</v>
@@ -7564,7 +7709,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B137" t="s">
         <v>36</v>
@@ -7581,7 +7726,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B138" t="s">
         <v>206</v>
@@ -7601,7 +7746,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B139" t="s">
         <v>176</v>
@@ -7618,7 +7763,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B140" t="s">
         <v>38</v>
@@ -7635,7 +7780,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B141" t="s">
         <v>216</v>
@@ -7652,7 +7797,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B142" t="s">
         <v>202</v>
@@ -7669,7 +7814,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B143" t="s">
         <v>179</v>
@@ -7686,7 +7831,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B144" t="s">
         <v>164</v>
@@ -7703,7 +7848,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B145" t="s">
         <v>166</v>
@@ -7720,7 +7865,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B146" t="s">
         <v>174</v>
@@ -7737,7 +7882,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B147" t="s">
         <v>192</v>
@@ -7754,7 +7899,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B148" t="s">
         <v>219</v>
@@ -7771,7 +7916,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B149" t="s">
         <v>201</v>
@@ -7791,7 +7936,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B150" t="s">
         <v>188</v>
@@ -7808,7 +7953,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B151" t="s">
         <v>186</v>
@@ -7825,7 +7970,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B152" t="s">
         <v>196</v>
@@ -7842,7 +7987,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B153" t="s">
         <v>51</v>
@@ -7862,7 +8007,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B154" t="s">
         <v>191</v>
@@ -7879,7 +8024,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B155" t="s">
         <v>278</v>
@@ -7896,7 +8041,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B156" t="s">
         <v>289</v>
@@ -7913,7 +8058,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B157" t="s">
         <v>156</v>
@@ -7930,7 +8075,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B158" t="s">
         <v>183</v>
@@ -7947,7 +8092,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B159" t="s">
         <v>198</v>
@@ -7964,7 +8109,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B160" t="s">
         <v>181</v>
@@ -7981,7 +8126,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B161" t="s">
         <v>25</v>
@@ -7998,7 +8143,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B162" t="s">
         <v>168</v>
@@ -8018,7 +8163,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B163" t="s">
         <v>158</v>
@@ -8041,7 +8186,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>873</v>
       </c>
       <c r="B164" t="s">
         <v>49</v>
@@ -8058,7 +8203,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>486</v>
+        <v>874</v>
       </c>
       <c r="B165" t="s">
         <v>171</v>
@@ -8070,7 +8215,7 @@
         <v>532</v>
       </c>
       <c r="E165" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J165" t="s">
         <v>557</v>
@@ -8078,7 +8223,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>486</v>
+        <v>874</v>
       </c>
       <c r="B166" t="s">
         <v>172</v>
@@ -8090,7 +8235,7 @@
         <v>532</v>
       </c>
       <c r="E166" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J166" t="s">
         <v>558</v>
@@ -8098,7 +8243,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>486</v>
+        <v>874</v>
       </c>
       <c r="C167" t="s">
         <v>728</v>
@@ -8115,7 +8260,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="B168" t="s">
         <v>337</v>
@@ -8127,12 +8272,12 @@
         <v>496</v>
       </c>
       <c r="E168" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="B169" t="s">
         <v>284</v>
@@ -8144,12 +8289,12 @@
         <v>496</v>
       </c>
       <c r="E169" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="B170" t="s">
         <v>141</v>
@@ -8161,12 +8306,12 @@
         <v>496</v>
       </c>
       <c r="E170" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="B171" t="s">
         <v>282</v>
@@ -8180,7 +8325,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="B172" t="s">
         <v>159</v>
@@ -8192,12 +8337,12 @@
         <v>532</v>
       </c>
       <c r="E172" t="s">
-        <v>160</v>
+        <v>870</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="B173" t="s">
         <v>164</v>
@@ -8211,7 +8356,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="B174" t="s">
         <v>280</v>
@@ -8231,7 +8376,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="B175" t="s">
         <v>156</v>
@@ -8245,7 +8390,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="B176" t="s">
         <v>168</v>
@@ -8259,7 +8404,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="B177" t="s">
         <v>158</v>
@@ -8273,7 +8418,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B178" t="s">
         <v>338</v>
@@ -8287,7 +8432,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B179" t="s">
         <v>334</v>
@@ -8301,7 +8446,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B180" t="s">
         <v>335</v>
@@ -8315,7 +8460,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B181" t="s">
         <v>328</v>
@@ -8329,7 +8474,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B182" t="s">
         <v>329</v>
@@ -8343,7 +8488,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B183" t="s">
         <v>339</v>
@@ -8355,12 +8500,12 @@
         <v>532</v>
       </c>
       <c r="E183" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B184" t="s">
         <v>330</v>
@@ -8374,7 +8519,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B185" t="s">
         <v>331</v>
@@ -8388,7 +8533,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B186" t="s">
         <v>332</v>
@@ -8405,7 +8550,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B187" t="s">
         <v>333</v>
@@ -8425,7 +8570,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B188" t="s">
         <v>322</v>
@@ -8439,7 +8584,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B189" t="s">
         <v>114</v>
@@ -8451,12 +8596,12 @@
         <v>532</v>
       </c>
       <c r="E189" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B190" t="s">
         <v>324</v>
@@ -8470,7 +8615,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B191" t="s">
         <v>407</v>
@@ -8482,7 +8627,7 @@
         <v>496</v>
       </c>
       <c r="E191" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -8490,7 +8635,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="B192" t="s">
         <v>326</v>
@@ -8504,7 +8649,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>722</v>
+        <v>877</v>
       </c>
       <c r="B193" t="s">
         <v>425</v>
@@ -8516,12 +8661,12 @@
         <v>532</v>
       </c>
       <c r="E193" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>722</v>
+        <v>877</v>
       </c>
       <c r="B194" t="s">
         <v>723</v>
@@ -8533,12 +8678,12 @@
         <v>532</v>
       </c>
       <c r="E194" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>722</v>
+        <v>877</v>
       </c>
       <c r="C195" t="s">
         <v>728</v>
@@ -8555,7 +8700,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
       <c r="B196" t="s">
         <v>408</v>
@@ -8567,7 +8712,7 @@
         <v>496</v>
       </c>
       <c r="E196" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -8578,7 +8723,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
       <c r="B197" t="s">
         <v>411</v>
@@ -8595,7 +8740,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
       <c r="B198" t="s">
         <v>80</v>
@@ -8612,7 +8757,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
       <c r="B199" t="s">
         <v>78</v>
@@ -8629,7 +8774,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
       <c r="B200" t="s">
         <v>409</v>
@@ -8646,7 +8791,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
       <c r="C201" t="s">
         <v>728</v>
@@ -8666,7 +8811,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
       <c r="B202" t="s">
         <v>82</v>
@@ -8678,7 +8823,7 @@
         <v>532</v>
       </c>
       <c r="E202" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J202" t="s">
         <v>622</v>
@@ -8686,7 +8831,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>586</v>
+        <v>879</v>
       </c>
       <c r="B203" t="s">
         <v>728</v>
@@ -8706,7 +8851,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>586</v>
+        <v>879</v>
       </c>
       <c r="B204" t="s">
         <v>444</v>
@@ -8718,7 +8863,7 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J204" t="s">
         <v>588</v>
@@ -8726,7 +8871,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>586</v>
+        <v>879</v>
       </c>
       <c r="B205" t="s">
         <v>587</v>
@@ -8738,12 +8883,12 @@
         <v>532</v>
       </c>
       <c r="E205" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>586</v>
+        <v>879</v>
       </c>
       <c r="B206" t="s">
         <v>465</v>
@@ -8760,7 +8905,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>703</v>
+        <v>880</v>
       </c>
       <c r="B207" t="s">
         <v>153</v>
@@ -8772,7 +8917,7 @@
         <v>532</v>
       </c>
       <c r="E207" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J207" t="s">
         <v>704</v>
@@ -8780,7 +8925,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>703</v>
+        <v>880</v>
       </c>
       <c r="B208" t="s">
         <v>155</v>
@@ -8792,7 +8937,7 @@
         <v>496</v>
       </c>
       <c r="E208" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J208" t="s">
         <v>702</v>
@@ -8800,7 +8945,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>703</v>
+        <v>880</v>
       </c>
       <c r="C209" t="s">
         <v>728</v>
@@ -8817,7 +8962,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="1" t="s">
-        <v>713</v>
+        <v>881</v>
       </c>
       <c r="B210" t="s">
         <v>367</v>
@@ -8829,7 +8974,7 @@
         <v>496</v>
       </c>
       <c r="E210" t="s">
-        <v>664</v>
+        <v>882</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
@@ -8840,7 +8985,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="1" t="s">
-        <v>713</v>
+        <v>881</v>
       </c>
       <c r="C211" t="s">
         <v>728</v>
@@ -8857,7 +9002,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>664</v>
+        <v>882</v>
       </c>
       <c r="B212" t="s">
         <v>369</v>
@@ -8869,7 +9014,7 @@
         <v>496</v>
       </c>
       <c r="E212" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
@@ -8880,7 +9025,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>664</v>
+        <v>882</v>
       </c>
       <c r="B213" t="s">
         <v>662</v>
@@ -8892,7 +9037,7 @@
         <v>496</v>
       </c>
       <c r="E213" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -8903,7 +9048,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>664</v>
+        <v>882</v>
       </c>
       <c r="C214" t="s">
         <v>728</v>
@@ -8920,7 +9065,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>342</v>
+        <v>883</v>
       </c>
       <c r="B215" t="s">
         <v>343</v>
@@ -8932,12 +9077,12 @@
         <v>532</v>
       </c>
       <c r="E215" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>342</v>
+        <v>883</v>
       </c>
       <c r="C216" t="s">
         <v>728</v>
@@ -8954,7 +9099,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>342</v>
+        <v>883</v>
       </c>
       <c r="B217" t="s">
         <v>342</v>
@@ -8968,7 +9113,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B218" t="s">
         <v>154</v>
@@ -8980,12 +9125,12 @@
         <v>532</v>
       </c>
       <c r="E218" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B219" t="s">
         <v>243</v>
@@ -8999,7 +9144,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B220" t="s">
         <v>237</v>
@@ -9013,7 +9158,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B221" t="s">
         <v>355</v>
@@ -9027,7 +9172,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B222" t="s">
         <v>359</v>
@@ -9041,7 +9186,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B223" t="s">
         <v>347</v>
@@ -9055,7 +9200,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B224" t="s">
         <v>349</v>
@@ -9069,7 +9214,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B225" t="s">
         <v>426</v>
@@ -9083,7 +9228,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B226" t="s">
         <v>357</v>
@@ -9095,12 +9240,12 @@
         <v>496</v>
       </c>
       <c r="E226" t="s">
-        <v>240</v>
+        <v>864</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B227" t="s">
         <v>351</v>
@@ -9114,7 +9259,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="B228" t="s">
         <v>353</v>
@@ -9128,7 +9273,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="C229" t="s">
         <v>728</v>
@@ -9145,7 +9290,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>714</v>
+        <v>885</v>
       </c>
       <c r="B230" t="s">
         <v>372</v>
@@ -9165,7 +9310,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>714</v>
+        <v>885</v>
       </c>
       <c r="B231" t="s">
         <v>386</v>
@@ -9177,12 +9322,12 @@
         <v>496</v>
       </c>
       <c r="E231" t="s">
-        <v>675</v>
+        <v>895</v>
       </c>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>714</v>
+        <v>885</v>
       </c>
       <c r="B232" t="s">
         <v>715</v>
@@ -9194,12 +9339,12 @@
         <v>532</v>
       </c>
       <c r="E232" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>533</v>
+        <v>886</v>
       </c>
       <c r="B233" t="s">
         <v>458</v>
@@ -9211,7 +9356,7 @@
         <v>496</v>
       </c>
       <c r="E233" t="s">
-        <v>545</v>
+        <v>862</v>
       </c>
       <c r="J233" t="s">
         <v>544</v>
@@ -9219,7 +9364,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>533</v>
+        <v>886</v>
       </c>
       <c r="B234" t="s">
         <v>151</v>
@@ -9231,7 +9376,7 @@
         <v>496</v>
       </c>
       <c r="E234" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
@@ -9242,7 +9387,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>533</v>
+        <v>886</v>
       </c>
       <c r="B235" t="s">
         <v>252</v>
@@ -9259,7 +9404,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>533</v>
+        <v>886</v>
       </c>
       <c r="B236" t="s">
         <v>457</v>
@@ -9271,7 +9416,7 @@
         <v>496</v>
       </c>
       <c r="E236" t="s">
-        <v>541</v>
+        <v>863</v>
       </c>
       <c r="J236" t="s">
         <v>542</v>
@@ -9279,7 +9424,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>533</v>
+        <v>886</v>
       </c>
       <c r="B237" t="s">
         <v>250</v>
@@ -9302,7 +9447,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>533</v>
+        <v>886</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>455</v>
@@ -9319,7 +9464,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>533</v>
+        <v>886</v>
       </c>
       <c r="B239" t="s">
         <v>459</v>
@@ -9331,12 +9476,12 @@
         <v>496</v>
       </c>
       <c r="E239" t="s">
-        <v>548</v>
+        <v>900</v>
       </c>
     </row>
     <row r="240" spans="1:10">
-      <c r="A240" t="s">
-        <v>533</v>
+      <c r="A240" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="B240" t="s">
         <v>460</v>
@@ -9348,7 +9493,7 @@
         <v>496</v>
       </c>
       <c r="E240" t="s">
-        <v>551</v>
+        <v>901</v>
       </c>
       <c r="J240" t="s">
         <v>550</v>
@@ -9356,7 +9501,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="B241" t="s">
         <v>147</v>
@@ -9376,7 +9521,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="B242" t="s">
         <v>145</v>
@@ -9390,7 +9535,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="B243" t="s">
         <v>449</v>
@@ -9407,7 +9552,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="B244" t="s">
         <v>149</v>
@@ -9424,7 +9569,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="B245" t="s">
         <v>474</v>
@@ -9441,7 +9586,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
       <c r="B246" t="s">
         <v>728</v>
@@ -9461,7 +9606,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
       <c r="B247" t="s">
         <v>476</v>
@@ -9475,7 +9620,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
       <c r="B248" t="s">
         <v>74</v>
@@ -9489,7 +9634,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
       <c r="B249" t="s">
         <v>453</v>
@@ -9503,7 +9648,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
       <c r="B250" t="s">
         <v>72</v>
@@ -9517,7 +9662,7 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
       <c r="B251" t="s">
         <v>715</v>
@@ -9529,12 +9674,12 @@
         <v>532</v>
       </c>
       <c r="E251" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
       <c r="B252" t="s">
         <v>451</v>
@@ -9548,7 +9693,7 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
       <c r="B253" t="s">
         <v>478</v>
@@ -9562,7 +9707,7 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B254" t="s">
         <v>404</v>
@@ -9574,7 +9719,7 @@
         <v>496</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="F254" t="b">
         <v>0</v>
@@ -9582,7 +9727,7 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B255" t="s">
         <v>396</v>
@@ -9596,7 +9741,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B256" t="s">
         <v>264</v>
@@ -9608,12 +9753,12 @@
         <v>496</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B257" t="s">
         <v>262</v>
@@ -9627,7 +9772,7 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B258" t="s">
         <v>398</v>
@@ -9641,7 +9786,7 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B259" t="s">
         <v>413</v>
@@ -9655,7 +9800,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B260" t="s">
         <v>397</v>
@@ -9672,7 +9817,7 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B261" t="s">
         <v>399</v>
@@ -9686,7 +9831,7 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B262" t="s">
         <v>405</v>
@@ -9700,7 +9845,7 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B263" t="s">
         <v>136</v>
@@ -9712,12 +9857,12 @@
         <v>496</v>
       </c>
       <c r="E263" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B264" t="s">
         <v>406</v>
@@ -9729,12 +9874,12 @@
         <v>496</v>
       </c>
       <c r="E264" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B265" t="s">
         <v>394</v>
@@ -9754,7 +9899,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B266" t="s">
         <v>400</v>
@@ -9768,7 +9913,7 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B267" t="s">
         <v>402</v>
@@ -9782,7 +9927,7 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B268" t="s">
         <v>250</v>
@@ -9796,7 +9941,7 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B269" t="s">
         <v>65</v>
@@ -9810,7 +9955,7 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>706</v>
+        <v>889</v>
       </c>
       <c r="B270" t="s">
         <v>67</v>
@@ -9824,7 +9969,7 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B271" t="s">
         <v>304</v>
@@ -9836,7 +9981,7 @@
         <v>496</v>
       </c>
       <c r="E271" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
       <c r="J271" t="s">
         <v>637</v>
@@ -9844,7 +9989,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B272" t="s">
         <v>366</v>
@@ -9861,7 +10006,7 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B273" t="s">
         <v>300</v>
@@ -9878,7 +10023,7 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B274" t="s">
         <v>299</v>
@@ -9892,7 +10037,7 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B275" t="s">
         <v>295</v>
@@ -9909,7 +10054,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B276" t="s">
         <v>296</v>
@@ -9926,7 +10071,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B277" t="s">
         <v>306</v>
@@ -9943,7 +10088,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B278" t="s">
         <v>297</v>
@@ -9960,7 +10105,7 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B279" t="s">
         <v>298</v>
@@ -9977,7 +10122,7 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B280" t="s">
         <v>309</v>
@@ -9997,7 +10142,7 @@
     </row>
     <row r="281" spans="1:10" ht="16" customHeight="1">
       <c r="A281" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B281" t="s">
         <v>301</v>
@@ -10009,7 +10154,7 @@
         <v>496</v>
       </c>
       <c r="E281" t="s">
-        <v>640</v>
+        <v>891</v>
       </c>
       <c r="F281" t="b">
         <v>0</v>
@@ -10020,7 +10165,7 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B282" t="s">
         <v>302</v>
@@ -10043,7 +10188,7 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B283" t="s">
         <v>294</v>
@@ -10060,7 +10205,7 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B284" t="s">
         <v>265</v>
@@ -10077,7 +10222,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B285" t="s">
         <v>305</v>
@@ -10094,7 +10239,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B286" t="s">
         <v>307</v>
@@ -10111,7 +10256,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B287" t="s">
         <v>76</v>
@@ -10128,7 +10273,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="B288" t="s">
         <v>208</v>
@@ -10145,7 +10290,7 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>640</v>
+        <v>891</v>
       </c>
       <c r="C289" t="s">
         <v>728</v>
@@ -10163,7 +10308,7 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>640</v>
+        <v>891</v>
       </c>
       <c r="B290" t="s">
         <v>301</v>
@@ -10175,7 +10320,7 @@
         <v>496</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>713</v>
+        <v>881</v>
       </c>
       <c r="J290" t="s">
         <v>641</v>
@@ -10183,7 +10328,7 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B291" t="s">
         <v>421</v>
@@ -10203,7 +10348,7 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B292" t="s">
         <v>422</v>
@@ -10217,7 +10362,7 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B293" t="s">
         <v>300</v>
@@ -10231,7 +10376,7 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B294" t="s">
         <v>301</v>
@@ -10243,12 +10388,12 @@
         <v>496</v>
       </c>
       <c r="E294" t="s">
-        <v>664</v>
+        <v>882</v>
       </c>
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B295" t="s">
         <v>71</v>
@@ -10260,12 +10405,12 @@
         <v>532</v>
       </c>
       <c r="E295" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B296" t="s">
         <v>264</v>
@@ -10277,12 +10422,12 @@
         <v>532</v>
       </c>
       <c r="E296" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B297" t="s">
         <v>310</v>
@@ -10294,12 +10439,12 @@
         <v>532</v>
       </c>
       <c r="E297" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B298" t="s">
         <v>311</v>
@@ -10311,12 +10456,12 @@
         <v>532</v>
       </c>
       <c r="E298" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B299" t="s">
         <v>262</v>
@@ -10330,7 +10475,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B300" t="s">
         <v>302</v>
@@ -10344,7 +10489,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B301" t="s">
         <v>136</v>
@@ -10356,12 +10501,12 @@
         <v>532</v>
       </c>
       <c r="E301" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B302" t="s">
         <v>394</v>
@@ -10375,7 +10520,7 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B303" t="s">
         <v>250</v>
@@ -10389,7 +10534,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>710</v>
+        <v>892</v>
       </c>
       <c r="B304" t="s">
         <v>69</v>
@@ -10403,7 +10548,7 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B305" t="s">
         <v>321</v>
@@ -10415,12 +10560,12 @@
         <v>496</v>
       </c>
       <c r="E305" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B306" t="s">
         <v>125</v>
@@ -10432,12 +10577,12 @@
         <v>496</v>
       </c>
       <c r="E306" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B307" t="s">
         <v>143</v>
@@ -10449,12 +10594,12 @@
         <v>496</v>
       </c>
       <c r="E307" t="s">
-        <v>714</v>
+        <v>885</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B308" t="s">
         <v>130</v>
@@ -10466,12 +10611,12 @@
         <v>496</v>
       </c>
       <c r="E308" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B309" t="s">
         <v>118</v>
@@ -10483,12 +10628,12 @@
         <v>532</v>
       </c>
       <c r="E309" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B310" t="s">
         <v>123</v>
@@ -10502,7 +10647,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B311" t="s">
         <v>252</v>
@@ -10522,7 +10667,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B312" t="s">
         <v>116</v>
@@ -10536,7 +10681,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B313" t="s">
         <v>447</v>
@@ -10550,7 +10695,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B314" t="s">
         <v>72</v>
@@ -10564,7 +10709,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B315" t="s">
         <v>128</v>
@@ -10578,7 +10723,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>14</v>
+        <v>893</v>
       </c>
       <c r="B316" t="s">
         <v>236</v>
@@ -10592,7 +10737,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>724</v>
+        <v>894</v>
       </c>
       <c r="B317" t="s">
         <v>151</v>
@@ -10604,12 +10749,12 @@
         <v>496</v>
       </c>
       <c r="E317" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>724</v>
+        <v>894</v>
       </c>
       <c r="B318" t="s">
         <v>252</v>
@@ -10629,7 +10774,7 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>675</v>
+        <v>895</v>
       </c>
       <c r="B319" t="s">
         <v>728</v>
@@ -10649,7 +10794,7 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>675</v>
+        <v>895</v>
       </c>
       <c r="B320" t="s">
         <v>386</v>
@@ -10661,7 +10806,7 @@
         <v>496</v>
       </c>
       <c r="E320" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
       <c r="F320" t="b">
         <v>0</v>
@@ -10672,7 +10817,7 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>675</v>
+        <v>895</v>
       </c>
       <c r="B321" t="s">
         <v>375</v>
@@ -10684,7 +10829,7 @@
         <v>496</v>
       </c>
       <c r="E321" t="s">
-        <v>373</v>
+        <v>860</v>
       </c>
       <c r="J321" t="s">
         <v>678</v>
@@ -10692,7 +10837,7 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>675</v>
+        <v>895</v>
       </c>
       <c r="B322" t="s">
         <v>381</v>
@@ -10704,7 +10849,7 @@
         <v>496</v>
       </c>
       <c r="E322" t="s">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="F322" t="b">
         <v>0</v>
@@ -10715,7 +10860,7 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>675</v>
+        <v>895</v>
       </c>
       <c r="B323" t="s">
         <v>372</v>
@@ -10727,7 +10872,7 @@
         <v>532</v>
       </c>
       <c r="E323" t="s">
-        <v>373</v>
+        <v>860</v>
       </c>
       <c r="F323" t="b">
         <v>0</v>
@@ -10738,7 +10883,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>675</v>
+        <v>895</v>
       </c>
       <c r="B324" t="s">
         <v>377</v>
@@ -10750,7 +10895,7 @@
         <v>532</v>
       </c>
       <c r="E324" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J324" t="s">
         <v>679</v>
@@ -10758,7 +10903,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>675</v>
+        <v>895</v>
       </c>
       <c r="B325" t="s">
         <v>379</v>
@@ -10775,7 +10920,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
       <c r="B326" t="s">
         <v>388</v>
@@ -10787,7 +10932,7 @@
         <v>496</v>
       </c>
       <c r="E326" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
       <c r="J326" t="s">
         <v>695</v>
@@ -10795,7 +10940,7 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
       <c r="B327" t="s">
         <v>153</v>
@@ -10807,7 +10952,7 @@
         <v>496</v>
       </c>
       <c r="E327" t="s">
-        <v>703</v>
+        <v>880</v>
       </c>
       <c r="J327" t="s">
         <v>701</v>
@@ -10815,7 +10960,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
       <c r="B328" t="s">
         <v>392</v>
@@ -10827,7 +10972,7 @@
         <v>496</v>
       </c>
       <c r="E328" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="J328" t="s">
         <v>705</v>
@@ -10835,7 +10980,7 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
       <c r="B329" t="s">
         <v>390</v>
@@ -10852,7 +10997,7 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
       <c r="B330" t="s">
         <v>391</v>
@@ -10864,7 +11009,7 @@
         <v>496</v>
       </c>
       <c r="E330" t="s">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="F330" t="b">
         <v>0</v>
@@ -10875,7 +11020,7 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
       <c r="B331" t="s">
         <v>385</v>
@@ -10887,7 +11032,7 @@
         <v>532</v>
       </c>
       <c r="E331" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J331" t="s">
         <v>697</v>
@@ -10895,7 +11040,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
       <c r="B332" t="s">
         <v>389</v>
@@ -10912,7 +11057,7 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
       <c r="B333" t="s">
         <v>383</v>
@@ -10929,7 +11074,7 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
       <c r="B334" t="s">
         <v>384</v>
@@ -10952,7 +11097,7 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B335" t="s">
         <v>127</v>
@@ -10964,12 +11109,12 @@
         <v>532</v>
       </c>
       <c r="E335" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B336" t="s">
         <v>89</v>
@@ -10981,12 +11126,12 @@
         <v>532</v>
       </c>
       <c r="E336" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B337" t="s">
         <v>122</v>
@@ -10998,12 +11143,12 @@
         <v>496</v>
       </c>
       <c r="E337" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B338" t="s">
         <v>407</v>
@@ -11015,12 +11160,12 @@
         <v>496</v>
       </c>
       <c r="E338" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B339" t="s">
         <v>71</v>
@@ -11032,12 +11177,12 @@
         <v>532</v>
       </c>
       <c r="E339" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B340" t="s">
         <v>261</v>
@@ -11049,12 +11194,12 @@
         <v>532</v>
       </c>
       <c r="E340" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B341" t="s">
         <v>126</v>
@@ -11068,7 +11213,7 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B342" t="s">
         <v>84</v>
@@ -11082,7 +11227,7 @@
     </row>
     <row r="343" spans="1:7">
       <c r="A343" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B343" t="s">
         <v>114</v>
@@ -11094,12 +11239,12 @@
         <v>496</v>
       </c>
       <c r="E343" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B344" t="s">
         <v>120</v>
@@ -11113,7 +11258,7 @@
     </row>
     <row r="345" spans="1:7">
       <c r="A345" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B345" t="s">
         <v>250</v>
@@ -11133,7 +11278,7 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B346" t="s">
         <v>112</v>
@@ -11147,7 +11292,7 @@
     </row>
     <row r="347" spans="1:7">
       <c r="A347" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B347" t="s">
         <v>69</v>
@@ -11161,7 +11306,7 @@
     </row>
     <row r="348" spans="1:7">
       <c r="A348" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B348" t="s">
         <v>65</v>
@@ -11175,7 +11320,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B349" t="s">
         <v>67</v>
@@ -11189,7 +11334,7 @@
     </row>
     <row r="350" spans="1:7">
       <c r="A350" t="s">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="B350" t="s">
         <v>254</v>
@@ -11203,7 +11348,7 @@
     </row>
     <row r="351" spans="1:7">
       <c r="A351" t="s">
-        <v>720</v>
+        <v>898</v>
       </c>
       <c r="B351" t="s">
         <v>345</v>
@@ -11215,12 +11360,12 @@
         <v>532</v>
       </c>
       <c r="E351" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" t="s">
-        <v>720</v>
+        <v>898</v>
       </c>
       <c r="C352" t="s">
         <v>728</v>
@@ -11237,7 +11382,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
-        <v>720</v>
+        <v>898</v>
       </c>
       <c r="B353" t="s">
         <v>340</v>
@@ -11249,12 +11394,12 @@
         <v>496</v>
       </c>
       <c r="E353" t="s">
-        <v>342</v>
+        <v>883</v>
       </c>
     </row>
     <row r="354" spans="1:10">
       <c r="A354" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B354" t="s">
         <v>89</v>
@@ -11266,7 +11411,7 @@
         <v>496</v>
       </c>
       <c r="E354" t="s">
-        <v>616</v>
+        <v>878</v>
       </c>
       <c r="J354" t="s">
         <v>615</v>
@@ -11274,7 +11419,7 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B355" t="s">
         <v>320</v>
@@ -11286,7 +11431,7 @@
         <v>496</v>
       </c>
       <c r="E355" t="s">
-        <v>629</v>
+        <v>890</v>
       </c>
       <c r="J355" t="s">
         <v>628</v>
@@ -11294,7 +11439,7 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B356" t="s">
         <v>88</v>
@@ -11311,7 +11456,7 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B357" t="s">
         <v>284</v>
@@ -11323,7 +11468,7 @@
         <v>532</v>
       </c>
       <c r="E357" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
       <c r="J357" t="s">
         <v>605</v>
@@ -11331,7 +11476,7 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B358" t="s">
         <v>134</v>
@@ -11343,7 +11488,7 @@
         <v>496</v>
       </c>
       <c r="E358" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="F358" t="b">
         <v>0</v>
@@ -11354,7 +11499,7 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B359" t="s">
         <v>132</v>
@@ -11371,7 +11516,7 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B360" t="s">
         <v>371</v>
@@ -11383,7 +11528,7 @@
         <v>496</v>
       </c>
       <c r="E360" t="s">
-        <v>675</v>
+        <v>895</v>
       </c>
       <c r="J360" t="s">
         <v>674</v>
@@ -11391,7 +11536,7 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B361" t="s">
         <v>271</v>
@@ -11403,7 +11548,7 @@
         <v>532</v>
       </c>
       <c r="E361" t="s">
-        <v>489</v>
+        <v>866</v>
       </c>
       <c r="J361" t="s">
         <v>603</v>
@@ -11411,7 +11556,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B362" t="s">
         <v>288</v>
@@ -11428,7 +11573,7 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B363" t="s">
         <v>141</v>
@@ -11440,7 +11585,7 @@
         <v>532</v>
       </c>
       <c r="E363" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="F363" t="b">
         <v>0</v>
@@ -11451,7 +11596,7 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B364" t="s">
         <v>282</v>
@@ -11468,7 +11613,7 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B365" t="s">
         <v>86</v>
@@ -11485,7 +11630,7 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B366" t="s">
         <v>136</v>
@@ -11497,7 +11642,7 @@
         <v>496</v>
       </c>
       <c r="E366" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
       <c r="F366" t="b">
         <v>0</v>
@@ -11508,7 +11653,7 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B367" t="s">
         <v>82</v>
@@ -11520,7 +11665,7 @@
         <v>532</v>
       </c>
       <c r="E367" t="s">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="J367" t="s">
         <v>601</v>
@@ -11528,7 +11673,7 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B368" t="s">
         <v>286</v>
@@ -11545,7 +11690,7 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B369" t="s">
         <v>84</v>
@@ -11562,7 +11707,7 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B370" t="s">
         <v>80</v>
@@ -11579,7 +11724,7 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B371" t="s">
         <v>272</v>
@@ -11596,7 +11741,7 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B372" t="s">
         <v>280</v>
@@ -11613,7 +11758,7 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B373" t="s">
         <v>78</v>
@@ -11630,7 +11775,7 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B374" t="s">
         <v>267</v>
@@ -11650,7 +11795,7 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B375" t="s">
         <v>292</v>
@@ -11667,7 +11812,7 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B376" t="s">
         <v>274</v>
@@ -11684,7 +11829,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B377" t="s">
         <v>276</v>
@@ -11701,7 +11846,7 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378" t="s">
-        <v>15</v>
+        <v>899</v>
       </c>
       <c r="B378" t="s">
         <v>269</v>
@@ -11724,7 +11869,7 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379" t="s">
-        <v>548</v>
+        <v>900</v>
       </c>
       <c r="B379" t="s">
         <v>451</v>
@@ -11747,7 +11892,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380" t="s">
-        <v>551</v>
+        <v>901</v>
       </c>
       <c r="B380" t="s">
         <v>461</v>
@@ -11767,7 +11912,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381" t="s">
-        <v>551</v>
+        <v>901</v>
       </c>
       <c r="B381" t="s">
         <v>463</v>
@@ -11800,7 +11945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="30040" windowHeight="17600" tabRatio="951" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="32580" windowHeight="20540" tabRatio="951" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="901">
   <si>
     <t>description</t>
   </si>
@@ -1570,9 +1570,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>compound</t>
   </si>
   <si>
     <t>mref</t>
@@ -2867,7 +2864,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="719">
+  <cellStyleXfs count="721">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3512,6 +3509,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3599,7 +3598,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="719">
+  <cellStyles count="721">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4087,6 +4086,7 @@
     <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4318,6 +4318,7 @@
     <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4667,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45">
@@ -4675,10 +4676,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C2" t="s">
         <v>853</v>
-      </c>
-      <c r="C2" t="s">
-        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -4720,12 +4721,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -4769,7 +4770,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -4791,7 +4792,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -4802,7 +4803,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -4813,7 +4814,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -4835,7 +4836,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -4855,12 +4856,12 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -4871,7 +4872,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -4951,7 +4952,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -4962,7 +4963,7 @@
     </row>
     <row r="23" spans="1:4" ht="90">
       <c r="A23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -4976,7 +4977,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4987,7 +4988,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -4998,7 +4999,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -5009,7 +5010,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -5020,7 +5021,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -5031,7 +5032,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -5053,7 +5054,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -5064,7 +5065,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -5075,7 +5076,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -5086,7 +5087,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -5097,7 +5098,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -5108,7 +5109,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -5119,7 +5120,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -5130,7 +5131,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -5141,7 +5142,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -5166,7 +5167,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -5177,7 +5178,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -5188,7 +5189,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -5213,7 +5214,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -5238,7 +5239,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -5249,7 +5250,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -5274,8 +5275,8 @@
   <dimension ref="A1:J381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5313,7 +5314,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -5324,64 +5325,64 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B2" t="s">
         <v>363</v>
       </c>
       <c r="C2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B3" t="s">
         <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B4" t="s">
         <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5392,7 +5393,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B6" t="s">
         <v>213</v>
@@ -5410,12 +5411,12 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B7" t="s">
         <v>225</v>
@@ -5427,12 +5428,12 @@
         <v>491</v>
       </c>
       <c r="J7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B8" t="s">
         <v>221</v>
@@ -5449,7 +5450,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B9" t="s">
         <v>223</v>
@@ -5461,12 +5462,12 @@
         <v>491</v>
       </c>
       <c r="J9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B10" t="s">
         <v>231</v>
@@ -5478,12 +5479,12 @@
         <v>491</v>
       </c>
       <c r="J10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B11" t="s">
         <v>229</v>
@@ -5495,12 +5496,12 @@
         <v>491</v>
       </c>
       <c r="J11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B12" t="s">
         <v>227</v>
@@ -5512,18 +5513,18 @@
         <v>491</v>
       </c>
       <c r="J12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5537,7 +5538,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B14" t="s">
         <v>233</v>
@@ -5549,12 +5550,12 @@
         <v>491</v>
       </c>
       <c r="J14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
@@ -5566,12 +5567,12 @@
         <v>491</v>
       </c>
       <c r="J15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B16" t="s">
         <v>104</v>
@@ -5583,12 +5584,12 @@
         <v>493</v>
       </c>
       <c r="J16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
@@ -5600,12 +5601,12 @@
         <v>492</v>
       </c>
       <c r="J17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B18" t="s">
         <v>92</v>
@@ -5620,12 +5621,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B19" t="s">
         <v>94</v>
@@ -5637,12 +5638,12 @@
         <v>491</v>
       </c>
       <c r="J19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
@@ -5654,12 +5655,12 @@
         <v>492</v>
       </c>
       <c r="J20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -5671,12 +5672,12 @@
         <v>491</v>
       </c>
       <c r="J21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B22" t="s">
         <v>98</v>
@@ -5688,12 +5689,12 @@
         <v>491</v>
       </c>
       <c r="J22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B23" t="s">
         <v>96</v>
@@ -5708,12 +5709,12 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B24" t="s">
         <v>110</v>
@@ -5725,12 +5726,12 @@
         <v>491</v>
       </c>
       <c r="J24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B25" t="s">
         <v>90</v>
@@ -5748,154 +5749,154 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B26" t="s">
         <v>467</v>
       </c>
       <c r="C26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D26" t="s">
         <v>495</v>
       </c>
       <c r="E26" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B27" t="s">
         <v>468</v>
       </c>
       <c r="C27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B28" t="s">
         <v>472</v>
       </c>
       <c r="C28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B29" t="s">
         <v>470</v>
       </c>
       <c r="C29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H29" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B30" t="s">
         <v>471</v>
       </c>
       <c r="C30" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B31" t="s">
         <v>469</v>
       </c>
       <c r="C31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J31" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B32" t="s">
         <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D32" t="s">
         <v>491</v>
       </c>
       <c r="J32" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B33" t="s">
         <v>473</v>
       </c>
       <c r="C33" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D33" t="s">
         <v>491</v>
       </c>
       <c r="J33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -5907,18 +5908,18 @@
         <v>491</v>
       </c>
       <c r="J34" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -5929,27 +5930,27 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B36" t="s">
         <v>374</v>
       </c>
       <c r="C36" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E36" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B37" t="s">
         <v>372</v>
@@ -5967,12 +5968,12 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B38" t="s">
         <v>474</v>
@@ -5981,35 +5982,35 @@
         <v>475</v>
       </c>
       <c r="D38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B39" t="s">
         <v>393</v>
       </c>
       <c r="C39" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E39" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J39" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B40" t="s">
         <v>440</v>
@@ -6018,38 +6019,38 @@
         <v>441</v>
       </c>
       <c r="D40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B41" t="s">
         <v>430</v>
       </c>
       <c r="C41" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D41" t="s">
         <v>495</v>
       </c>
       <c r="E41" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B42" t="s">
         <v>438</v>
@@ -6058,15 +6059,15 @@
         <v>439</v>
       </c>
       <c r="D42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B43" t="s">
         <v>151</v>
@@ -6075,18 +6076,18 @@
         <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E43" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J43" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B44" t="s">
         <v>149</v>
@@ -6095,15 +6096,15 @@
         <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J44" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B45" t="s">
         <v>442</v>
@@ -6112,18 +6113,18 @@
         <v>443</v>
       </c>
       <c r="D45" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E45" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J45" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B46" t="s">
         <v>436</v>
@@ -6132,15 +6133,15 @@
         <v>437</v>
       </c>
       <c r="D46" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J46" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B47" t="s">
         <v>445</v>
@@ -6149,15 +6150,15 @@
         <v>446</v>
       </c>
       <c r="D47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J47" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B48" t="s">
         <v>63</v>
@@ -6169,12 +6170,12 @@
         <v>491</v>
       </c>
       <c r="J48" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B49" t="s">
         <v>428</v>
@@ -6183,18 +6184,18 @@
         <v>429</v>
       </c>
       <c r="D49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B50" t="s">
         <v>434</v>
@@ -6206,12 +6207,12 @@
         <v>494</v>
       </c>
       <c r="J50" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B51" t="s">
         <v>431</v>
@@ -6223,12 +6224,12 @@
         <v>492</v>
       </c>
       <c r="J51" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -6237,15 +6238,15 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B53" t="s">
         <v>64</v>
@@ -6257,12 +6258,12 @@
         <v>492</v>
       </c>
       <c r="J53" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B54" t="s">
         <v>433</v>
@@ -6280,12 +6281,12 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B55" t="s">
         <v>478</v>
@@ -6303,12 +6304,12 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B56" t="s">
         <v>476</v>
@@ -6320,12 +6321,12 @@
         <v>491</v>
       </c>
       <c r="J56" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -6343,12 +6344,12 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B58" t="s">
         <v>359</v>
@@ -6362,7 +6363,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B59" t="s">
         <v>248</v>
@@ -6371,12 +6372,12 @@
         <v>249</v>
       </c>
       <c r="D59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B60" t="s">
         <v>246</v>
@@ -6390,7 +6391,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B61" t="s">
         <v>241</v>
@@ -6399,15 +6400,15 @@
         <v>242</v>
       </c>
       <c r="D61" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H61" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B62" t="s">
         <v>238</v>
@@ -6416,18 +6417,18 @@
         <v>239</v>
       </c>
       <c r="D62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C63" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D63" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -6438,7 +6439,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B64" t="s">
         <v>244</v>
@@ -6452,7 +6453,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B65" t="s">
         <v>235</v>
@@ -6461,12 +6462,12 @@
         <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B66" t="s">
         <v>482</v>
@@ -6480,7 +6481,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B67" t="s">
         <v>484</v>
@@ -6489,12 +6490,12 @@
         <v>485</v>
       </c>
       <c r="D67" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B68" t="s">
         <v>480</v>
@@ -6508,16 +6509,16 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B69" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C69" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D69" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -6528,7 +6529,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B70" t="s">
         <v>312</v>
@@ -6548,7 +6549,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B71" t="s">
         <v>313</v>
@@ -6562,7 +6563,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B72" t="s">
         <v>314</v>
@@ -6576,24 +6577,24 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B73" t="s">
         <v>336</v>
       </c>
       <c r="C73" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D73" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E73" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B74" t="s">
         <v>76</v>
@@ -6607,7 +6608,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B75" t="s">
         <v>254</v>
@@ -6627,7 +6628,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B76" t="s">
         <v>364</v>
@@ -6636,21 +6637,21 @@
         <v>365</v>
       </c>
       <c r="D76" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E76" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B77" t="s">
         <v>423</v>
       </c>
       <c r="C77" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D77" t="s">
         <v>494</v>
@@ -6658,41 +6659,41 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B78" t="s">
         <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D78" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E78" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B79" t="s">
         <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D79" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E79" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
@@ -6706,41 +6707,41 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B81" t="s">
         <v>256</v>
       </c>
       <c r="C81" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D81" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E81" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D82" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E82" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B83" t="s">
         <v>418</v>
@@ -6754,7 +6755,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B84" t="s">
         <v>257</v>
@@ -6768,13 +6769,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B85" t="s">
         <v>420</v>
       </c>
       <c r="C85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D85" t="s">
         <v>491</v>
@@ -6782,7 +6783,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B86" t="s">
         <v>259</v>
@@ -6796,13 +6797,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B87" t="s">
         <v>421</v>
       </c>
       <c r="C87" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D87" t="s">
         <v>491</v>
@@ -6810,13 +6811,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B88" t="s">
         <v>422</v>
       </c>
       <c r="C88" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D88" t="s">
         <v>491</v>
@@ -6824,24 +6825,24 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B89" t="s">
         <v>271</v>
       </c>
       <c r="C89" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D89" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B90" t="s">
         <v>69</v>
@@ -6861,7 +6862,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B91" t="s">
         <v>416</v>
@@ -6875,41 +6876,41 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B92" t="s">
         <v>310</v>
       </c>
       <c r="C92" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D92" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E92" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B93" t="s">
         <v>311</v>
       </c>
       <c r="C93" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D93" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E93" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B94" t="s">
         <v>269</v>
@@ -6923,27 +6924,27 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B95" t="s">
         <v>414</v>
       </c>
       <c r="C95" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D95" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B96" t="s">
         <v>415</v>
       </c>
       <c r="C96" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D96" t="s">
         <v>492</v>
@@ -6951,24 +6952,24 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B97" t="s">
         <v>138</v>
       </c>
       <c r="C97" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D97" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E97" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B98" t="s">
         <v>250</v>
@@ -6988,7 +6989,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B99" t="s">
         <v>139</v>
@@ -6997,27 +6998,27 @@
         <v>140</v>
       </c>
       <c r="D99" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E99" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B100" t="s">
         <v>163</v>
       </c>
       <c r="C100" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D100" t="s">
         <v>495</v>
       </c>
       <c r="E100" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J100" t="s">
         <v>59</v>
@@ -7025,7 +7026,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B101" t="s">
         <v>159</v>
@@ -7048,47 +7049,47 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B102" t="s">
         <v>318</v>
       </c>
       <c r="C102" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D102" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E102" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J102" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B103" t="s">
         <v>317</v>
       </c>
       <c r="C103" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D103" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E103" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J103" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B104" t="s">
         <v>314</v>
@@ -7100,32 +7101,32 @@
         <v>491</v>
       </c>
       <c r="J104" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B105" t="s">
         <v>319</v>
       </c>
       <c r="C105" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D105" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E105" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J105" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B106" t="s">
         <v>315</v>
@@ -7137,12 +7138,12 @@
         <v>491</v>
       </c>
       <c r="J106" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B107" t="s">
         <v>313</v>
@@ -7160,12 +7161,12 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B108" t="s">
         <v>159</v>
@@ -7177,12 +7178,12 @@
         <v>495</v>
       </c>
       <c r="E108" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B109" t="s">
         <v>158</v>
@@ -7200,12 +7201,12 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B110" t="s">
         <v>161</v>
@@ -7214,15 +7215,15 @@
         <v>162</v>
       </c>
       <c r="D110" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H110" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B111" t="s">
         <v>291</v>
@@ -7231,30 +7232,30 @@
         <v>54</v>
       </c>
       <c r="D111" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E111" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J111" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B112" t="s">
         <v>171</v>
       </c>
       <c r="C112" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D112" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E112" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J112" t="s">
         <v>35</v>
@@ -7262,64 +7263,64 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B113" t="s">
         <v>424</v>
       </c>
       <c r="C113" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D113" t="s">
         <v>491</v>
       </c>
       <c r="J113" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B114" t="s">
         <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D114" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E114" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J114" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B115" t="s">
         <v>285</v>
       </c>
       <c r="C115" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D115" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E115" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J115" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B116" t="s">
         <v>212</v>
@@ -7328,47 +7329,47 @@
         <v>47</v>
       </c>
       <c r="D116" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E116" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J116" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B117" t="s">
         <v>170</v>
       </c>
       <c r="C117" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D117" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E117" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B118" t="s">
         <v>266</v>
       </c>
       <c r="C118" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D118" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E118" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J118" t="s">
         <v>23</v>
@@ -7376,7 +7377,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B119" t="s">
         <v>178</v>
@@ -7385,30 +7386,30 @@
         <v>175</v>
       </c>
       <c r="D119" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E119" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J119" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B120" t="s">
         <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D120" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E120" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -7419,7 +7420,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B121" t="s">
         <v>159</v>
@@ -7431,98 +7432,98 @@
         <v>495</v>
       </c>
       <c r="E121" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B122" t="s">
         <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D122" t="s">
         <v>491</v>
       </c>
       <c r="J122" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B123" t="s">
         <v>205</v>
       </c>
       <c r="C123" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D123" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E123" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J123" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B124" t="s">
         <v>204</v>
       </c>
       <c r="C124" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D124" t="s">
         <v>491</v>
       </c>
       <c r="J124" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B125" t="s">
         <v>215</v>
       </c>
       <c r="C125" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D125" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E125" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J125" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B126" t="s">
         <v>211</v>
       </c>
       <c r="C126" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D126" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E126" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J126" t="s">
         <v>50</v>
@@ -7530,36 +7531,36 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B127" t="s">
         <v>200</v>
       </c>
       <c r="C127" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D127" t="s">
         <v>494</v>
       </c>
       <c r="J127" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B128" t="s">
         <v>142</v>
       </c>
       <c r="C128" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D128" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E128" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -7570,44 +7571,44 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B129" t="s">
         <v>185</v>
       </c>
       <c r="C129" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D129" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E129" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J129" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B130" t="s">
         <v>197</v>
       </c>
       <c r="C130" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D130" t="s">
         <v>491</v>
       </c>
       <c r="J130" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B131" t="s">
         <v>218</v>
@@ -7624,13 +7625,13 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B132" t="s">
         <v>210</v>
       </c>
       <c r="C132" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D132" t="s">
         <v>491</v>
@@ -7641,41 +7642,41 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B133" t="s">
         <v>190</v>
       </c>
       <c r="C133" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D133" t="s">
         <v>491</v>
       </c>
       <c r="J133" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B134" t="s">
         <v>173</v>
       </c>
       <c r="C134" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D134" t="s">
         <v>493</v>
       </c>
       <c r="J134" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B135" t="s">
         <v>217</v>
@@ -7687,12 +7688,12 @@
         <v>491</v>
       </c>
       <c r="J135" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B136" t="s">
         <v>193</v>
@@ -7704,12 +7705,12 @@
         <v>491</v>
       </c>
       <c r="J136" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B137" t="s">
         <v>36</v>
@@ -7726,7 +7727,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B138" t="s">
         <v>206</v>
@@ -7735,18 +7736,18 @@
         <v>207</v>
       </c>
       <c r="D138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J138" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B139" t="s">
         <v>176</v>
@@ -7758,12 +7759,12 @@
         <v>491</v>
       </c>
       <c r="J139" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B140" t="s">
         <v>38</v>
@@ -7780,7 +7781,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B141" t="s">
         <v>216</v>
@@ -7792,12 +7793,12 @@
         <v>491</v>
       </c>
       <c r="J141" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B142" t="s">
         <v>202</v>
@@ -7806,15 +7807,15 @@
         <v>53</v>
       </c>
       <c r="D142" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J142" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B143" t="s">
         <v>179</v>
@@ -7826,12 +7827,12 @@
         <v>491</v>
       </c>
       <c r="J143" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B144" t="s">
         <v>164</v>
@@ -7840,7 +7841,7 @@
         <v>165</v>
       </c>
       <c r="D144" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J144" t="s">
         <v>33</v>
@@ -7848,7 +7849,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B145" t="s">
         <v>166</v>
@@ -7865,7 +7866,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B146" t="s">
         <v>174</v>
@@ -7877,12 +7878,12 @@
         <v>491</v>
       </c>
       <c r="J146" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B147" t="s">
         <v>192</v>
@@ -7894,12 +7895,12 @@
         <v>491</v>
       </c>
       <c r="J147" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B148" t="s">
         <v>219</v>
@@ -7911,12 +7912,12 @@
         <v>494</v>
       </c>
       <c r="J148" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B149" t="s">
         <v>201</v>
@@ -7925,18 +7926,18 @@
         <v>52</v>
       </c>
       <c r="D149" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H149" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J149" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B150" t="s">
         <v>188</v>
@@ -7953,7 +7954,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B151" t="s">
         <v>186</v>
@@ -7962,7 +7963,7 @@
         <v>187</v>
       </c>
       <c r="D151" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J151" t="s">
         <v>28</v>
@@ -7970,7 +7971,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B152" t="s">
         <v>196</v>
@@ -7982,12 +7983,12 @@
         <v>491</v>
       </c>
       <c r="J152" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B153" t="s">
         <v>51</v>
@@ -7996,18 +7997,18 @@
         <v>199</v>
       </c>
       <c r="D153" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H153" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J153" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B154" t="s">
         <v>191</v>
@@ -8019,12 +8020,12 @@
         <v>491</v>
       </c>
       <c r="J154" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B155" t="s">
         <v>278</v>
@@ -8036,12 +8037,12 @@
         <v>491</v>
       </c>
       <c r="J155" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B156" t="s">
         <v>289</v>
@@ -8053,12 +8054,12 @@
         <v>491</v>
       </c>
       <c r="J156" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B157" t="s">
         <v>156</v>
@@ -8070,12 +8071,12 @@
         <v>491</v>
       </c>
       <c r="J157" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B158" t="s">
         <v>183</v>
@@ -8084,7 +8085,7 @@
         <v>184</v>
       </c>
       <c r="D158" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J158" t="s">
         <v>27</v>
@@ -8092,7 +8093,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B159" t="s">
         <v>198</v>
@@ -8104,12 +8105,12 @@
         <v>491</v>
       </c>
       <c r="J159" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B160" t="s">
         <v>181</v>
@@ -8121,12 +8122,12 @@
         <v>491</v>
       </c>
       <c r="J160" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B161" t="s">
         <v>25</v>
@@ -8143,7 +8144,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B162" t="s">
         <v>168</v>
@@ -8152,18 +8153,18 @@
         <v>169</v>
       </c>
       <c r="D162" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H162" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J162" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B163" t="s">
         <v>158</v>
@@ -8186,7 +8187,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B164" t="s">
         <v>49</v>
@@ -8198,58 +8199,58 @@
         <v>491</v>
       </c>
       <c r="J164" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B165" t="s">
         <v>171</v>
       </c>
       <c r="C165" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D165" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E165" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J165" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B166" t="s">
         <v>172</v>
       </c>
       <c r="C166" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D166" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E166" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C167" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D167" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -8260,58 +8261,58 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B168" t="s">
         <v>337</v>
       </c>
       <c r="C168" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D168" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E168" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B169" t="s">
         <v>284</v>
       </c>
       <c r="C169" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D169" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E169" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B170" t="s">
         <v>141</v>
       </c>
       <c r="C170" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D170" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E170" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B171" t="s">
         <v>282</v>
@@ -8325,7 +8326,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B172" t="s">
         <v>159</v>
@@ -8334,15 +8335,15 @@
         <v>160</v>
       </c>
       <c r="D172" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E172" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B173" t="s">
         <v>164</v>
@@ -8351,12 +8352,12 @@
         <v>165</v>
       </c>
       <c r="D173" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B174" t="s">
         <v>280</v>
@@ -8376,7 +8377,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B175" t="s">
         <v>156</v>
@@ -8390,7 +8391,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B176" t="s">
         <v>168</v>
@@ -8404,7 +8405,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B177" t="s">
         <v>158</v>
@@ -8418,13 +8419,13 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B178" t="s">
         <v>338</v>
       </c>
       <c r="C178" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D178" t="s">
         <v>494</v>
@@ -8432,13 +8433,13 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B179" t="s">
         <v>334</v>
       </c>
       <c r="C179" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D179" t="s">
         <v>491</v>
@@ -8446,13 +8447,13 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B180" t="s">
         <v>335</v>
       </c>
       <c r="C180" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D180" t="s">
         <v>491</v>
@@ -8460,27 +8461,27 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B181" t="s">
         <v>328</v>
       </c>
       <c r="C181" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D181" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B182" t="s">
         <v>329</v>
       </c>
       <c r="C182" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D182" t="s">
         <v>492</v>
@@ -8488,44 +8489,44 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B183" t="s">
         <v>339</v>
       </c>
       <c r="C183" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D183" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E183" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B184" t="s">
         <v>330</v>
       </c>
       <c r="C184" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D184" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B185" t="s">
         <v>331</v>
       </c>
       <c r="C185" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D185" t="s">
         <v>492</v>
@@ -8533,30 +8534,30 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B186" t="s">
         <v>332</v>
       </c>
       <c r="C186" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D186" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H186" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B187" t="s">
         <v>333</v>
       </c>
       <c r="C187" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D187" t="s">
         <v>491</v>
@@ -8570,7 +8571,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B188" t="s">
         <v>322</v>
@@ -8584,24 +8585,24 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B189" t="s">
         <v>114</v>
       </c>
       <c r="C189" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D189" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E189" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B190" t="s">
         <v>324</v>
@@ -8615,19 +8616,19 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B191" t="s">
         <v>407</v>
       </c>
       <c r="C191" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D191" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E191" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -8635,7 +8636,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B192" t="s">
         <v>326</v>
@@ -8649,47 +8650,47 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B193" t="s">
         <v>425</v>
       </c>
       <c r="C193" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D193" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E193" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B194" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C194" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D194" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E194" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C195" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D195" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -8700,30 +8701,30 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B196" t="s">
         <v>408</v>
       </c>
       <c r="C196" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D196" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E196" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B197" t="s">
         <v>411</v>
@@ -8735,12 +8736,12 @@
         <v>491</v>
       </c>
       <c r="J197" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B198" t="s">
         <v>80</v>
@@ -8752,12 +8753,12 @@
         <v>494</v>
       </c>
       <c r="J198" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B199" t="s">
         <v>78</v>
@@ -8769,12 +8770,12 @@
         <v>491</v>
       </c>
       <c r="J199" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B200" t="s">
         <v>409</v>
@@ -8786,18 +8787,18 @@
         <v>494</v>
       </c>
       <c r="J200" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C201" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D201" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -8806,12 +8807,12 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B202" t="s">
         <v>82</v>
@@ -8820,27 +8821,27 @@
         <v>83</v>
       </c>
       <c r="D202" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E202" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J202" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B203" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C203" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D203" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -8851,44 +8852,44 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B204" t="s">
         <v>444</v>
       </c>
       <c r="C204" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D204" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E204" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J204" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B205" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C205" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D205" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E205" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B206" t="s">
         <v>465</v>
@@ -8900,58 +8901,58 @@
         <v>494</v>
       </c>
       <c r="J206" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B207" t="s">
         <v>153</v>
       </c>
       <c r="C207" t="s">
+        <v>702</v>
+      </c>
+      <c r="D207" t="s">
+        <v>531</v>
+      </c>
+      <c r="E207" t="s">
+        <v>857</v>
+      </c>
+      <c r="J207" t="s">
         <v>703</v>
-      </c>
-      <c r="D207" t="s">
-        <v>532</v>
-      </c>
-      <c r="E207" t="s">
-        <v>858</v>
-      </c>
-      <c r="J207" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B208" t="s">
         <v>155</v>
       </c>
       <c r="C208" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D208" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E208" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J208" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C209" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D209" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F209" t="b">
         <v>0</v>
@@ -8962,7 +8963,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B210" t="s">
         <v>367</v>
@@ -8971,27 +8972,27 @@
         <v>368</v>
       </c>
       <c r="D210" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E210" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C211" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D211" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
@@ -9002,7 +9003,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B212" t="s">
         <v>369</v>
@@ -9011,50 +9012,50 @@
         <v>370</v>
       </c>
       <c r="D212" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E212" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B213" t="s">
+        <v>661</v>
+      </c>
+      <c r="C213" t="s">
         <v>662</v>
       </c>
-      <c r="C213" t="s">
-        <v>663</v>
-      </c>
       <c r="D213" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E213" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C214" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D214" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
@@ -9065,7 +9066,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B215" t="s">
         <v>343</v>
@@ -9074,21 +9075,21 @@
         <v>344</v>
       </c>
       <c r="D215" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E215" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C216" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D216" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
@@ -9099,7 +9100,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B217" t="s">
         <v>342</v>
@@ -9108,57 +9109,57 @@
         <v>342</v>
       </c>
       <c r="D217" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B218" t="s">
         <v>154</v>
       </c>
       <c r="C218" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D218" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E218" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B219" t="s">
         <v>243</v>
       </c>
       <c r="C219" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D219" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B220" t="s">
         <v>237</v>
       </c>
       <c r="C220" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D220" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B221" t="s">
         <v>355</v>
@@ -9167,12 +9168,12 @@
         <v>356</v>
       </c>
       <c r="D221" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B222" t="s">
         <v>359</v>
@@ -9186,7 +9187,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B223" t="s">
         <v>347</v>
@@ -9195,12 +9196,12 @@
         <v>348</v>
       </c>
       <c r="D223" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B224" t="s">
         <v>349</v>
@@ -9209,12 +9210,12 @@
         <v>350</v>
       </c>
       <c r="D224" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B225" t="s">
         <v>426</v>
@@ -9223,12 +9224,12 @@
         <v>427</v>
       </c>
       <c r="D225" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B226" t="s">
         <v>357</v>
@@ -9237,15 +9238,15 @@
         <v>358</v>
       </c>
       <c r="D226" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E226" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B227" t="s">
         <v>351</v>
@@ -9254,12 +9255,12 @@
         <v>352</v>
       </c>
       <c r="D227" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B228" t="s">
         <v>353</v>
@@ -9268,18 +9269,18 @@
         <v>354</v>
       </c>
       <c r="D228" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C229" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D229" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -9290,7 +9291,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B230" t="s">
         <v>372</v>
@@ -9310,84 +9311,84 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B231" t="s">
         <v>386</v>
       </c>
       <c r="C231" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D231" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E231" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B232" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C232" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D232" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E232" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B233" t="s">
         <v>458</v>
       </c>
       <c r="C233" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D233" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E233" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J233" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B234" t="s">
         <v>151</v>
       </c>
       <c r="C234" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D234" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E234" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B235" t="s">
         <v>252</v>
@@ -9399,32 +9400,32 @@
         <v>491</v>
       </c>
       <c r="J235" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B236" t="s">
         <v>457</v>
       </c>
       <c r="C236" t="s">
+        <v>540</v>
+      </c>
+      <c r="D236" t="s">
+        <v>495</v>
+      </c>
+      <c r="E236" t="s">
+        <v>862</v>
+      </c>
+      <c r="J236" t="s">
         <v>541</v>
-      </c>
-      <c r="D236" t="s">
-        <v>496</v>
-      </c>
-      <c r="E236" t="s">
-        <v>863</v>
-      </c>
-      <c r="J236" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B237" t="s">
         <v>250</v>
@@ -9442,12 +9443,12 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>455</v>
@@ -9456,52 +9457,52 @@
         <v>456</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H238" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B239" t="s">
         <v>459</v>
       </c>
       <c r="C239" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D239" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E239" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B240" t="s">
         <v>460</v>
       </c>
       <c r="C240" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D240" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E240" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J240" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B241" t="s">
         <v>147</v>
@@ -9521,7 +9522,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B242" t="s">
         <v>145</v>
@@ -9535,7 +9536,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B243" t="s">
         <v>449</v>
@@ -9547,12 +9548,12 @@
         <v>494</v>
       </c>
       <c r="J243" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B244" t="s">
         <v>149</v>
@@ -9561,15 +9562,15 @@
         <v>150</v>
       </c>
       <c r="D244" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J244" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B245" t="s">
         <v>474</v>
@@ -9578,24 +9579,24 @@
         <v>475</v>
       </c>
       <c r="D245" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J245" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B246" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C246" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D246" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -9606,7 +9607,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B247" t="s">
         <v>476</v>
@@ -9620,7 +9621,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B248" t="s">
         <v>74</v>
@@ -9634,7 +9635,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B249" t="s">
         <v>453</v>
@@ -9648,7 +9649,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B250" t="s">
         <v>72</v>
@@ -9662,24 +9663,24 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B251" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C251" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D251" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E251" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B252" t="s">
         <v>451</v>
@@ -9688,12 +9689,12 @@
         <v>452</v>
       </c>
       <c r="D252" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B253" t="s">
         <v>478</v>
@@ -9707,19 +9708,19 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B254" t="s">
         <v>404</v>
       </c>
       <c r="C254" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D254" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E254" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F254" t="b">
         <v>0</v>
@@ -9727,13 +9728,13 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B255" t="s">
         <v>396</v>
       </c>
       <c r="C255" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D255" t="s">
         <v>491</v>
@@ -9741,7 +9742,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B256" t="s">
         <v>264</v>
@@ -9750,21 +9751,21 @@
         <v>487</v>
       </c>
       <c r="D256" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E256" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B257" t="s">
         <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D257" t="s">
         <v>491</v>
@@ -9772,13 +9773,13 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B258" t="s">
         <v>398</v>
       </c>
       <c r="C258" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D258" t="s">
         <v>491</v>
@@ -9786,13 +9787,13 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B259" t="s">
         <v>413</v>
       </c>
       <c r="C259" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D259" t="s">
         <v>494</v>
@@ -9800,30 +9801,30 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B260" t="s">
         <v>397</v>
       </c>
       <c r="C260" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D260" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H260" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B261" t="s">
         <v>399</v>
       </c>
       <c r="C261" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D261" t="s">
         <v>491</v>
@@ -9831,13 +9832,13 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B262" t="s">
         <v>405</v>
       </c>
       <c r="C262" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D262" t="s">
         <v>491</v>
@@ -9845,7 +9846,7 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B263" t="s">
         <v>136</v>
@@ -9854,32 +9855,32 @@
         <v>137</v>
       </c>
       <c r="D263" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E263" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B264" t="s">
         <v>406</v>
       </c>
       <c r="C264" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D264" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E264" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B265" t="s">
         <v>394</v>
@@ -9899,7 +9900,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B266" t="s">
         <v>400</v>
@@ -9913,7 +9914,7 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B267" t="s">
         <v>402</v>
@@ -9927,7 +9928,7 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B268" t="s">
         <v>250</v>
@@ -9941,7 +9942,7 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B269" t="s">
         <v>65</v>
@@ -9950,12 +9951,12 @@
         <v>66</v>
       </c>
       <c r="D269" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B270" t="s">
         <v>67</v>
@@ -9969,61 +9970,61 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B271" t="s">
         <v>304</v>
       </c>
       <c r="C271" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D271" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E271" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J271" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B272" t="s">
         <v>366</v>
       </c>
       <c r="C272" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D272" t="s">
         <v>494</v>
       </c>
       <c r="J272" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B273" t="s">
         <v>300</v>
       </c>
       <c r="C273" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D273" t="s">
         <v>491</v>
       </c>
       <c r="J273" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B274" t="s">
         <v>299</v>
@@ -10037,141 +10038,141 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B275" t="s">
         <v>295</v>
       </c>
       <c r="C275" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D275" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J275" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B276" t="s">
         <v>296</v>
       </c>
       <c r="C276" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D276" t="s">
         <v>492</v>
       </c>
       <c r="J276" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B277" t="s">
         <v>306</v>
       </c>
       <c r="C277" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D277" t="s">
         <v>491</v>
       </c>
       <c r="J277" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B278" t="s">
         <v>297</v>
       </c>
       <c r="C278" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D278" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J278" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B279" t="s">
         <v>298</v>
       </c>
       <c r="C279" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D279" t="s">
         <v>492</v>
       </c>
       <c r="J279" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B280" t="s">
         <v>309</v>
       </c>
       <c r="C280" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D280" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H280" t="s">
+        <v>666</v>
+      </c>
+      <c r="J280" t="s">
         <v>667</v>
-      </c>
-      <c r="J280" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="16" customHeight="1">
       <c r="A281" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B281" t="s">
         <v>301</v>
       </c>
       <c r="C281" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D281" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E281" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F281" t="b">
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B282" t="s">
         <v>302</v>
       </c>
       <c r="C282" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D282" t="s">
         <v>491</v>
@@ -10183,63 +10184,63 @@
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B283" t="s">
         <v>294</v>
       </c>
       <c r="C283" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D283" t="s">
         <v>491</v>
       </c>
       <c r="J283" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B284" t="s">
         <v>265</v>
       </c>
       <c r="C284" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D284" t="s">
         <v>491</v>
       </c>
       <c r="J284" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B285" t="s">
         <v>305</v>
       </c>
       <c r="C285" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D285" t="s">
         <v>491</v>
       </c>
       <c r="J285" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B286" t="s">
         <v>307</v>
@@ -10251,12 +10252,12 @@
         <v>491</v>
       </c>
       <c r="J286" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B287" t="s">
         <v>76</v>
@@ -10268,12 +10269,12 @@
         <v>491</v>
       </c>
       <c r="J287" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B288" t="s">
         <v>208</v>
@@ -10282,21 +10283,21 @@
         <v>209</v>
       </c>
       <c r="D288" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H288" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C289" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D289" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E289" s="1"/>
       <c r="F289" t="b">
@@ -10308,33 +10309,33 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B290" t="s">
         <v>301</v>
       </c>
       <c r="C290" t="s">
+        <v>639</v>
+      </c>
+      <c r="D290" t="s">
+        <v>495</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="J290" t="s">
         <v>640</v>
-      </c>
-      <c r="D290" t="s">
-        <v>496</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="J290" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B291" t="s">
         <v>421</v>
       </c>
       <c r="C291" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D291" t="s">
         <v>491</v>
@@ -10348,13 +10349,13 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B292" t="s">
         <v>422</v>
       </c>
       <c r="C292" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D292" t="s">
         <v>491</v>
@@ -10362,13 +10363,13 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B293" t="s">
         <v>300</v>
       </c>
       <c r="C293" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D293" t="s">
         <v>491</v>
@@ -10376,92 +10377,92 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B294" t="s">
         <v>301</v>
       </c>
       <c r="C294" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D294" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E294" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B295" t="s">
         <v>71</v>
       </c>
       <c r="C295" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D295" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E295" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B296" t="s">
         <v>264</v>
       </c>
       <c r="C296" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D296" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E296" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B297" t="s">
         <v>310</v>
       </c>
       <c r="C297" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D297" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E297" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B298" t="s">
         <v>311</v>
       </c>
       <c r="C298" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D298" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E298" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B299" t="s">
         <v>262</v>
@@ -10475,7 +10476,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B300" t="s">
         <v>302</v>
@@ -10489,7 +10490,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B301" t="s">
         <v>136</v>
@@ -10498,15 +10499,15 @@
         <v>137</v>
       </c>
       <c r="D301" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E301" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B302" t="s">
         <v>394</v>
@@ -10520,7 +10521,7 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B303" t="s">
         <v>250</v>
@@ -10534,7 +10535,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B304" t="s">
         <v>69</v>
@@ -10548,41 +10549,41 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B305" t="s">
         <v>321</v>
       </c>
       <c r="C305" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D305" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E305" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B306" t="s">
         <v>125</v>
       </c>
       <c r="C306" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D306" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E306" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B307" t="s">
         <v>143</v>
@@ -10591,15 +10592,15 @@
         <v>144</v>
       </c>
       <c r="D307" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E307" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B308" t="s">
         <v>130</v>
@@ -10608,15 +10609,15 @@
         <v>131</v>
       </c>
       <c r="D308" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E308" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B309" t="s">
         <v>118</v>
@@ -10625,15 +10626,15 @@
         <v>119</v>
       </c>
       <c r="D309" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E309" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B310" t="s">
         <v>123</v>
@@ -10647,7 +10648,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B311" t="s">
         <v>252</v>
@@ -10667,7 +10668,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B312" t="s">
         <v>116</v>
@@ -10681,7 +10682,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B313" t="s">
         <v>447</v>
@@ -10695,7 +10696,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B314" t="s">
         <v>72</v>
@@ -10709,7 +10710,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B315" t="s">
         <v>128</v>
@@ -10723,7 +10724,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B316" t="s">
         <v>236</v>
@@ -10737,7 +10738,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B317" t="s">
         <v>151</v>
@@ -10746,15 +10747,15 @@
         <v>152</v>
       </c>
       <c r="D317" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E317" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B318" t="s">
         <v>252</v>
@@ -10774,16 +10775,16 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B319" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C319" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D319" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F319" t="b">
         <v>0</v>
@@ -10794,7 +10795,7 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B320" t="s">
         <v>386</v>
@@ -10803,21 +10804,21 @@
         <v>387</v>
       </c>
       <c r="D320" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E320" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F320" t="b">
         <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B321" t="s">
         <v>375</v>
@@ -10826,18 +10827,18 @@
         <v>376</v>
       </c>
       <c r="D321" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E321" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J321" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B322" t="s">
         <v>381</v>
@@ -10846,21 +10847,21 @@
         <v>382</v>
       </c>
       <c r="D322" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E322" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F322" t="b">
         <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B323" t="s">
         <v>372</v>
@@ -10869,21 +10870,21 @@
         <v>373</v>
       </c>
       <c r="D323" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E323" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F323" t="b">
         <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B324" t="s">
         <v>377</v>
@@ -10892,18 +10893,18 @@
         <v>378</v>
       </c>
       <c r="D324" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E324" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J324" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B325" t="s">
         <v>379</v>
@@ -10915,166 +10916,166 @@
         <v>491</v>
       </c>
       <c r="J325" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B326" t="s">
         <v>388</v>
       </c>
       <c r="C326" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D326" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E326" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J326" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B327" t="s">
         <v>153</v>
       </c>
       <c r="C327" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D327" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E327" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J327" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B328" t="s">
         <v>392</v>
       </c>
       <c r="C328" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D328" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E328" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J328" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B329" t="s">
         <v>390</v>
       </c>
       <c r="C329" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D329" t="s">
         <v>494</v>
       </c>
       <c r="J329" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B330" t="s">
         <v>391</v>
       </c>
       <c r="C330" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D330" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E330" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F330" t="b">
         <v>0</v>
       </c>
       <c r="J330" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B331" t="s">
         <v>385</v>
       </c>
       <c r="C331" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D331" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E331" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J331" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B332" t="s">
         <v>389</v>
       </c>
       <c r="C332" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D332" t="s">
         <v>491</v>
       </c>
       <c r="J332" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B333" t="s">
         <v>383</v>
       </c>
       <c r="C333" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D333" t="s">
         <v>491</v>
       </c>
       <c r="J333" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B334" t="s">
         <v>384</v>
@@ -11092,120 +11093,120 @@
         <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B335" t="s">
         <v>127</v>
       </c>
       <c r="C335" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D335" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E335" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B336" t="s">
         <v>89</v>
       </c>
       <c r="C336" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D336" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E336" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B337" t="s">
         <v>122</v>
       </c>
       <c r="C337" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D337" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E337" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B338" t="s">
         <v>407</v>
       </c>
       <c r="C338" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D338" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E338" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B339" t="s">
         <v>71</v>
       </c>
       <c r="C339" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D339" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E339" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B340" t="s">
         <v>261</v>
       </c>
       <c r="C340" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D340" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E340" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B341" t="s">
         <v>126</v>
       </c>
       <c r="C341" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D341" t="s">
         <v>491</v>
@@ -11213,7 +11214,7 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B342" t="s">
         <v>84</v>
@@ -11227,7 +11228,7 @@
     </row>
     <row r="343" spans="1:7">
       <c r="A343" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B343" t="s">
         <v>114</v>
@@ -11236,15 +11237,15 @@
         <v>115</v>
       </c>
       <c r="D343" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E343" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B344" t="s">
         <v>120</v>
@@ -11258,7 +11259,7 @@
     </row>
     <row r="345" spans="1:7">
       <c r="A345" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B345" t="s">
         <v>250</v>
@@ -11278,7 +11279,7 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B346" t="s">
         <v>112</v>
@@ -11292,7 +11293,7 @@
     </row>
     <row r="347" spans="1:7">
       <c r="A347" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B347" t="s">
         <v>69</v>
@@ -11306,7 +11307,7 @@
     </row>
     <row r="348" spans="1:7">
       <c r="A348" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B348" t="s">
         <v>65</v>
@@ -11315,12 +11316,12 @@
         <v>66</v>
       </c>
       <c r="D348" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B349" t="s">
         <v>67</v>
@@ -11334,7 +11335,7 @@
     </row>
     <row r="350" spans="1:7">
       <c r="A350" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B350" t="s">
         <v>254</v>
@@ -11348,7 +11349,7 @@
     </row>
     <row r="351" spans="1:7">
       <c r="A351" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B351" t="s">
         <v>345</v>
@@ -11357,21 +11358,21 @@
         <v>346</v>
       </c>
       <c r="D351" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E351" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C352" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D352" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F352" t="b">
         <v>0</v>
@@ -11382,7 +11383,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B353" t="s">
         <v>340</v>
@@ -11391,115 +11392,115 @@
         <v>341</v>
       </c>
       <c r="D353" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E353" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="354" spans="1:10">
       <c r="A354" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B354" t="s">
         <v>89</v>
       </c>
       <c r="C354" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D354" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E354" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J354" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="355" spans="1:10">
       <c r="A355" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B355" t="s">
         <v>320</v>
       </c>
       <c r="C355" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D355" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E355" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J355" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="356" spans="1:10">
       <c r="A356" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B356" t="s">
         <v>88</v>
       </c>
       <c r="C356" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D356" t="s">
         <v>491</v>
       </c>
       <c r="J356" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="357" spans="1:10">
       <c r="A357" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B357" t="s">
         <v>284</v>
       </c>
       <c r="C357" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D357" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E357" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J357" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="358" spans="1:10">
       <c r="A358" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B358" t="s">
         <v>134</v>
       </c>
       <c r="C358" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D358" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E358" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F358" t="b">
         <v>0</v>
       </c>
       <c r="J358" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="359" spans="1:10">
       <c r="A359" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B359" t="s">
         <v>132</v>
@@ -11511,92 +11512,92 @@
         <v>491</v>
       </c>
       <c r="J359" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="360" spans="1:10">
       <c r="A360" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B360" t="s">
         <v>371</v>
       </c>
       <c r="C360" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D360" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E360" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J360" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="361" spans="1:10">
       <c r="A361" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B361" t="s">
         <v>271</v>
       </c>
       <c r="C361" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D361" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E361" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J361" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="362" spans="1:10">
       <c r="A362" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B362" t="s">
         <v>288</v>
       </c>
       <c r="C362" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D362" t="s">
         <v>491</v>
       </c>
       <c r="J362" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="363" spans="1:10">
       <c r="A363" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B363" t="s">
         <v>141</v>
       </c>
       <c r="C363" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D363" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E363" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F363" t="b">
         <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="364" spans="1:10">
       <c r="A364" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B364" t="s">
         <v>282</v>
@@ -11608,12 +11609,12 @@
         <v>491</v>
       </c>
       <c r="J364" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="365" spans="1:10">
       <c r="A365" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B365" t="s">
         <v>86</v>
@@ -11625,55 +11626,55 @@
         <v>494</v>
       </c>
       <c r="J365" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="366" spans="1:10">
       <c r="A366" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B366" t="s">
         <v>136</v>
       </c>
       <c r="C366" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D366" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E366" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F366" t="b">
         <v>0</v>
       </c>
       <c r="J366" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="367" spans="1:10">
       <c r="A367" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B367" t="s">
         <v>82</v>
       </c>
       <c r="C367" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D367" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E367" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J367" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="368" spans="1:10">
       <c r="A368" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B368" t="s">
         <v>286</v>
@@ -11685,12 +11686,12 @@
         <v>491</v>
       </c>
       <c r="J368" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="369" spans="1:10">
       <c r="A369" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B369" t="s">
         <v>84</v>
@@ -11702,12 +11703,12 @@
         <v>491</v>
       </c>
       <c r="J369" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="370" spans="1:10">
       <c r="A370" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B370" t="s">
         <v>80</v>
@@ -11719,12 +11720,12 @@
         <v>494</v>
       </c>
       <c r="J370" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="371" spans="1:10">
       <c r="A371" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B371" t="s">
         <v>272</v>
@@ -11736,12 +11737,12 @@
         <v>491</v>
       </c>
       <c r="J371" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="372" spans="1:10">
       <c r="A372" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B372" t="s">
         <v>280</v>
@@ -11753,12 +11754,12 @@
         <v>491</v>
       </c>
       <c r="J372" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="373" spans="1:10">
       <c r="A373" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B373" t="s">
         <v>78</v>
@@ -11770,12 +11771,12 @@
         <v>491</v>
       </c>
       <c r="J373" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="374" spans="1:10">
       <c r="A374" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B374" t="s">
         <v>267</v>
@@ -11784,18 +11785,18 @@
         <v>268</v>
       </c>
       <c r="D374" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H374" t="s">
+        <v>606</v>
+      </c>
+      <c r="J374" t="s">
         <v>607</v>
-      </c>
-      <c r="J374" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="375" spans="1:10">
       <c r="A375" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B375" t="s">
         <v>292</v>
@@ -11807,12 +11808,12 @@
         <v>494</v>
       </c>
       <c r="J375" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="376" spans="1:10">
       <c r="A376" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B376" t="s">
         <v>274</v>
@@ -11821,15 +11822,15 @@
         <v>275</v>
       </c>
       <c r="D376" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J376" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="377" spans="1:10">
       <c r="A377" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B377" t="s">
         <v>276</v>
@@ -11841,12 +11842,12 @@
         <v>492</v>
       </c>
       <c r="J377" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="378" spans="1:10">
       <c r="A378" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B378" t="s">
         <v>269</v>
@@ -11864,12 +11865,12 @@
         <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="379" spans="1:10">
       <c r="A379" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B379" t="s">
         <v>451</v>
@@ -11878,7 +11879,7 @@
         <v>452</v>
       </c>
       <c r="D379" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F379" t="b">
         <v>0</v>
@@ -11887,12 +11888,12 @@
         <v>1</v>
       </c>
       <c r="J379" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="380" spans="1:10">
       <c r="A380" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B380" t="s">
         <v>461</v>
@@ -11912,7 +11913,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B381" t="s">
         <v>463</v>
@@ -11959,102 +11960,102 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>829</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>835</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>849</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C4" t="s">
+        <v>849</v>
+      </c>
+      <c r="D4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D4" t="s">
-        <v>852</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>851</v>
-      </c>
       <c r="F4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B5" t="s">
         <v>839</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>840</v>
       </c>
-      <c r="C5" t="s">
-        <v>841</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/DICOM_MODEL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="32580" windowHeight="20540" tabRatio="951" activeTab="2"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="33040" windowHeight="20100" tabRatio="951" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
@@ -408,9 +408,6 @@
     <t>Context Group Extension Creator UID</t>
   </si>
   <si>
-    <t>ContextGroupExtensionCreatorUID</t>
-  </si>
-  <si>
     <t>Context Identifier</t>
   </si>
   <si>
@@ -1215,9 +1212,6 @@
     <t>Alternate Container Identifier Sequence</t>
   </si>
   <si>
-    <t>AlternateContainerIdentifierSequence</t>
-  </si>
-  <si>
     <t>Container Type Code Sequence</t>
   </si>
   <si>
@@ -2788,6 +2782,12 @@
   </si>
   <si>
     <t>dicom_XDSRetrieval</t>
+  </si>
+  <si>
+    <t>CGEC#UID</t>
+  </si>
+  <si>
+    <t>AlternateContainerIdSequence</t>
   </si>
 </sst>
 </file>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45">
@@ -4676,10 +4676,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -4721,12 +4721,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -4856,12 +4856,12 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="23" spans="1:4" ht="90">
       <c r="A23" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -5275,8 +5275,8 @@
   <dimension ref="A1:J381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E160" sqref="E160"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5314,7 +5314,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
@@ -5325,64 +5325,64 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5393,16 +5393,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
         <v>213</v>
       </c>
-      <c r="C6" t="s">
-        <v>214</v>
-      </c>
       <c r="D6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5411,38 +5411,38 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" t="s">
         <v>225</v>
       </c>
-      <c r="C7" t="s">
-        <v>226</v>
-      </c>
       <c r="D7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
         <v>221</v>
       </c>
-      <c r="C8" t="s">
-        <v>222</v>
-      </c>
       <c r="D8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J8" t="s">
         <v>55</v>
@@ -5450,81 +5450,81 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
         <v>223</v>
       </c>
-      <c r="C9" t="s">
-        <v>224</v>
-      </c>
       <c r="D9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
         <v>231</v>
       </c>
-      <c r="C10" t="s">
-        <v>232</v>
-      </c>
       <c r="D10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
         <v>229</v>
       </c>
-      <c r="C11" t="s">
-        <v>230</v>
-      </c>
       <c r="D11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" t="s">
         <v>227</v>
       </c>
-      <c r="C12" t="s">
-        <v>228</v>
-      </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C13" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5538,41 +5538,41 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" t="s">
         <v>233</v>
       </c>
-      <c r="C14" t="s">
-        <v>234</v>
-      </c>
       <c r="D14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>899</v>
       </c>
       <c r="D15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B16" t="s">
         <v>104</v>
@@ -5581,15 +5581,15 @@
         <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
@@ -5598,15 +5598,15 @@
         <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B18" t="s">
         <v>92</v>
@@ -5615,18 +5615,18 @@
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B19" t="s">
         <v>94</v>
@@ -5635,15 +5635,15 @@
         <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J19" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
@@ -5652,32 +5652,32 @@
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
       <c r="D21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B22" t="s">
         <v>98</v>
@@ -5686,15 +5686,15 @@
         <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B23" t="s">
         <v>96</v>
@@ -5703,35 +5703,35 @@
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
       <c r="D24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B25" t="s">
         <v>90</v>
@@ -5740,7 +5740,7 @@
         <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -5749,154 +5749,154 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C26" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D26" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E26" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C27" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D27" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J27" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B28" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C28" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C29" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D29" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H29" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C30" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J30" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C31" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D31" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J31" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D32" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J32" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B33" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C33" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -5905,21 +5905,21 @@
         <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J34" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C35" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D35" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -5930,36 +5930,36 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C36" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D36" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E36" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J36" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B37" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" t="s">
         <v>372</v>
       </c>
-      <c r="C37" t="s">
-        <v>373</v>
-      </c>
       <c r="D37" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -5968,268 +5968,268 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B38" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C38" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D38" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C39" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D39" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E39" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J39" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C40" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D40" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J40" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B41" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C41" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D41" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E41" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B42" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C42" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D42" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J42" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
         <v>151</v>
       </c>
-      <c r="C43" t="s">
-        <v>152</v>
-      </c>
       <c r="D43" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E43" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J43" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
         <v>149</v>
       </c>
-      <c r="C44" t="s">
-        <v>150</v>
-      </c>
       <c r="D44" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J44" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C45" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D45" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E45" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D46" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J46" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B47" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C47" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D47" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J47" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B48" t="s">
         <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D48" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J48" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B49" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C49" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D49" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B50" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C50" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D50" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J50" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B51" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C51" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D51" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J51" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -6238,15 +6238,15 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J52" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B53" t="s">
         <v>64</v>
@@ -6255,24 +6255,24 @@
         <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J53" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D54" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -6281,21 +6281,21 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B55" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C55" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D55" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -6304,29 +6304,29 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B56" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C56" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D56" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J56" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -6335,7 +6335,7 @@
         <v>73</v>
       </c>
       <c r="D57" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -6344,91 +6344,91 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B58" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" t="s">
         <v>359</v>
       </c>
-      <c r="C58" t="s">
-        <v>360</v>
-      </c>
       <c r="D58" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" t="s">
         <v>248</v>
       </c>
-      <c r="C59" t="s">
-        <v>249</v>
-      </c>
       <c r="D59" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" t="s">
         <v>246</v>
       </c>
-      <c r="C60" t="s">
-        <v>247</v>
-      </c>
       <c r="D60" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" t="s">
         <v>241</v>
       </c>
-      <c r="C61" t="s">
-        <v>242</v>
-      </c>
       <c r="D61" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H61" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B62" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" t="s">
         <v>238</v>
       </c>
-      <c r="C62" t="s">
-        <v>239</v>
-      </c>
       <c r="D62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C63" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D63" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -6439,86 +6439,86 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B64" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" t="s">
         <v>244</v>
       </c>
-      <c r="C64" t="s">
-        <v>245</v>
-      </c>
       <c r="D64" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D65" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B66" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C66" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D66" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B67" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C67" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D67" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B68" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C68" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D68" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B69" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C69" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D69" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -6529,16 +6529,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B70" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s">
         <v>61</v>
       </c>
       <c r="D70" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -6549,52 +6549,52 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C71" t="s">
         <v>60</v>
       </c>
       <c r="D71" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C72" t="s">
         <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B73" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C73" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D73" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E73" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B74" t="s">
         <v>76</v>
@@ -6603,21 +6603,21 @@
         <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" t="s">
         <v>254</v>
       </c>
-      <c r="C75" t="s">
-        <v>255</v>
-      </c>
       <c r="D75" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -6628,72 +6628,72 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B76" t="s">
+        <v>363</v>
+      </c>
+      <c r="C76" t="s">
         <v>364</v>
       </c>
-      <c r="C76" t="s">
-        <v>365</v>
-      </c>
       <c r="D76" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E76" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B77" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C77" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D77" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C78" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D78" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E78" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B79" t="s">
         <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D79" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E79" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
@@ -6702,147 +6702,147 @@
         <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C81" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D81" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E81" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D82" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E82" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B83" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C83" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D83" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" t="s">
         <v>257</v>
       </c>
-      <c r="C84" t="s">
-        <v>258</v>
-      </c>
       <c r="D84" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B85" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C85" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D85" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B86" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" t="s">
         <v>259</v>
       </c>
-      <c r="C86" t="s">
-        <v>260</v>
-      </c>
       <c r="D86" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B87" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C87" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D87" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B88" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C88" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D88" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D89" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E89" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B90" t="s">
         <v>69</v>
@@ -6851,7 +6851,7 @@
         <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -6862,123 +6862,123 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B91" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C91" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D91" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C92" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D92" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E92" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C93" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D93" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E93" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B94" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" t="s">
         <v>269</v>
       </c>
-      <c r="C94" t="s">
-        <v>270</v>
-      </c>
       <c r="D94" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B95" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C95" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D95" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B96" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C96" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D96" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D97" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E97" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B98" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" t="s">
         <v>250</v>
       </c>
-      <c r="C98" t="s">
-        <v>251</v>
-      </c>
       <c r="D98" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -6989,36 +6989,36 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B99" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" t="s">
         <v>139</v>
       </c>
-      <c r="C99" t="s">
-        <v>140</v>
-      </c>
       <c r="D99" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E99" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C100" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D100" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E100" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J100" t="s">
         <v>59</v>
@@ -7026,16 +7026,16 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" t="s">
         <v>159</v>
       </c>
-      <c r="C101" t="s">
-        <v>160</v>
-      </c>
       <c r="D101" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -7049,110 +7049,110 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C102" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D102" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E102" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J102" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C103" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D103" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E103" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J103" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C104" t="s">
         <v>62</v>
       </c>
       <c r="D104" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J104" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B105" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C105" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D105" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E105" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J105" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B106" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" t="s">
         <v>315</v>
       </c>
-      <c r="C106" t="s">
-        <v>316</v>
-      </c>
       <c r="D106" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J106" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s">
         <v>60</v>
       </c>
       <c r="D107" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -7161,38 +7161,38 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B108" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" t="s">
         <v>159</v>
       </c>
-      <c r="C108" t="s">
-        <v>160</v>
-      </c>
       <c r="D108" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E108" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s">
         <v>57</v>
       </c>
       <c r="D109" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -7201,61 +7201,61 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" t="s">
         <v>161</v>
       </c>
-      <c r="C110" t="s">
-        <v>162</v>
-      </c>
       <c r="D110" t="s">
+        <v>521</v>
+      </c>
+      <c r="H110" t="s">
         <v>523</v>
-      </c>
-      <c r="H110" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C111" t="s">
         <v>54</v>
       </c>
       <c r="D111" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E111" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J111" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C112" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D112" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E112" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J112" t="s">
         <v>35</v>
@@ -7263,113 +7263,113 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B113" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C113" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D113" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J113" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D114" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E114" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J114" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B115" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C115" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D115" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E115" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J115" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B116" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C116" t="s">
         <v>47</v>
       </c>
       <c r="D116" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E116" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J116" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C117" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D117" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E117" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C118" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D118" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E118" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J118" t="s">
         <v>23</v>
@@ -7377,39 +7377,39 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B119" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D119" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E119" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J119" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D120" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E120" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -7420,110 +7420,110 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B121" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" t="s">
         <v>159</v>
       </c>
-      <c r="C121" t="s">
-        <v>160</v>
-      </c>
       <c r="D121" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E121" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C122" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D122" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J122" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C123" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D123" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E123" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J123" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D124" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J124" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C125" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D125" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E125" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J125" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B126" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C126" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D126" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E126" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J126" t="s">
         <v>50</v>
@@ -7531,36 +7531,36 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C127" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D127" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J127" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D128" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E128" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -7571,53 +7571,53 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B129" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C129" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D129" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E129" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J129" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C130" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D130" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J130" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C131" t="s">
         <v>46</v>
       </c>
       <c r="D131" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
@@ -7625,16 +7625,16 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D132" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J132" t="s">
         <v>50</v>
@@ -7642,75 +7642,75 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C133" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D133" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J133" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C134" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D134" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J134" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C135" t="s">
         <v>45</v>
       </c>
       <c r="D135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J135" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B136" t="s">
+        <v>192</v>
+      </c>
+      <c r="C136" t="s">
         <v>193</v>
       </c>
-      <c r="C136" t="s">
-        <v>194</v>
-      </c>
       <c r="D136" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J136" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B137" t="s">
         <v>36</v>
@@ -7719,7 +7719,7 @@
         <v>40</v>
       </c>
       <c r="D137" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J137" t="s">
         <v>37</v>
@@ -7727,44 +7727,44 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B138" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" t="s">
         <v>206</v>
       </c>
-      <c r="C138" t="s">
-        <v>207</v>
-      </c>
       <c r="D138" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H138" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J138" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B139" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" t="s">
         <v>176</v>
       </c>
-      <c r="C139" t="s">
-        <v>177</v>
-      </c>
       <c r="D139" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J139" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B140" t="s">
         <v>38</v>
@@ -7773,7 +7773,7 @@
         <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J140" t="s">
         <v>39</v>
@@ -7781,67 +7781,67 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C141" t="s">
         <v>44</v>
       </c>
       <c r="D141" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J141" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B142" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C142" t="s">
         <v>53</v>
       </c>
       <c r="D142" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J142" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B143" t="s">
+        <v>178</v>
+      </c>
+      <c r="C143" t="s">
         <v>179</v>
       </c>
-      <c r="C143" t="s">
-        <v>180</v>
-      </c>
       <c r="D143" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J143" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B144" t="s">
+        <v>163</v>
+      </c>
+      <c r="C144" t="s">
         <v>164</v>
       </c>
-      <c r="C144" t="s">
-        <v>165</v>
-      </c>
       <c r="D144" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J144" t="s">
         <v>33</v>
@@ -7849,16 +7849,16 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B145" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" t="s">
         <v>166</v>
       </c>
-      <c r="C145" t="s">
-        <v>167</v>
-      </c>
       <c r="D145" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J145" t="s">
         <v>34</v>
@@ -7866,87 +7866,87 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B146" t="s">
+        <v>173</v>
+      </c>
+      <c r="C146" t="s">
         <v>174</v>
       </c>
-      <c r="C146" t="s">
-        <v>175</v>
-      </c>
       <c r="D146" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J146" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C147" t="s">
         <v>31</v>
       </c>
       <c r="D147" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J147" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B148" t="s">
+        <v>218</v>
+      </c>
+      <c r="C148" t="s">
         <v>219</v>
       </c>
-      <c r="C148" t="s">
-        <v>220</v>
-      </c>
       <c r="D148" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J148" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C149" t="s">
         <v>52</v>
       </c>
       <c r="D149" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H149" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J149" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B150" t="s">
+        <v>187</v>
+      </c>
+      <c r="C150" t="s">
         <v>188</v>
       </c>
-      <c r="C150" t="s">
-        <v>189</v>
-      </c>
       <c r="D150" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J150" t="s">
         <v>29</v>
@@ -7954,16 +7954,16 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B151" t="s">
+        <v>185</v>
+      </c>
+      <c r="C151" t="s">
         <v>186</v>
       </c>
-      <c r="C151" t="s">
-        <v>187</v>
-      </c>
       <c r="D151" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J151" t="s">
         <v>28</v>
@@ -7971,121 +7971,121 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B152" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C152" t="s">
         <v>48</v>
       </c>
       <c r="D152" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J152" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B153" t="s">
         <v>51</v>
       </c>
       <c r="C153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D153" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H153" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J153" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B154" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C154" t="s">
         <v>30</v>
       </c>
       <c r="D154" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J154" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B155" t="s">
+        <v>277</v>
+      </c>
+      <c r="C155" t="s">
         <v>278</v>
       </c>
-      <c r="C155" t="s">
-        <v>279</v>
-      </c>
       <c r="D155" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J155" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B156" t="s">
+        <v>288</v>
+      </c>
+      <c r="C156" t="s">
         <v>289</v>
       </c>
-      <c r="C156" t="s">
-        <v>290</v>
-      </c>
       <c r="D156" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J156" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B157" t="s">
+        <v>155</v>
+      </c>
+      <c r="C157" t="s">
         <v>156</v>
       </c>
-      <c r="C157" t="s">
-        <v>157</v>
-      </c>
       <c r="D157" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J157" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B158" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" t="s">
         <v>183</v>
       </c>
-      <c r="C158" t="s">
-        <v>184</v>
-      </c>
       <c r="D158" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J158" t="s">
         <v>27</v>
@@ -8093,41 +8093,41 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B159" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C159" t="s">
         <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J159" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B160" t="s">
+        <v>180</v>
+      </c>
+      <c r="C160" t="s">
         <v>181</v>
       </c>
-      <c r="C160" t="s">
-        <v>182</v>
-      </c>
       <c r="D160" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J160" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B161" t="s">
         <v>25</v>
@@ -8136,7 +8136,7 @@
         <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J161" t="s">
         <v>32</v>
@@ -8144,36 +8144,36 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B162" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" t="s">
         <v>168</v>
       </c>
-      <c r="C162" t="s">
-        <v>169</v>
-      </c>
       <c r="D162" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H162" t="s">
+        <v>551</v>
+      </c>
+      <c r="J162" t="s">
         <v>553</v>
-      </c>
-      <c r="J162" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C163" t="s">
         <v>57</v>
       </c>
       <c r="D163" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B164" t="s">
         <v>49</v>
@@ -8196,61 +8196,61 @@
         <v>49</v>
       </c>
       <c r="D164" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J164" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C165" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D165" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E165" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J165" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C166" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D166" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E166" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J166" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C167" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D167" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -8261,112 +8261,112 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C168" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D168" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E168" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B169" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C169" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D169" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E169" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B170" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C170" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D170" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E170" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B171" t="s">
+        <v>281</v>
+      </c>
+      <c r="C171" t="s">
         <v>282</v>
       </c>
-      <c r="C171" t="s">
-        <v>283</v>
-      </c>
       <c r="D171" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B172" t="s">
+        <v>158</v>
+      </c>
+      <c r="C172" t="s">
         <v>159</v>
       </c>
-      <c r="C172" t="s">
-        <v>160</v>
-      </c>
       <c r="D172" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E172" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B173" t="s">
+        <v>163</v>
+      </c>
+      <c r="C173" t="s">
         <v>164</v>
       </c>
-      <c r="C173" t="s">
-        <v>165</v>
-      </c>
       <c r="D173" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B174" t="s">
+        <v>279</v>
+      </c>
+      <c r="C174" t="s">
         <v>280</v>
       </c>
-      <c r="C174" t="s">
-        <v>281</v>
-      </c>
       <c r="D174" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F174" t="b">
         <v>0</v>
@@ -8377,190 +8377,190 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B175" t="s">
+        <v>155</v>
+      </c>
+      <c r="C175" t="s">
         <v>156</v>
       </c>
-      <c r="C175" t="s">
-        <v>157</v>
-      </c>
       <c r="D175" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B176" t="s">
+        <v>167</v>
+      </c>
+      <c r="C176" t="s">
         <v>168</v>
       </c>
-      <c r="C176" t="s">
-        <v>169</v>
-      </c>
       <c r="D176" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C177" t="s">
         <v>57</v>
       </c>
       <c r="D177" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B178" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C178" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D178" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B179" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C179" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D179" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B180" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C180" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D180" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B181" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C181" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D181" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B182" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C182" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D182" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B183" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C183" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D183" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E183" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C184" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D184" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B185" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C185" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D185" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B186" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C186" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D186" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H186" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B187" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C187" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D187" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -8571,64 +8571,64 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B188" t="s">
+        <v>321</v>
+      </c>
+      <c r="C188" t="s">
         <v>322</v>
       </c>
-      <c r="C188" t="s">
-        <v>323</v>
-      </c>
       <c r="D188" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B189" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C189" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D189" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E189" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B190" t="s">
+        <v>323</v>
+      </c>
+      <c r="C190" t="s">
         <v>324</v>
       </c>
-      <c r="C190" t="s">
-        <v>325</v>
-      </c>
       <c r="D190" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B191" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C191" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D191" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E191" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -8636,61 +8636,61 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B192" t="s">
+        <v>325</v>
+      </c>
+      <c r="C192" t="s">
         <v>326</v>
       </c>
-      <c r="C192" t="s">
-        <v>327</v>
-      </c>
       <c r="D192" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B193" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C193" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D193" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E193" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B194" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C194" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D194" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E194" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C195" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D195" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -8701,47 +8701,47 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B196" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C196" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D196" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E196" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B197" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C197" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D197" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J197" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B198" t="s">
         <v>80</v>
@@ -8750,15 +8750,15 @@
         <v>81</v>
       </c>
       <c r="D198" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J198" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B199" t="s">
         <v>78</v>
@@ -8767,38 +8767,38 @@
         <v>79</v>
       </c>
       <c r="D199" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J199" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B200" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C200" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D200" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J200" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C201" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D201" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -8807,12 +8807,12 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B202" t="s">
         <v>82</v>
@@ -8821,27 +8821,27 @@
         <v>83</v>
       </c>
       <c r="D202" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E202" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J202" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B203" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C203" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D203" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -8852,107 +8852,107 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B204" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C204" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D204" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E204" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J204" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B205" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C205" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D205" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E205" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B206" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C206" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D206" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J206" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B207" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C207" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D207" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E207" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J207" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B208" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C208" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D208" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E208" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J208" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C209" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D209" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F209" t="b">
         <v>0</v>
@@ -8963,36 +8963,36 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B210" t="s">
+        <v>366</v>
+      </c>
+      <c r="C210" t="s">
         <v>367</v>
       </c>
-      <c r="C210" t="s">
-        <v>368</v>
-      </c>
       <c r="D210" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E210" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C211" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D211" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
@@ -9003,59 +9003,59 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B212" t="s">
+        <v>368</v>
+      </c>
+      <c r="C212" t="s">
         <v>369</v>
       </c>
-      <c r="C212" t="s">
-        <v>370</v>
-      </c>
       <c r="D212" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E212" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B213" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C213" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D213" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E213" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C214" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D214" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
@@ -9066,30 +9066,30 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B215" t="s">
+        <v>342</v>
+      </c>
+      <c r="C215" t="s">
         <v>343</v>
       </c>
-      <c r="C215" t="s">
-        <v>344</v>
-      </c>
       <c r="D215" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E215" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C216" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D216" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
@@ -9100,187 +9100,187 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B217" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C217" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D217" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B218" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C218" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D218" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E218" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B219" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C219" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D219" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B220" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C220" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D220" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B221" t="s">
+        <v>354</v>
+      </c>
+      <c r="C221" t="s">
         <v>355</v>
       </c>
-      <c r="C221" t="s">
-        <v>356</v>
-      </c>
       <c r="D221" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B222" t="s">
+        <v>358</v>
+      </c>
+      <c r="C222" t="s">
         <v>359</v>
       </c>
-      <c r="C222" t="s">
-        <v>360</v>
-      </c>
       <c r="D222" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B223" t="s">
+        <v>346</v>
+      </c>
+      <c r="C223" t="s">
         <v>347</v>
       </c>
-      <c r="C223" t="s">
-        <v>348</v>
-      </c>
       <c r="D223" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B224" t="s">
+        <v>348</v>
+      </c>
+      <c r="C224" t="s">
         <v>349</v>
       </c>
-      <c r="C224" t="s">
-        <v>350</v>
-      </c>
       <c r="D224" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B225" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C225" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D225" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B226" t="s">
+        <v>356</v>
+      </c>
+      <c r="C226" t="s">
         <v>357</v>
       </c>
-      <c r="C226" t="s">
-        <v>358</v>
-      </c>
       <c r="D226" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E226" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B227" t="s">
+        <v>350</v>
+      </c>
+      <c r="C227" t="s">
         <v>351</v>
       </c>
-      <c r="C227" t="s">
-        <v>352</v>
-      </c>
       <c r="D227" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B228" t="s">
+        <v>352</v>
+      </c>
+      <c r="C228" t="s">
         <v>353</v>
       </c>
-      <c r="C228" t="s">
-        <v>354</v>
-      </c>
       <c r="D228" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C229" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D229" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -9291,16 +9291,16 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B230" t="s">
+        <v>371</v>
+      </c>
+      <c r="C230" t="s">
         <v>372</v>
       </c>
-      <c r="C230" t="s">
-        <v>373</v>
-      </c>
       <c r="D230" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F230" t="b">
         <v>0</v>
@@ -9311,130 +9311,130 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B231" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C231" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D231" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E231" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
+        <v>882</v>
+      </c>
+      <c r="B232" t="s">
+        <v>712</v>
+      </c>
+      <c r="C232" t="s">
+        <v>499</v>
+      </c>
+      <c r="D232" t="s">
+        <v>529</v>
+      </c>
+      <c r="E232" t="s">
         <v>884</v>
-      </c>
-      <c r="B232" t="s">
-        <v>714</v>
-      </c>
-      <c r="C232" t="s">
-        <v>501</v>
-      </c>
-      <c r="D232" t="s">
-        <v>531</v>
-      </c>
-      <c r="E232" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B233" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C233" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D233" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E233" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J233" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B234" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C234" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D234" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E234" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B235" t="s">
+        <v>251</v>
+      </c>
+      <c r="C235" t="s">
         <v>252</v>
       </c>
-      <c r="C235" t="s">
-        <v>253</v>
-      </c>
       <c r="D235" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J235" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B236" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C236" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D236" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E236" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J236" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B237" t="s">
+        <v>249</v>
+      </c>
+      <c r="C237" t="s">
         <v>250</v>
       </c>
-      <c r="C237" t="s">
-        <v>251</v>
-      </c>
       <c r="D237" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -9443,75 +9443,75 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H238" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B239" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C239" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D239" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E239" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B240" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C240" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D240" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E240" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J240" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B241" t="s">
+        <v>146</v>
+      </c>
+      <c r="C241" t="s">
         <v>147</v>
       </c>
-      <c r="C241" t="s">
-        <v>148</v>
-      </c>
       <c r="D241" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F241" t="b">
         <v>0</v>
@@ -9522,81 +9522,81 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B242" t="s">
+        <v>144</v>
+      </c>
+      <c r="C242" t="s">
         <v>145</v>
       </c>
-      <c r="C242" t="s">
-        <v>146</v>
-      </c>
       <c r="D242" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B243" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C243" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D243" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J243" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B244" t="s">
+        <v>148</v>
+      </c>
+      <c r="C244" t="s">
         <v>149</v>
       </c>
-      <c r="C244" t="s">
-        <v>150</v>
-      </c>
       <c r="D244" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J244" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B245" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C245" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D245" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J245" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B246" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C246" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D246" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -9607,21 +9607,21 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B247" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C247" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D247" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B248" t="s">
         <v>74</v>
@@ -9630,26 +9630,26 @@
         <v>75</v>
       </c>
       <c r="D248" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B249" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C249" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D249" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B250" t="s">
         <v>72</v>
@@ -9658,69 +9658,69 @@
         <v>73</v>
       </c>
       <c r="D250" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B251" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C251" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D251" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E251" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B252" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C252" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D252" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B253" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C253" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D253" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B254" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C254" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D254" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E254" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F254" t="b">
         <v>0</v>
@@ -9728,168 +9728,168 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B255" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C255" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D255" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B256" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C256" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D256" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E256" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B257" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C257" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D257" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B258" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C258" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D258" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B259" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C259" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D259" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B260" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C260" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D260" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H260" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B261" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C261" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D261" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B262" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C262" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D262" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B263" t="s">
+        <v>135</v>
+      </c>
+      <c r="C263" t="s">
         <v>136</v>
       </c>
-      <c r="C263" t="s">
-        <v>137</v>
-      </c>
       <c r="D263" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E263" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B264" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C264" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D264" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E264" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B265" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C265" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D265" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F265" t="b">
         <v>0</v>
@@ -9900,49 +9900,49 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B266" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C266" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D266" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B267" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C267" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D267" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B268" t="s">
+        <v>249</v>
+      </c>
+      <c r="C268" t="s">
         <v>250</v>
       </c>
-      <c r="C268" t="s">
-        <v>251</v>
-      </c>
       <c r="D268" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B269" t="s">
         <v>65</v>
@@ -9951,12 +9951,12 @@
         <v>66</v>
       </c>
       <c r="D269" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B270" t="s">
         <v>67</v>
@@ -9965,217 +9965,217 @@
         <v>68</v>
       </c>
       <c r="D270" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B271" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C271" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D271" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E271" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J271" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B272" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C272" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D272" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J272" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B273" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C273" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D273" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J273" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B274" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C274" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D274" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B275" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C275" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D275" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J275" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B276" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C276" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D276" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J276" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B277" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C277" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D277" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J277" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B278" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C278" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D278" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J278" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B279" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C279" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D279" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J279" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B280" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C280" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D280" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H280" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J280" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="16" customHeight="1">
       <c r="A281" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B281" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C281" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D281" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E281" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F281" t="b">
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B282" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C282" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D282" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F282" t="b">
         <v>0</v>
@@ -10184,80 +10184,80 @@
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B283" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C283" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D283" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J283" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B284" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C284" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D284" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J284" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B285" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C285" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D285" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J285" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B286" t="s">
+        <v>306</v>
+      </c>
+      <c r="C286" t="s">
         <v>307</v>
       </c>
-      <c r="C286" t="s">
-        <v>308</v>
-      </c>
       <c r="D286" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J286" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B287" t="s">
         <v>76</v>
@@ -10266,38 +10266,38 @@
         <v>76</v>
       </c>
       <c r="D287" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J287" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B288" t="s">
+        <v>207</v>
+      </c>
+      <c r="C288" t="s">
         <v>208</v>
       </c>
-      <c r="C288" t="s">
-        <v>209</v>
-      </c>
       <c r="D288" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H288" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C289" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D289" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E289" s="1"/>
       <c r="F289" t="b">
@@ -10309,36 +10309,36 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B290" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C290" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D290" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J290" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B291" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C291" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D291" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F291" t="b">
         <v>0</v>
@@ -10349,193 +10349,193 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B292" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C292" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D292" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B293" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C293" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D293" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B294" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C294" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D294" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E294" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B295" t="s">
         <v>71</v>
       </c>
       <c r="C295" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D295" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E295" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B296" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C296" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D296" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E296" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B297" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C297" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D297" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E297" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B298" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C298" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D298" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E298" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B299" t="s">
+        <v>261</v>
+      </c>
+      <c r="C299" t="s">
         <v>262</v>
       </c>
-      <c r="C299" t="s">
-        <v>263</v>
-      </c>
       <c r="D299" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B300" t="s">
+        <v>301</v>
+      </c>
+      <c r="C300" t="s">
         <v>302</v>
       </c>
-      <c r="C300" t="s">
-        <v>303</v>
-      </c>
       <c r="D300" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B301" t="s">
+        <v>135</v>
+      </c>
+      <c r="C301" t="s">
         <v>136</v>
       </c>
-      <c r="C301" t="s">
-        <v>137</v>
-      </c>
       <c r="D301" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E301" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B302" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C302" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D302" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B303" t="s">
+        <v>249</v>
+      </c>
+      <c r="C303" t="s">
         <v>250</v>
       </c>
-      <c r="C303" t="s">
-        <v>251</v>
-      </c>
       <c r="D303" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B304" t="s">
         <v>69</v>
@@ -10544,120 +10544,120 @@
         <v>70</v>
       </c>
       <c r="D304" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B305" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C305" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D305" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E305" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B306" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C306" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D306" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E306" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B307" t="s">
+        <v>142</v>
+      </c>
+      <c r="C307" t="s">
         <v>143</v>
       </c>
-      <c r="C307" t="s">
-        <v>144</v>
-      </c>
       <c r="D307" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E307" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B308" t="s">
+        <v>129</v>
+      </c>
+      <c r="C308" t="s">
         <v>130</v>
       </c>
-      <c r="C308" t="s">
-        <v>131</v>
-      </c>
       <c r="D308" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E308" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B309" t="s">
+        <v>117</v>
+      </c>
+      <c r="C309" t="s">
         <v>118</v>
       </c>
-      <c r="C309" t="s">
-        <v>119</v>
-      </c>
       <c r="D309" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E309" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B310" t="s">
+        <v>122</v>
+      </c>
+      <c r="C310" t="s">
         <v>123</v>
       </c>
-      <c r="C310" t="s">
-        <v>124</v>
-      </c>
       <c r="D310" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B311" t="s">
+        <v>251</v>
+      </c>
+      <c r="C311" t="s">
         <v>252</v>
       </c>
-      <c r="C311" t="s">
-        <v>253</v>
-      </c>
       <c r="D311" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F311" t="b">
         <v>0</v>
@@ -10668,35 +10668,35 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B312" t="s">
+        <v>115</v>
+      </c>
+      <c r="C312" t="s">
         <v>116</v>
       </c>
-      <c r="C312" t="s">
-        <v>117</v>
-      </c>
       <c r="D312" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B313" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C313" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D313" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B314" t="s">
         <v>72</v>
@@ -10705,66 +10705,66 @@
         <v>73</v>
       </c>
       <c r="D314" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B315" t="s">
+        <v>127</v>
+      </c>
+      <c r="C315" t="s">
         <v>128</v>
       </c>
-      <c r="C315" t="s">
-        <v>129</v>
-      </c>
       <c r="D315" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B316" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C316" t="s">
         <v>56</v>
       </c>
       <c r="D316" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B317" t="s">
+        <v>150</v>
+      </c>
+      <c r="C317" t="s">
         <v>151</v>
       </c>
-      <c r="C317" t="s">
-        <v>152</v>
-      </c>
       <c r="D317" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E317" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B318" t="s">
+        <v>251</v>
+      </c>
+      <c r="C318" t="s">
         <v>252</v>
       </c>
-      <c r="C318" t="s">
-        <v>253</v>
-      </c>
       <c r="D318" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F318" t="b">
         <v>0</v>
@@ -10775,16 +10775,16 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B319" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C319" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D319" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F319" t="b">
         <v>0</v>
@@ -10795,296 +10795,296 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B320" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C320" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D320" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E320" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F320" t="b">
         <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B321" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C321" t="s">
-        <v>376</v>
+        <v>900</v>
       </c>
       <c r="D321" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E321" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J321" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B322" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C322" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D322" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E322" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F322" t="b">
         <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B323" t="s">
+        <v>371</v>
+      </c>
+      <c r="C323" t="s">
         <v>372</v>
       </c>
-      <c r="C323" t="s">
-        <v>373</v>
-      </c>
       <c r="D323" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E323" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F323" t="b">
         <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B324" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C324" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D324" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E324" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J324" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B325" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C325" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D325" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J325" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B326" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C326" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D326" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E326" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J326" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B327" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C327" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D327" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E327" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J327" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B328" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C328" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D328" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E328" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J328" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B329" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C329" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D329" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J329" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B330" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C330" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D330" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E330" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F330" t="b">
         <v>0</v>
       </c>
       <c r="J330" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B331" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C331" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D331" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E331" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J331" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B332" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C332" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D332" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J332" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B333" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C333" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D333" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J333" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B334" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C334" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D334" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F334" t="b">
         <v>0</v>
@@ -11093,128 +11093,128 @@
         <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B335" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C335" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D335" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E335" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B336" t="s">
         <v>89</v>
       </c>
       <c r="C336" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D336" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E336" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B337" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C337" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D337" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E337" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B338" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C338" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D338" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E338" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B339" t="s">
         <v>71</v>
       </c>
       <c r="C339" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D339" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E339" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B340" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C340" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D340" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E340" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B341" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C341" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D341" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B342" t="s">
         <v>84</v>
@@ -11223,52 +11223,52 @@
         <v>85</v>
       </c>
       <c r="D342" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B343" t="s">
+        <v>113</v>
+      </c>
+      <c r="C343" t="s">
         <v>114</v>
       </c>
-      <c r="C343" t="s">
-        <v>115</v>
-      </c>
       <c r="D343" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E343" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B344" t="s">
+        <v>119</v>
+      </c>
+      <c r="C344" t="s">
         <v>120</v>
       </c>
-      <c r="C344" t="s">
-        <v>121</v>
-      </c>
       <c r="D344" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B345" t="s">
+        <v>249</v>
+      </c>
+      <c r="C345" t="s">
         <v>250</v>
       </c>
-      <c r="C345" t="s">
-        <v>251</v>
-      </c>
       <c r="D345" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F345" t="b">
         <v>0</v>
@@ -11279,21 +11279,21 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B346" t="s">
+        <v>111</v>
+      </c>
+      <c r="C346" t="s">
         <v>112</v>
       </c>
-      <c r="C346" t="s">
-        <v>113</v>
-      </c>
       <c r="D346" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B347" t="s">
         <v>69</v>
@@ -11302,12 +11302,12 @@
         <v>70</v>
       </c>
       <c r="D347" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B348" t="s">
         <v>65</v>
@@ -11316,12 +11316,12 @@
         <v>66</v>
       </c>
       <c r="D348" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B349" t="s">
         <v>67</v>
@@ -11330,49 +11330,49 @@
         <v>68</v>
       </c>
       <c r="D349" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B350" t="s">
+        <v>253</v>
+      </c>
+      <c r="C350" t="s">
         <v>254</v>
       </c>
-      <c r="C350" t="s">
-        <v>255</v>
-      </c>
       <c r="D350" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B351" t="s">
+        <v>344</v>
+      </c>
+      <c r="C351" t="s">
         <v>345</v>
       </c>
-      <c r="C351" t="s">
-        <v>346</v>
-      </c>
       <c r="D351" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E351" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C352" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D352" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F352" t="b">
         <v>0</v>
@@ -11383,238 +11383,238 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B353" t="s">
+        <v>339</v>
+      </c>
+      <c r="C353" t="s">
         <v>340</v>
       </c>
-      <c r="C353" t="s">
-        <v>341</v>
-      </c>
       <c r="D353" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E353" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="354" spans="1:10">
       <c r="A354" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B354" t="s">
         <v>89</v>
       </c>
       <c r="C354" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D354" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E354" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J354" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="355" spans="1:10">
       <c r="A355" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B355" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C355" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D355" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E355" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J355" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="356" spans="1:10">
       <c r="A356" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B356" t="s">
         <v>88</v>
       </c>
       <c r="C356" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D356" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J356" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="357" spans="1:10">
       <c r="A357" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B357" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C357" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D357" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E357" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J357" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="358" spans="1:10">
       <c r="A358" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B358" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C358" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D358" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E358" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F358" t="b">
         <v>0</v>
       </c>
       <c r="J358" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="359" spans="1:10">
       <c r="A359" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B359" t="s">
+        <v>131</v>
+      </c>
+      <c r="C359" t="s">
         <v>132</v>
       </c>
-      <c r="C359" t="s">
-        <v>133</v>
-      </c>
       <c r="D359" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J359" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="360" spans="1:10">
       <c r="A360" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B360" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C360" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D360" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E360" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J360" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="361" spans="1:10">
       <c r="A361" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B361" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C361" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D361" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E361" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J361" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="362" spans="1:10">
       <c r="A362" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B362" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C362" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D362" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J362" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="363" spans="1:10">
       <c r="A363" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B363" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C363" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D363" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E363" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F363" t="b">
         <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="364" spans="1:10">
       <c r="A364" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B364" t="s">
+        <v>281</v>
+      </c>
+      <c r="C364" t="s">
         <v>282</v>
       </c>
-      <c r="C364" t="s">
-        <v>283</v>
-      </c>
       <c r="D364" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J364" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="365" spans="1:10">
       <c r="A365" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B365" t="s">
         <v>86</v>
@@ -11623,75 +11623,75 @@
         <v>87</v>
       </c>
       <c r="D365" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J365" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="366" spans="1:10">
       <c r="A366" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B366" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C366" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D366" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E366" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F366" t="b">
         <v>0</v>
       </c>
       <c r="J366" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="367" spans="1:10">
       <c r="A367" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B367" t="s">
         <v>82</v>
       </c>
       <c r="C367" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D367" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E367" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J367" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="368" spans="1:10">
       <c r="A368" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B368" t="s">
+        <v>285</v>
+      </c>
+      <c r="C368" t="s">
         <v>286</v>
       </c>
-      <c r="C368" t="s">
-        <v>287</v>
-      </c>
       <c r="D368" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J368" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="369" spans="1:10">
       <c r="A369" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B369" t="s">
         <v>84</v>
@@ -11700,15 +11700,15 @@
         <v>85</v>
       </c>
       <c r="D369" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J369" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="370" spans="1:10">
       <c r="A370" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B370" t="s">
         <v>80</v>
@@ -11717,49 +11717,49 @@
         <v>81</v>
       </c>
       <c r="D370" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J370" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="371" spans="1:10">
       <c r="A371" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B371" t="s">
+        <v>271</v>
+      </c>
+      <c r="C371" t="s">
         <v>272</v>
       </c>
-      <c r="C371" t="s">
-        <v>273</v>
-      </c>
       <c r="D371" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J371" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="372" spans="1:10">
       <c r="A372" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B372" t="s">
+        <v>279</v>
+      </c>
+      <c r="C372" t="s">
         <v>280</v>
       </c>
-      <c r="C372" t="s">
-        <v>281</v>
-      </c>
       <c r="D372" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J372" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="373" spans="1:10">
       <c r="A373" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B373" t="s">
         <v>78</v>
@@ -11768,95 +11768,95 @@
         <v>79</v>
       </c>
       <c r="D373" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J373" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="374" spans="1:10">
       <c r="A374" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B374" t="s">
+        <v>266</v>
+      </c>
+      <c r="C374" t="s">
         <v>267</v>
       </c>
-      <c r="C374" t="s">
-        <v>268</v>
-      </c>
       <c r="D374" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H374" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J374" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="375" spans="1:10">
       <c r="A375" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B375" t="s">
+        <v>291</v>
+      </c>
+      <c r="C375" t="s">
         <v>292</v>
       </c>
-      <c r="C375" t="s">
-        <v>293</v>
-      </c>
       <c r="D375" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J375" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="376" spans="1:10">
       <c r="A376" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B376" t="s">
+        <v>273</v>
+      </c>
+      <c r="C376" t="s">
         <v>274</v>
       </c>
-      <c r="C376" t="s">
-        <v>275</v>
-      </c>
       <c r="D376" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J376" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="377" spans="1:10">
       <c r="A377" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B377" t="s">
+        <v>275</v>
+      </c>
+      <c r="C377" t="s">
         <v>276</v>
       </c>
-      <c r="C377" t="s">
-        <v>277</v>
-      </c>
       <c r="D377" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J377" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="378" spans="1:10">
       <c r="A378" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B378" t="s">
+        <v>268</v>
+      </c>
+      <c r="C378" t="s">
         <v>269</v>
       </c>
-      <c r="C378" t="s">
-        <v>270</v>
-      </c>
       <c r="D378" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F378" t="b">
         <v>0</v>
@@ -11865,21 +11865,21 @@
         <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="379" spans="1:10">
       <c r="A379" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B379" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C379" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D379" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F379" t="b">
         <v>0</v>
@@ -11888,21 +11888,21 @@
         <v>1</v>
       </c>
       <c r="J379" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="380" spans="1:10">
       <c r="A380" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B380" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C380" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D380" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F380" t="b">
         <v>0</v>
@@ -11913,16 +11913,16 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B381" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C381" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D381" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -11960,102 +11960,102 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>834</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>848</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C4" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4" t="s">
         <v>849</v>
       </c>
-      <c r="D4" t="s">
-        <v>851</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C5" t="s">
         <v>838</v>
       </c>
-      <c r="B5" t="s">
-        <v>839</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>842</v>
-      </c>
       <c r="F5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
